--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -15,6 +15,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="375">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -882,6 +884,9 @@
   </si>
   <si>
     <t xml:space="preserve">Активация Зоны кассы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
   </si>
   <si>
     <t xml:space="preserve">Menu Board, Café Activation, Cash Zone</t>
@@ -1334,8 +1339,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1359,7 +1364,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1615,7 +1620,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1633,7 +1638,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1669,38 +1674,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="78.8380566801619"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="80.2307692307692"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.0242914979757"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.9878542510121"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -6925,7 +6930,7 @@
         <v>262</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="I68" s="21"/>
       <c r="J68" s="21" t="n">
@@ -6947,7 +6952,7 @@
       <c r="V68" s="21"/>
       <c r="W68" s="21"/>
       <c r="X68" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y68" s="21"/>
       <c r="Z68" s="21"/>
@@ -6968,7 +6973,7 @@
         <v>59</v>
       </c>
       <c r="AK68" s="25" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL68" s="19" t="n">
         <v>130</v>
@@ -6989,10 +6994,10 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="21" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H69" s="21" t="s">
         <v>68</v>
@@ -7007,10 +7012,10 @@
         <v>231</v>
       </c>
       <c r="N69" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O69" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P69" s="21"/>
       <c r="Q69" s="21" t="s">
@@ -7027,7 +7032,7 @@
       <c r="V69" s="21"/>
       <c r="W69" s="21"/>
       <c r="X69" s="21" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y69" s="21"/>
       <c r="Z69" s="21"/>
@@ -7066,13 +7071,13 @@
         <v>40</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>252</v>
@@ -7086,7 +7091,7 @@
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
@@ -7108,7 +7113,7 @@
       <c r="AE70" s="7"/>
       <c r="AF70" s="7"/>
       <c r="AG70" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AH70" s="7"/>
       <c r="AI70" s="7" t="n">
@@ -7118,7 +7123,7 @@
         <v>62</v>
       </c>
       <c r="AK70" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL70" s="14" t="n">
         <v>311</v>
@@ -7138,16 +7143,16 @@
         <v>40</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7" t="n">
@@ -7159,20 +7164,20 @@
         <v>231</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
@@ -7186,7 +7191,7 @@
       <c r="AE71" s="7"/>
       <c r="AF71" s="7"/>
       <c r="AG71" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AH71" s="7"/>
       <c r="AI71" s="7" t="n">
@@ -7214,16 +7219,16 @@
         <v>40</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7" t="n">
@@ -7235,20 +7240,20 @@
         <v>231</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
@@ -7288,16 +7293,16 @@
         <v>40</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7" t="n">
@@ -7307,13 +7312,13 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
       <c r="N73" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -7323,7 +7328,7 @@
         <v>72</v>
       </c>
       <c r="X73" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
@@ -7338,10 +7343,10 @@
       <c r="AE73" s="7"/>
       <c r="AF73" s="7"/>
       <c r="AG73" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AH73" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AI73" s="7" t="n">
         <v>2</v>
@@ -7368,16 +7373,16 @@
         <v>40</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7" t="n">
@@ -7393,14 +7398,14 @@
       <c r="P74" s="11"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
@@ -7416,10 +7421,10 @@
       <c r="AE74" s="7"/>
       <c r="AF74" s="7"/>
       <c r="AG74" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AH74" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AI74" s="7" t="n">
         <v>2</v>
@@ -7446,16 +7451,16 @@
         <v>40</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -7469,20 +7474,20 @@
         <v>231</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
@@ -7498,10 +7503,10 @@
       <c r="AE75" s="7"/>
       <c r="AF75" s="7"/>
       <c r="AG75" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AH75" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AI75" s="7" t="n">
         <v>2</v>
@@ -7528,13 +7533,13 @@
         <v>40</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F76" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>248</v>
@@ -7550,7 +7555,7 @@
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
@@ -7558,10 +7563,10 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X76" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
@@ -7584,7 +7589,7 @@
         <v>68</v>
       </c>
       <c r="AK76" s="13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL76" s="29" t="n">
         <v>400</v>
@@ -7604,16 +7609,16 @@
         <v>40</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>248</v>
+        <v>309</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>263</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7" t="n">
@@ -7626,7 +7631,7 @@
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
@@ -7634,10 +7639,10 @@
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X77" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
@@ -7658,7 +7663,7 @@
         <v>69</v>
       </c>
       <c r="AK77" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL77" s="7" t="n">
         <v>68</v>
@@ -7678,13 +7683,13 @@
         <v>40</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>68</v>
@@ -7696,30 +7701,30 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="7" t="s">
         <v>70</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X78" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
@@ -7758,16 +7763,16 @@
         <v>40</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7" t="n">
@@ -7776,7 +7781,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N79" s="31" t="n">
         <v>5000034</v>
@@ -7794,10 +7799,10 @@
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X79" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
@@ -7810,7 +7815,7 @@
       <c r="AE79" s="7"/>
       <c r="AF79" s="7"/>
       <c r="AG79" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AH79" s="7"/>
       <c r="AI79" s="32" t="n">
@@ -7838,16 +7843,16 @@
         <v>40</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>248</v>
+        <v>323</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>263</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7" t="n">
@@ -7860,7 +7865,7 @@
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
@@ -7868,10 +7873,10 @@
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X80" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
@@ -7892,7 +7897,7 @@
         <v>72</v>
       </c>
       <c r="AK80" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL80" s="7" t="n">
         <v>68</v>
@@ -7912,13 +7917,13 @@
         <v>40</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>68</v>
@@ -7931,29 +7936,29 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
       <c r="N81" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q81" s="7" t="s">
         <v>70</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X81" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
@@ -7992,13 +7997,13 @@
         <v>40</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>68</v>
@@ -8010,10 +8015,10 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O82" s="7"/>
       <c r="P82" s="7"/>
@@ -8028,7 +8033,7 @@
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
@@ -8065,16 +8070,16 @@
         <v>39</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>230</v>
@@ -8106,7 +8111,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
@@ -8126,10 +8131,10 @@
         <v>1</v>
       </c>
       <c r="AG83" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH83" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI83" s="7" t="n">
         <v>2</v>
@@ -8153,16 +8158,16 @@
         <v>39</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>230</v>
@@ -8194,7 +8199,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
@@ -8214,10 +8219,10 @@
         <v>1</v>
       </c>
       <c r="AG84" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH84" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI84" s="7" t="n">
         <v>2</v>
@@ -8241,16 +8246,16 @@
         <v>39</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>230</v>
@@ -8282,7 +8287,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
@@ -8302,10 +8307,10 @@
         <v>1</v>
       </c>
       <c r="AG85" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AH85" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI85" s="7" t="n">
         <v>2</v>
@@ -8329,22 +8334,22 @@
         <v>39</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
@@ -8355,7 +8360,7 @@
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
@@ -8378,7 +8383,7 @@
         <v>78</v>
       </c>
       <c r="AK86" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL86" s="7"/>
     </row>
@@ -8393,35 +8398,35 @@
         <v>39</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -8459,35 +8464,35 @@
         <v>39</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
@@ -8525,35 +8530,35 @@
         <v>39</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
       <c r="N89" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -8591,22 +8596,22 @@
         <v>39</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -8617,7 +8622,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
@@ -8655,22 +8660,22 @@
         <v>39</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F91" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G91" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>361</v>
-      </c>
       <c r="I91" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -8681,7 +8686,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
@@ -8719,22 +8724,22 @@
         <v>39</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -8745,7 +8750,7 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
@@ -8783,35 +8788,35 @@
         <v>39</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
       <c r="N93" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O93" s="7"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
@@ -8834,7 +8839,7 @@
         <v>85</v>
       </c>
       <c r="AK93" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL93" s="7"/>
     </row>
@@ -8869,12 +8874,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -8924,10 +8929,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>32</v>
@@ -8936,18 +8941,18 @@
         <v>29</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="36" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="375">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1666,46 +1667,46 @@
   </sheetPr>
   <dimension ref="1:93"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="R81" activeCellId="0" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="80.2307692307692"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="80.8744939271255"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -7393,7 +7394,9 @@
       <c r="M74" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="N74" s="11"/>
+      <c r="N74" s="11" t="s">
+        <v>278</v>
+      </c>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="7"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -13,11 +13,12 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="372">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -847,19 +848,6 @@
 59</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсная зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Impulse Activation: Facings</t>
   </si>
   <si>
@@ -913,6 +901,9 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
   </si>
   <si>
     <t xml:space="preserve">Plus</t>
@@ -1434,7 +1425,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1545,10 +1536,6 @@
     </xf>
     <xf numFmtId="171" fontId="7" fillId="6" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1665,48 +1652,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:93"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="R81" activeCellId="0" sqref="R81"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="80.8744939271255"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="81.6234817813765"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -6764,7 +6751,7 @@
     </row>
     <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>38</v>
@@ -6789,28 +6776,42 @@
       <c r="J66" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="K66" s="21"/>
+      <c r="K66" s="21" t="n">
+        <v>9</v>
+      </c>
       <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
+      <c r="M66" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="N66" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>253</v>
+      </c>
       <c r="P66" s="21"/>
       <c r="Q66" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
+      <c r="R66" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="S66" s="21" t="s">
+        <v>254</v>
+      </c>
       <c r="T66" s="21"/>
       <c r="U66" s="21"/>
       <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
+      <c r="W66" s="21" t="s">
+        <v>255</v>
+      </c>
       <c r="X66" s="21"/>
       <c r="Y66" s="21"/>
       <c r="Z66" s="21"/>
       <c r="AA66" s="21"/>
       <c r="AB66" s="21"/>
       <c r="AC66" s="21" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="AD66" s="26"/>
       <c r="AE66" s="27"/>
@@ -6823,16 +6824,14 @@
       <c r="AJ66" s="21" t="n">
         <v>57</v>
       </c>
-      <c r="AK66" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="AL66" s="19" t="n">
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="21" t="n">
         <v>130</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>38</v>
@@ -6845,54 +6844,42 @@
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I67" s="21"/>
       <c r="J67" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="K67" s="21" t="n">
-        <v>9</v>
-      </c>
+      <c r="K67" s="21"/>
       <c r="L67" s="21"/>
-      <c r="M67" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="N67" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="O67" s="21" t="s">
-        <v>257</v>
-      </c>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="R67" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="S67" s="21" t="s">
-        <v>258</v>
-      </c>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
       <c r="T67" s="21"/>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
-      <c r="W67" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="X67" s="21"/>
+      <c r="W67" s="21"/>
+      <c r="X67" s="21" t="s">
+        <v>260</v>
+      </c>
       <c r="Y67" s="21"/>
       <c r="Z67" s="21"/>
       <c r="AA67" s="21"/>
       <c r="AB67" s="21"/>
       <c r="AC67" s="21" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="AD67" s="26"/>
       <c r="AE67" s="27"/>
@@ -6900,19 +6887,21 @@
       <c r="AG67" s="21"/>
       <c r="AH67" s="21"/>
       <c r="AI67" s="21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ67" s="21" t="n">
-        <v>58</v>
-      </c>
-      <c r="AK67" s="21"/>
-      <c r="AL67" s="21" t="n">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="AK67" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="AL67" s="19" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>38</v>
@@ -6925,35 +6914,45 @@
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="I68" s="21"/>
       <c r="J68" s="21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K68" s="21"/>
       <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
+      <c r="M68" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="N68" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>264</v>
+      </c>
       <c r="P68" s="21"/>
       <c r="Q68" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
+      <c r="R68" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="S68" s="21" t="s">
+        <v>254</v>
+      </c>
       <c r="T68" s="21"/>
       <c r="U68" s="21"/>
       <c r="V68" s="21"/>
       <c r="W68" s="21"/>
       <c r="X68" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y68" s="21"/>
       <c r="Z68" s="21"/>
@@ -6968,21 +6967,19 @@
       <c r="AG68" s="21"/>
       <c r="AH68" s="21"/>
       <c r="AI68" s="21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ68" s="21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK68" s="21"/>
+      <c r="AL68" s="21" t="n">
         <v>59</v>
-      </c>
-      <c r="AK68" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="AL68" s="19" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>38</v>
@@ -6993,74 +6990,68 @@
       <c r="D69" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="21" t="s">
+      <c r="E69" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G69" s="21" t="s">
+      <c r="G69" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H69" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="N69" s="21" t="s">
+      <c r="H69" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="O69" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="R69" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="S69" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD69" s="26"/>
-      <c r="AE69" s="27"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ69" s="21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="21" t="n">
-        <v>59</v>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD69" s="9" t="n">
+        <v>0.1275</v>
+      </c>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ69" s="7" t="n">
+        <v>62</v>
+      </c>
+      <c r="AK69" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL69" s="14" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>38</v>
@@ -7072,67 +7063,71 @@
         <v>40</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="J70" s="7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="11"/>
+      <c r="M70" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="R70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
+      <c r="W70" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD70" s="9" t="n">
-        <v>0.1275</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AD70" s="9"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="7"/>
       <c r="AG70" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AH70" s="7"/>
       <c r="AI70" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ70" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="7" t="n">
         <v>62</v>
-      </c>
-      <c r="AK70" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="AL70" s="14" t="n">
-        <v>311</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>38</v>
@@ -7144,20 +7139,20 @@
         <v>40</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7" t="n">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
@@ -7165,20 +7160,20 @@
         <v>231</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
@@ -7191,15 +7186,13 @@
       <c r="AD71" s="9"/>
       <c r="AE71" s="7"/>
       <c r="AF71" s="7"/>
-      <c r="AG71" s="7" t="s">
-        <v>281</v>
-      </c>
+      <c r="AG71" s="7"/>
       <c r="AH71" s="7"/>
       <c r="AI71" s="7" t="n">
         <v>3</v>
       </c>
       <c r="AJ71" s="7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK71" s="7"/>
       <c r="AL71" s="7" t="n">
@@ -7208,7 +7201,7 @@
     </row>
     <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>38</v>
@@ -7220,43 +7213,43 @@
         <v>40</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="N72" s="11" t="s">
-        <v>278</v>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
       <c r="V72" s="7"/>
       <c r="W72" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="X72" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="X72" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
@@ -7264,25 +7257,31 @@
       <c r="AC72" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD72" s="9"/>
+      <c r="AD72" s="9" t="n">
+        <v>0.0425</v>
+      </c>
       <c r="AE72" s="7"/>
       <c r="AF72" s="7"/>
-      <c r="AG72" s="7"/>
-      <c r="AH72" s="7"/>
+      <c r="AG72" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH72" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="AI72" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ72" s="7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK72" s="7"/>
-      <c r="AL72" s="7" t="n">
-        <v>62</v>
+      <c r="AL72" s="28" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>38</v>
@@ -7294,16 +7293,16 @@
         <v>40</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>291</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7" t="n">
@@ -7311,32 +7310,32 @@
       </c>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7" t="s">
-        <v>290</v>
+      <c r="M73" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="X73" s="7" t="s">
-        <v>290</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
       <c r="AC73" s="7" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="AD73" s="9" t="n">
         <v>0.0425</v>
@@ -7344,25 +7343,25 @@
       <c r="AE73" s="7"/>
       <c r="AF73" s="7"/>
       <c r="AG73" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AH73" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AI73" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ73" s="7" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK73" s="7"/>
-      <c r="AL73" s="29" t="n">
+      <c r="AL73" s="28" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>38</v>
@@ -7374,41 +7373,43 @@
         <v>40</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H74" s="7" t="s">
         <v>296</v>
       </c>
+      <c r="H74" s="29" t="s">
+        <v>297</v>
+      </c>
       <c r="I74" s="7"/>
-      <c r="J74" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="7" t="n">
+        <v>15</v>
+      </c>
       <c r="M74" s="7" t="s">
         <v>231</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
@@ -7416,7 +7417,7 @@
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7" t="s">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AD74" s="9" t="n">
         <v>0.0425</v>
@@ -7424,25 +7425,25 @@
       <c r="AE74" s="7"/>
       <c r="AF74" s="7"/>
       <c r="AG74" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AH74" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AI74" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ74" s="7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK74" s="7"/>
-      <c r="AL74" s="29" t="n">
+      <c r="AL74" s="28" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>38</v>
@@ -7454,45 +7455,41 @@
         <v>40</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F75" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="F75" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="H75" s="30" t="s">
+      <c r="G75" s="21" t="s">
         <v>300</v>
       </c>
+      <c r="H75" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L75" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="M75" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>278</v>
-      </c>
+      <c r="J75" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7" t="s">
-        <v>279</v>
-      </c>
+      <c r="Q75" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="X75" s="7"/>
+        <v>302</v>
+      </c>
+      <c r="X75" s="7" t="s">
+        <v>260</v>
+      </c>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
       <c r="AA75" s="7"/>
@@ -7505,26 +7502,24 @@
       </c>
       <c r="AE75" s="7"/>
       <c r="AF75" s="7"/>
-      <c r="AG75" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH75" s="7" t="s">
-        <v>275</v>
-      </c>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
       <c r="AI75" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ75" s="7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="29" t="n">
-        <v>312</v>
+        <v>68</v>
+      </c>
+      <c r="AK75" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL75" s="28" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>38</v>
@@ -7536,29 +7531,29 @@
         <v>40</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F76" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="G76" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>248</v>
+        <v>304</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
       <c r="Q76" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
@@ -7566,10 +7561,10 @@
       <c r="U76" s="7"/>
       <c r="V76" s="7"/>
       <c r="W76" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="X76" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
@@ -7578,29 +7573,27 @@
       <c r="AC76" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AD76" s="9" t="n">
-        <v>0.0425</v>
-      </c>
+      <c r="AD76" s="9"/>
       <c r="AE76" s="7"/>
       <c r="AF76" s="7"/>
       <c r="AG76" s="7"/>
       <c r="AH76" s="7"/>
       <c r="AI76" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ76" s="7" t="n">
+        <v>69</v>
+      </c>
+      <c r="AK76" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL76" s="7" t="n">
         <v>68</v>
-      </c>
-      <c r="AK76" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL76" s="29" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>38</v>
@@ -7612,7 +7605,7 @@
         <v>40</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>308</v>
@@ -7620,32 +7613,40 @@
       <c r="G77" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H77" s="21" t="s">
-        <v>263</v>
+      <c r="H77" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
+      <c r="M77" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="R77" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="R77" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="X77" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
@@ -7660,21 +7661,19 @@
       <c r="AG77" s="7"/>
       <c r="AH77" s="7"/>
       <c r="AI77" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ77" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7" t="n">
         <v>69</v>
-      </c>
-      <c r="AK77" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL77" s="7" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>38</v>
@@ -7686,16 +7685,16 @@
         <v>40</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7" t="n">
@@ -7703,31 +7702,29 @@
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>315</v>
-      </c>
+      <c r="M78" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="N78" s="30" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="O78" s="7"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7" t="s">
         <v>70</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="X78" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
@@ -7739,13 +7736,15 @@
       <c r="AD78" s="9"/>
       <c r="AE78" s="7"/>
       <c r="AF78" s="7"/>
-      <c r="AG78" s="7"/>
+      <c r="AG78" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="AH78" s="7"/>
-      <c r="AI78" s="7" t="n">
+      <c r="AI78" s="31" t="n">
         <v>4</v>
       </c>
       <c r="AJ78" s="7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK78" s="7"/>
       <c r="AL78" s="7" t="n">
@@ -7754,7 +7753,7 @@
     </row>
     <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>38</v>
@@ -7766,46 +7765,40 @@
         <v>40</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
-      <c r="M79" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="N79" s="31" t="n">
-        <v>5000034</v>
-      </c>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="R79" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="X79" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
@@ -7817,24 +7810,24 @@
       <c r="AD79" s="9"/>
       <c r="AE79" s="7"/>
       <c r="AF79" s="7"/>
-      <c r="AG79" s="7" t="s">
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
+      <c r="AI79" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ79" s="7" t="n">
+        <v>72</v>
+      </c>
+      <c r="AK79" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="AH79" s="7"/>
-      <c r="AI79" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ79" s="7" t="n">
-        <v>71</v>
-      </c>
-      <c r="AK79" s="7"/>
       <c r="AL79" s="7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>38</v>
@@ -7846,7 +7839,7 @@
         <v>40</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>322</v>
@@ -7854,32 +7847,40 @@
       <c r="G80" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H80" s="21" t="s">
-        <v>263</v>
+      <c r="H80" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
+      <c r="N80" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>325</v>
+      </c>
       <c r="Q80" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="R80" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="R80" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="X80" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
@@ -7894,21 +7895,19 @@
       <c r="AG80" s="7"/>
       <c r="AH80" s="7"/>
       <c r="AI80" s="7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ80" s="7" t="n">
+        <v>73</v>
+      </c>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="7" t="n">
         <v>72</v>
-      </c>
-      <c r="AK80" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="AL80" s="7" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>38</v>
@@ -7920,13 +7919,13 @@
         <v>40</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>68</v>
@@ -7937,32 +7936,28 @@
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
+      <c r="M81" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="N81" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>328</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
       <c r="Q81" s="7" t="s">
         <v>70</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>316</v>
+        <v>71</v>
       </c>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="X81" s="7" t="s">
-        <v>264</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="7"/>
@@ -7975,11 +7970,11 @@
       <c r="AF81" s="7"/>
       <c r="AG81" s="7"/>
       <c r="AH81" s="7"/>
-      <c r="AI81" s="7" t="n">
+      <c r="AI81" s="31" t="n">
         <v>4</v>
       </c>
       <c r="AJ81" s="7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK81" s="7"/>
       <c r="AL81" s="7" t="n">
@@ -7988,7 +7983,7 @@
     </row>
     <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>38</v>
@@ -7997,46 +7992,48 @@
         <v>39</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="P82" s="11"/>
       <c r="Q82" s="7" t="s">
         <v>70</v>
       </c>
       <c r="R82" s="7" t="s">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
@@ -8044,27 +8041,37 @@
       <c r="AA82" s="7"/>
       <c r="AB82" s="7"/>
       <c r="AC82" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD82" s="9"/>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="7"/>
-      <c r="AG82" s="7"/>
-      <c r="AH82" s="7"/>
-      <c r="AI82" s="32" t="n">
-        <v>4</v>
+        <v>235</v>
+      </c>
+      <c r="AD82" s="9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE82" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH82" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="AI82" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="AJ82" s="7" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK82" s="7"/>
-      <c r="AL82" s="7" t="n">
-        <v>72</v>
+      <c r="AL82" s="14" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>38</v>
@@ -8073,23 +8080,23 @@
         <v>39</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>230</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
@@ -8097,10 +8104,10 @@
         <v>231</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O83" s="11" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="P83" s="11"/>
       <c r="Q83" s="7" t="s">
@@ -8114,7 +8121,7 @@
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
@@ -8134,16 +8141,16 @@
         <v>1</v>
       </c>
       <c r="AG83" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AH83" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AI83" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ83" s="7" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK83" s="7"/>
       <c r="AL83" s="14" t="n">
@@ -8152,7 +8159,7 @@
     </row>
     <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>38</v>
@@ -8161,7 +8168,7 @@
         <v>39</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>340</v>
@@ -8177,7 +8184,7 @@
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
@@ -8185,10 +8192,10 @@
         <v>231</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O84" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P84" s="11"/>
       <c r="Q84" s="7" t="s">
@@ -8202,7 +8209,7 @@
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
@@ -8222,16 +8229,16 @@
         <v>1</v>
       </c>
       <c r="AG84" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AH84" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AI84" s="7" t="n">
         <v>2</v>
       </c>
       <c r="AJ84" s="7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK84" s="7"/>
       <c r="AL84" s="14" t="n">
@@ -8240,7 +8247,7 @@
     </row>
     <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>38</v>
@@ -8249,86 +8256,62 @@
         <v>39</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E85" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="E85" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F85" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="16" t="s">
         <v>345</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7" t="n">
-        <v>0.25</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
-      <c r="M85" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="N85" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="O85" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
       <c r="R85" s="7" t="s">
-        <v>233</v>
+        <v>348</v>
       </c>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
-      <c r="W85" s="7" t="s">
-        <v>337</v>
-      </c>
+      <c r="W85" s="7"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
       <c r="AB85" s="7"/>
-      <c r="AC85" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD85" s="9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AE85" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF85" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG85" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH85" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="AI85" s="7" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="9"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7"/>
+      <c r="AH85" s="7"/>
+      <c r="AI85" s="7"/>
       <c r="AJ85" s="7" t="n">
-        <v>77</v>
-      </c>
-      <c r="AK85" s="7"/>
-      <c r="AL85" s="14" t="n">
-        <v>330</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AK85" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>38</v>
@@ -8337,33 +8320,35 @@
         <v>39</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
+      <c r="N86" s="13" t="s">
+        <v>355</v>
+      </c>
       <c r="O86" s="7"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
@@ -8383,16 +8368,16 @@
       <c r="AH86" s="7"/>
       <c r="AI86" s="7"/>
       <c r="AJ86" s="7" t="n">
-        <v>78</v>
-      </c>
-      <c r="AK86" s="13" t="s">
-        <v>352</v>
+        <v>79</v>
+      </c>
+      <c r="AK86" s="7" t="n">
+        <v>68</v>
       </c>
       <c r="AL86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>38</v>
@@ -8401,35 +8386,35 @@
         <v>39</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E87" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="H87" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="I87" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
       <c r="N87" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O87" s="7"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -8449,16 +8434,16 @@
       <c r="AH87" s="7"/>
       <c r="AI87" s="7"/>
       <c r="AJ87" s="7" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK87" s="7" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AL87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>38</v>
@@ -8467,35 +8452,35 @@
         <v>39</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E88" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="I88" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
       <c r="N88" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
@@ -8515,16 +8500,16 @@
       <c r="AH88" s="7"/>
       <c r="AI88" s="7"/>
       <c r="AJ88" s="7" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK88" s="7" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>38</v>
@@ -8533,35 +8518,33 @@
         <v>39</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
-      <c r="N89" s="13" t="s">
-        <v>360</v>
-      </c>
+      <c r="N89" s="7"/>
       <c r="O89" s="7"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -8581,16 +8564,16 @@
       <c r="AH89" s="7"/>
       <c r="AI89" s="7"/>
       <c r="AJ89" s="7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK89" s="7" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AL89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>38</v>
@@ -8599,22 +8582,22 @@
         <v>39</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>340</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>341</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
@@ -8625,7 +8608,7 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
@@ -8645,16 +8628,16 @@
       <c r="AH90" s="7"/>
       <c r="AI90" s="7"/>
       <c r="AJ90" s="7" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK90" s="7" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>38</v>
@@ -8663,22 +8646,22 @@
         <v>39</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
@@ -8689,7 +8672,7 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
@@ -8709,16 +8692,16 @@
       <c r="AH91" s="7"/>
       <c r="AI91" s="7"/>
       <c r="AJ91" s="7" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK91" s="7" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AL91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>38</v>
@@ -8727,33 +8710,35 @@
         <v>39</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>334</v>
+        <v>343</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
+      <c r="N92" s="13" t="s">
+        <v>364</v>
+      </c>
       <c r="O92" s="7"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
@@ -8773,81 +8758,16 @@
       <c r="AH92" s="7"/>
       <c r="AI92" s="7"/>
       <c r="AJ92" s="7" t="n">
-        <v>84</v>
-      </c>
-      <c r="AK92" s="7" t="n">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="AK92" s="13" t="s">
+        <v>365</v>
       </c>
       <c r="AL92" s="7"/>
     </row>
-    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="7"/>
-      <c r="AD93" s="9"/>
-      <c r="AE93" s="7"/>
-      <c r="AF93" s="7"/>
-      <c r="AG93" s="7"/>
-      <c r="AH93" s="7"/>
-      <c r="AI93" s="7"/>
-      <c r="AJ93" s="7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK93" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="AL93" s="7"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AL93"/>
+  <autoFilter ref="A1:AL92"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -8876,13 +8796,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>297</v>
+      <c r="A1" s="32" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
-        <v>292</v>
+      <c r="A2" s="32" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -8913,49 +8833,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="M1" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="35" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="35" t="s">
         <v>371</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -19,6 +19,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1326,13 +1328,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC9900"/>
-        <bgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1356,7 +1358,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1431,7 +1433,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1451,7 +1453,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1498,8 +1500,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1605,10 +1607,10 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1626,7 +1628,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFCC9900"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1652,48 +1654,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:92"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="81.6234817813765"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="83.0161943319838"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="61.0566801619433"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -8765,7 +8767,6 @@
       </c>
       <c r="AL92" s="7"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AL92"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -9,8 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Changes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
@@ -21,6 +20,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="372">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -850,10 +851,10 @@
 59</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activation: Facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны: Фейсинги</t>
+    <t xml:space="preserve">Impulse Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активация Импульсной зоны</t>
   </si>
   <si>
     <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
@@ -1246,7 +1247,7 @@
     <numFmt numFmtId="170" formatCode="@"/>
     <numFmt numFmtId="171" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1304,12 +1305,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1318,7 +1313,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,12 +1360,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3300"/>
         <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1427,7 +1416,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1556,10 +1545,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1568,7 +1553,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1626,7 +1611,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF3300"/>
@@ -1657,9 +1642,9 @@
   <dimension ref="1:92"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1668,34 +1653,34 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="29.7773279352227"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="83.0161943319838"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="84.5182186234818"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="62.1295546558704"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="63.1983805668016"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -8785,43 +8770,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -8834,48 +8782,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>371</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -13,15 +13,15 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -591,10 +591,10 @@
     <t xml:space="preserve">5060466516038</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новое SKU 1</t>
+    <t xml:space="preserve">Monster Ultra - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Ультра - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Burn Original - 0.33L</t>
@@ -1313,7 +1313,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1336,6 +1336,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
         <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1416,7 +1422,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1489,11 +1495,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1501,15 +1515,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="5" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="7" fillId="6" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1517,7 +1531,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1525,7 +1539,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="6" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="7" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1533,7 +1547,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1541,7 +1555,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1618,7 +1632,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1639,52 +1653,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:92"/>
+  <dimension ref="A1:AMI92"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.9554655870445"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.9554655870445"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="29.8866396761134"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="84.5182186234818"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="85.2672064777328"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="29" min="28" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="63.1983805668016"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="63.6275303643725"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1023" min="38" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1804,7 +1818,6 @@
       </c>
       <c r="AMH1" s="6"/>
       <c r="AMI1" s="6"/>
-      <c r="AMJ1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
@@ -4846,10 +4859,10 @@
       <c r="E42" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="18" t="s">
         <v>170</v>
       </c>
       <c r="H42" s="7" t="s">
@@ -4861,11 +4874,11 @@
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-      <c r="M42" s="15" t="s">
+      <c r="M42" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="N42" s="11" t="n">
-        <v>11111</v>
+      <c r="N42" s="19" t="n">
+        <v>5060517888794</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -5090,7 +5103,7 @@
       <c r="M45" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="20" t="s">
         <v>179</v>
       </c>
       <c r="O45" s="11"/>
@@ -5170,7 +5183,7 @@
       <c r="M46" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="N46" s="20" t="s">
         <v>183</v>
       </c>
       <c r="O46" s="7"/>
@@ -5250,7 +5263,7 @@
       <c r="M47" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="N47" s="18" t="s">
+      <c r="N47" s="20" t="s">
         <v>186</v>
       </c>
       <c r="O47" s="11"/>
@@ -5330,7 +5343,7 @@
       <c r="M48" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="N48" s="18" t="s">
+      <c r="N48" s="20" t="s">
         <v>189</v>
       </c>
       <c r="O48" s="11"/>
@@ -5472,25 +5485,25 @@
       <c r="E50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="F50" s="21" t="s">
         <v>193</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19" t="s">
+      <c r="I50" s="21"/>
+      <c r="J50" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="N50" s="20" t="s">
+      <c r="N50" s="22" t="s">
         <v>195</v>
       </c>
       <c r="O50" s="7"/>
@@ -6680,59 +6693,59 @@
         <v>40</v>
       </c>
       <c r="E65" s="7"/>
-      <c r="F65" s="21" t="s">
+      <c r="F65" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G65" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="21" t="s">
+      <c r="I65" s="23"/>
+      <c r="J65" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21" t="s">
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="23"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AD65" s="23" t="n">
+      <c r="AD65" s="25" t="n">
         <v>0.0425</v>
       </c>
-      <c r="AE65" s="24"/>
-      <c r="AF65" s="21"/>
-      <c r="AG65" s="21"/>
-      <c r="AH65" s="21"/>
-      <c r="AI65" s="21" t="n">
+      <c r="AE65" s="26"/>
+      <c r="AF65" s="23"/>
+      <c r="AG65" s="23"/>
+      <c r="AH65" s="23"/>
+      <c r="AI65" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="AJ65" s="21" t="n">
+      <c r="AJ65" s="23" t="n">
         <v>130</v>
       </c>
-      <c r="AK65" s="25" t="s">
+      <c r="AK65" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="AL65" s="21" t="n">
+      <c r="AL65" s="23" t="n">
         <v>400</v>
       </c>
     </row>
@@ -6750,69 +6763,69 @@
         <v>40</v>
       </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="21" t="s">
+      <c r="F66" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="H66" s="21" t="s">
+      <c r="H66" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" s="21" t="n">
+      <c r="I66" s="23"/>
+      <c r="J66" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21" t="s">
+      <c r="L66" s="23"/>
+      <c r="M66" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="N66" s="21" t="s">
+      <c r="N66" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="O66" s="21" t="s">
+      <c r="O66" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21" t="s">
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R66" s="21" t="s">
+      <c r="R66" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="S66" s="21" t="s">
+      <c r="S66" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21" t="s">
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21" t="s">
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="27"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="21"/>
-      <c r="AI66" s="21" t="n">
+      <c r="AD66" s="28"/>
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="23"/>
+      <c r="AH66" s="23"/>
+      <c r="AI66" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="AJ66" s="21" t="n">
+      <c r="AJ66" s="23" t="n">
         <v>57</v>
       </c>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="21" t="n">
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="23" t="n">
         <v>130</v>
       </c>
     </row>
@@ -6830,59 +6843,59 @@
         <v>40</v>
       </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="G67" s="21" t="s">
+      <c r="G67" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="H67" s="21" t="s">
+      <c r="H67" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21" t="s">
+      <c r="I67" s="23"/>
+      <c r="J67" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21" t="s">
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-      <c r="AB67" s="21"/>
-      <c r="AC67" s="21" t="s">
+      <c r="Y67" s="23"/>
+      <c r="Z67" s="23"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AD67" s="26"/>
-      <c r="AE67" s="27"/>
-      <c r="AF67" s="21"/>
-      <c r="AG67" s="21"/>
-      <c r="AH67" s="21"/>
-      <c r="AI67" s="21" t="n">
+      <c r="AD67" s="28"/>
+      <c r="AE67" s="29"/>
+      <c r="AF67" s="23"/>
+      <c r="AG67" s="23"/>
+      <c r="AH67" s="23"/>
+      <c r="AI67" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="AJ67" s="21" t="n">
+      <c r="AJ67" s="23" t="n">
         <v>59</v>
       </c>
-      <c r="AK67" s="25" t="s">
+      <c r="AK67" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="AL67" s="19" t="n">
+      <c r="AL67" s="21" t="n">
         <v>130</v>
       </c>
     </row>
@@ -6900,67 +6913,67 @@
         <v>40</v>
       </c>
       <c r="E68" s="7"/>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="G68" s="21" t="s">
+      <c r="G68" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="H68" s="21" t="s">
+      <c r="H68" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21" t="n">
+      <c r="I68" s="23"/>
+      <c r="J68" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21" t="s">
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="N68" s="21" t="s">
+      <c r="N68" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="O68" s="21" t="s">
+      <c r="O68" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21" t="s">
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R68" s="21" t="s">
+      <c r="R68" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="S68" s="21" t="s">
+      <c r="S68" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21" t="s">
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
-      <c r="AB68" s="21"/>
-      <c r="AC68" s="21" t="s">
+      <c r="Y68" s="23"/>
+      <c r="Z68" s="23"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="23"/>
+      <c r="AC68" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AD68" s="26"/>
-      <c r="AE68" s="27"/>
-      <c r="AF68" s="21"/>
-      <c r="AG68" s="21"/>
-      <c r="AH68" s="21"/>
-      <c r="AI68" s="21" t="n">
+      <c r="AD68" s="28"/>
+      <c r="AE68" s="29"/>
+      <c r="AF68" s="23"/>
+      <c r="AG68" s="23"/>
+      <c r="AH68" s="23"/>
+      <c r="AI68" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="AJ68" s="21" t="n">
+      <c r="AJ68" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="AK68" s="21"/>
-      <c r="AL68" s="21" t="n">
+      <c r="AK68" s="23"/>
+      <c r="AL68" s="23" t="n">
         <v>59</v>
       </c>
     </row>
@@ -7262,7 +7275,7 @@
         <v>65</v>
       </c>
       <c r="AK72" s="7"/>
-      <c r="AL72" s="28" t="n">
+      <c r="AL72" s="30" t="n">
         <v>312</v>
       </c>
     </row>
@@ -7342,7 +7355,7 @@
         <v>66</v>
       </c>
       <c r="AK73" s="7"/>
-      <c r="AL73" s="28" t="n">
+      <c r="AL73" s="30" t="n">
         <v>312</v>
       </c>
     </row>
@@ -7368,7 +7381,7 @@
       <c r="G74" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="31" t="s">
         <v>297</v>
       </c>
       <c r="I74" s="7"/>
@@ -7424,7 +7437,7 @@
         <v>67</v>
       </c>
       <c r="AK74" s="7"/>
-      <c r="AL74" s="28" t="n">
+      <c r="AL74" s="30" t="n">
         <v>312</v>
       </c>
     </row>
@@ -7444,10 +7457,10 @@
       <c r="E75" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F75" s="21" t="s">
+      <c r="F75" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="G75" s="21" t="s">
+      <c r="G75" s="23" t="s">
         <v>300</v>
       </c>
       <c r="H75" s="7" t="s">
@@ -7500,7 +7513,7 @@
       <c r="AK75" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="AL75" s="28" t="n">
+      <c r="AL75" s="30" t="n">
         <v>400</v>
       </c>
     </row>
@@ -7526,7 +7539,7 @@
       <c r="G76" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H76" s="21" t="s">
+      <c r="H76" s="23" t="s">
         <v>259</v>
       </c>
       <c r="I76" s="7"/>
@@ -7689,10 +7702,10 @@
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="30" t="s">
+      <c r="M78" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="N78" s="30" t="n">
+      <c r="N78" s="32" t="n">
         <v>5000034</v>
       </c>
       <c r="O78" s="7"/>
@@ -7727,7 +7740,7 @@
         <v>318</v>
       </c>
       <c r="AH78" s="7"/>
-      <c r="AI78" s="31" t="n">
+      <c r="AI78" s="33" t="n">
         <v>4</v>
       </c>
       <c r="AJ78" s="7" t="n">
@@ -7760,7 +7773,7 @@
       <c r="G79" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="H79" s="21" t="s">
+      <c r="H79" s="23" t="s">
         <v>259</v>
       </c>
       <c r="I79" s="7"/>
@@ -7957,7 +7970,7 @@
       <c r="AF81" s="7"/>
       <c r="AG81" s="7"/>
       <c r="AH81" s="7"/>
-      <c r="AI81" s="31" t="n">
+      <c r="AI81" s="33" t="n">
         <v>4</v>
       </c>
       <c r="AJ81" s="7" t="n">
@@ -8782,48 +8795,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="35" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>371</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -22,6 +22,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$92</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="375">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1215,6 +1216,15 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scene</t>
   </si>
   <si>
@@ -1237,7 +1247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* \-??\ _₽_-;_-@_-"/>
@@ -1246,6 +1256,7 @@
     <numFmt numFmtId="169" formatCode="0.00%"/>
     <numFmt numFmtId="170" formatCode="@"/>
     <numFmt numFmtId="171" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1422,7 +1433,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1559,6 +1570,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1653,12 +1680,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI92"/>
+  <dimension ref="A1:AMI93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="AK93" activeCellId="0" sqref="AK93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1667,33 +1694,33 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="30.1012145748988"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="85.2672064777328"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="86.0161943319838"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="29" min="28" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -8764,6 +8791,66 @@
         <v>365</v>
       </c>
       <c r="AL92" s="7"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="n">
+        <v>521</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="36"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="37"/>
+      <c r="AJ93" s="7" t="n">
+        <v>521</v>
+      </c>
+      <c r="AK93" s="7"/>
+      <c r="AL93" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AL92"/>
@@ -8795,49 +8882,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="I1" s="35" t="s">
+      <c r="G1" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="I1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>370</v>
+      <c r="K1" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36" t="s">
-        <v>371</v>
+      <c r="B4" s="40" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -752,10 +753,10 @@
     <t xml:space="preserve">4607174577794</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 7</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
@@ -767,10 +768,10 @@
     <t xml:space="preserve">4607174579729</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 8</t>
+    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 20</t>
@@ -1269,8 +1270,8 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
     <numFmt numFmtId="170" formatCode="@"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1466,7 +1467,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1567,7 +1568,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1575,7 +1576,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="8" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="7" fillId="7" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1591,7 +1600,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="8" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="7" fillId="8" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1627,15 +1636,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1744,51 +1749,51 @@
   <dimension ref="A1:AMI93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G94" activeCellId="0" sqref="G94"/>
+      <selection pane="bottomLeft" activeCell="F61" activeCellId="0" sqref="F61:AL61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.45"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="72.8421052631579"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="73.4817813765182"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.4574898785425"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="62.2348178137652"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6282,67 +6287,67 @@
       <c r="E59" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="G59" s="10" t="s">
+      <c r="G59" s="17" t="s">
         <v>221</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>68</v>
       </c>
       <c r="I59" s="6"/>
-      <c r="J59" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6" t="s">
+      <c r="J59" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="N59" s="10" t="n">
-        <v>111111</v>
-      </c>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="6" t="s">
+      <c r="N59" s="18" t="n">
+        <v>4650075423257</v>
+      </c>
+      <c r="O59" s="26"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="R59" s="6" t="s">
+      <c r="R59" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6" t="s">
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6" t="s">
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6" t="s">
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AD59" s="8" t="n">
+      <c r="AD59" s="28" t="n">
         <v>0.005596</v>
       </c>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6"/>
-      <c r="AI59" s="6" t="n">
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="27"/>
+      <c r="AI59" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AJ59" s="6" t="n">
+      <c r="AJ59" s="27" t="n">
         <v>51</v>
       </c>
-      <c r="AK59" s="6"/>
-      <c r="AL59" s="6" t="n">
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="27" t="n">
         <v>43</v>
       </c>
     </row>
@@ -6442,67 +6447,67 @@
       <c r="E61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="17" t="s">
         <v>226</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>68</v>
       </c>
       <c r="I61" s="6"/>
-      <c r="J61" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6" t="s">
+      <c r="J61" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="N61" s="10" t="n">
-        <v>111111</v>
-      </c>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="6" t="s">
+      <c r="N61" s="18" t="n">
+        <v>4650075423233</v>
+      </c>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="R61" s="6" t="s">
+      <c r="R61" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6" t="s">
+      <c r="S61" s="27"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="27"/>
+      <c r="V61" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6" t="s">
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="Z61" s="6"/>
-      <c r="AA61" s="6"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="6" t="s">
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AD61" s="8" t="n">
+      <c r="AD61" s="28" t="n">
         <v>0.005553</v>
       </c>
-      <c r="AE61" s="6"/>
-      <c r="AF61" s="6"/>
-      <c r="AG61" s="6"/>
-      <c r="AH61" s="6"/>
-      <c r="AI61" s="6" t="n">
+      <c r="AE61" s="27"/>
+      <c r="AF61" s="27"/>
+      <c r="AG61" s="27"/>
+      <c r="AH61" s="27"/>
+      <c r="AI61" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AJ61" s="6" t="n">
+      <c r="AJ61" s="27" t="n">
         <v>53</v>
       </c>
-      <c r="AK61" s="6"/>
-      <c r="AL61" s="6" t="n">
+      <c r="AK61" s="27"/>
+      <c r="AL61" s="27" t="n">
         <v>43</v>
       </c>
     </row>
@@ -6784,59 +6789,59 @@
         <v>40</v>
       </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="25" t="s">
+      <c r="F65" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
       <c r="N65" s="26"/>
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
-      <c r="Q65" s="25" t="s">
+      <c r="Q65" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="25"/>
-      <c r="V65" s="25"/>
-      <c r="W65" s="25"/>
-      <c r="X65" s="25"/>
-      <c r="Y65" s="25"/>
-      <c r="Z65" s="25"/>
-      <c r="AA65" s="25"/>
-      <c r="AB65" s="25"/>
-      <c r="AC65" s="25" t="s">
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
+      <c r="U65" s="27"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AD65" s="27" t="n">
+      <c r="AD65" s="29" t="n">
         <v>0.0425</v>
       </c>
-      <c r="AE65" s="28"/>
-      <c r="AF65" s="25"/>
-      <c r="AG65" s="25"/>
-      <c r="AH65" s="25"/>
-      <c r="AI65" s="25" t="n">
+      <c r="AE65" s="30"/>
+      <c r="AF65" s="27"/>
+      <c r="AG65" s="27"/>
+      <c r="AH65" s="27"/>
+      <c r="AI65" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="AJ65" s="25" t="n">
+      <c r="AJ65" s="27" t="n">
         <v>130</v>
       </c>
-      <c r="AK65" s="29" t="s">
+      <c r="AK65" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="AL65" s="25" t="n">
+      <c r="AL65" s="27" t="n">
         <v>400</v>
       </c>
     </row>
@@ -6854,69 +6859,69 @@
         <v>40</v>
       </c>
       <c r="E66" s="6"/>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="G66" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H66" s="25" t="s">
+      <c r="H66" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" s="25" t="n">
+      <c r="I66" s="27"/>
+      <c r="J66" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25" t="s">
+      <c r="L66" s="27"/>
+      <c r="M66" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="N66" s="25" t="s">
+      <c r="N66" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="O66" s="25" t="s">
+      <c r="O66" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25" t="s">
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="R66" s="25" t="s">
+      <c r="R66" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="S66" s="25" t="s">
+      <c r="S66" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="T66" s="25"/>
-      <c r="U66" s="25"/>
-      <c r="V66" s="25"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="Y66" s="25"/>
-      <c r="Z66" s="25"/>
-      <c r="AA66" s="25"/>
-      <c r="AB66" s="25"/>
-      <c r="AC66" s="25" t="s">
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="AD66" s="30"/>
-      <c r="AE66" s="31"/>
-      <c r="AF66" s="25"/>
-      <c r="AG66" s="25"/>
-      <c r="AH66" s="25"/>
-      <c r="AI66" s="25" t="n">
+      <c r="AD66" s="32"/>
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="27"/>
+      <c r="AH66" s="27"/>
+      <c r="AI66" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AJ66" s="25" t="n">
+      <c r="AJ66" s="27" t="n">
         <v>57</v>
       </c>
-      <c r="AK66" s="25"/>
-      <c r="AL66" s="25" t="n">
+      <c r="AK66" s="27"/>
+      <c r="AL66" s="27" t="n">
         <v>130</v>
       </c>
     </row>
@@ -6934,56 +6939,56 @@
         <v>40</v>
       </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="25" t="s">
+      <c r="F67" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G67" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25" t="s">
+      <c r="I67" s="27"/>
+      <c r="J67" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="25"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25" t="s">
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="25"/>
-      <c r="AB67" s="25"/>
-      <c r="AC67" s="25" t="s">
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AD67" s="30"/>
-      <c r="AE67" s="31"/>
-      <c r="AF67" s="25"/>
-      <c r="AG67" s="25"/>
-      <c r="AH67" s="25"/>
-      <c r="AI67" s="25" t="n">
+      <c r="AD67" s="32"/>
+      <c r="AE67" s="33"/>
+      <c r="AF67" s="27"/>
+      <c r="AG67" s="27"/>
+      <c r="AH67" s="27"/>
+      <c r="AI67" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="AJ67" s="25" t="n">
+      <c r="AJ67" s="27" t="n">
         <v>59</v>
       </c>
-      <c r="AK67" s="29" t="s">
+      <c r="AK67" s="31" t="s">
         <v>261</v>
       </c>
       <c r="AL67" s="23" t="n">
@@ -7004,67 +7009,67 @@
         <v>40</v>
       </c>
       <c r="E68" s="6"/>
-      <c r="F68" s="25" t="s">
+      <c r="F68" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="G68" s="25" t="s">
+      <c r="G68" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="H68" s="25" t="s">
+      <c r="H68" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25" t="n">
+      <c r="I68" s="27"/>
+      <c r="J68" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25" t="s">
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="N68" s="25" t="s">
+      <c r="N68" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="O68" s="25" t="s">
+      <c r="O68" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25" t="s">
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="R68" s="25" t="s">
+      <c r="R68" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="S68" s="25" t="s">
+      <c r="S68" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="T68" s="25"/>
-      <c r="U68" s="25"/>
-      <c r="V68" s="25"/>
-      <c r="W68" s="25"/>
-      <c r="X68" s="25" t="s">
+      <c r="T68" s="27"/>
+      <c r="U68" s="27"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="Y68" s="25"/>
-      <c r="Z68" s="25"/>
-      <c r="AA68" s="25"/>
-      <c r="AB68" s="25"/>
-      <c r="AC68" s="25" t="s">
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AD68" s="30"/>
-      <c r="AE68" s="31"/>
-      <c r="AF68" s="25"/>
-      <c r="AG68" s="25"/>
-      <c r="AH68" s="25"/>
-      <c r="AI68" s="25" t="n">
+      <c r="AD68" s="32"/>
+      <c r="AE68" s="33"/>
+      <c r="AF68" s="27"/>
+      <c r="AG68" s="27"/>
+      <c r="AH68" s="27"/>
+      <c r="AI68" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="AJ68" s="25" t="n">
+      <c r="AJ68" s="27" t="n">
         <v>60</v>
       </c>
-      <c r="AK68" s="25"/>
-      <c r="AL68" s="25" t="n">
+      <c r="AK68" s="27"/>
+      <c r="AL68" s="27" t="n">
         <v>59</v>
       </c>
     </row>
@@ -7366,7 +7371,7 @@
         <v>65</v>
       </c>
       <c r="AK72" s="6"/>
-      <c r="AL72" s="32" t="n">
+      <c r="AL72" s="34" t="n">
         <v>312</v>
       </c>
     </row>
@@ -7446,7 +7451,7 @@
         <v>66</v>
       </c>
       <c r="AK73" s="6"/>
-      <c r="AL73" s="32" t="n">
+      <c r="AL73" s="34" t="n">
         <v>312</v>
       </c>
     </row>
@@ -7528,7 +7533,7 @@
         <v>67</v>
       </c>
       <c r="AK74" s="6"/>
-      <c r="AL74" s="32" t="n">
+      <c r="AL74" s="34" t="n">
         <v>312</v>
       </c>
     </row>
@@ -7548,10 +7553,10 @@
       <c r="E75" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F75" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="G75" s="25" t="s">
+      <c r="G75" s="27" t="s">
         <v>300</v>
       </c>
       <c r="H75" s="6" t="s">
@@ -7604,7 +7609,7 @@
       <c r="AK75" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="AL75" s="32" t="n">
+      <c r="AL75" s="34" t="n">
         <v>400</v>
       </c>
     </row>
@@ -7630,7 +7635,7 @@
       <c r="G76" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H76" s="25" t="s">
+      <c r="H76" s="27" t="s">
         <v>259</v>
       </c>
       <c r="I76" s="6"/>
@@ -7719,11 +7724,11 @@
       <c r="N77" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="O77" s="25" t="s">
+      <c r="O77" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25" t="s">
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27" t="s">
         <v>70</v>
       </c>
       <c r="R77" s="20" t="s">
@@ -7793,18 +7798,18 @@
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="33" t="s">
+      <c r="M78" s="35" t="s">
         <v>316</v>
       </c>
       <c r="N78" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25" t="s">
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="R78" s="25" t="s">
+      <c r="R78" s="27" t="s">
         <v>71</v>
       </c>
       <c r="S78" s="6"/>
@@ -7831,7 +7836,7 @@
         <v>318</v>
       </c>
       <c r="AH78" s="6"/>
-      <c r="AI78" s="34" t="n">
+      <c r="AI78" s="36" t="n">
         <v>4</v>
       </c>
       <c r="AJ78" s="6" t="n">
@@ -7864,7 +7869,7 @@
       <c r="G79" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="H79" s="25" t="s">
+      <c r="H79" s="27" t="s">
         <v>259</v>
       </c>
       <c r="I79" s="6"/>
@@ -8061,7 +8066,7 @@
       <c r="AF81" s="6"/>
       <c r="AG81" s="6"/>
       <c r="AH81" s="6"/>
-      <c r="AI81" s="34" t="n">
+      <c r="AI81" s="36" t="n">
         <v>4</v>
       </c>
       <c r="AJ81" s="6" t="n">
@@ -8349,56 +8354,56 @@
       <c r="D85" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E85" s="35" t="s">
+      <c r="E85" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="F85" s="35" t="s">
+      <c r="F85" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="G85" s="35" t="s">
+      <c r="G85" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="H85" s="25" t="s">
+      <c r="H85" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="I85" s="25" t="s">
+      <c r="I85" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25" t="s">
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="S85" s="25"/>
-      <c r="T85" s="25"/>
-      <c r="U85" s="25"/>
-      <c r="V85" s="25"/>
-      <c r="W85" s="25"/>
-      <c r="X85" s="25"/>
-      <c r="Y85" s="25"/>
-      <c r="Z85" s="25"/>
-      <c r="AA85" s="25"/>
-      <c r="AB85" s="25"/>
-      <c r="AC85" s="25"/>
-      <c r="AD85" s="25"/>
-      <c r="AE85" s="31"/>
-      <c r="AF85" s="25"/>
-      <c r="AG85" s="25"/>
-      <c r="AH85" s="25"/>
-      <c r="AI85" s="25"/>
-      <c r="AJ85" s="25" t="n">
+      <c r="S85" s="27"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="33"/>
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="27"/>
+      <c r="AH85" s="27"/>
+      <c r="AI85" s="27"/>
+      <c r="AJ85" s="27" t="n">
         <v>78</v>
       </c>
-      <c r="AK85" s="29" t="s">
+      <c r="AK85" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="AM85" s="25"/>
+      <c r="AM85" s="27"/>
     </row>
     <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
@@ -8413,58 +8418,58 @@
       <c r="D86" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E86" s="35" t="s">
+      <c r="E86" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F86" s="35" t="s">
+      <c r="F86" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="G86" s="35" t="s">
+      <c r="G86" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="I86" s="25" t="s">
+      <c r="I86" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="29" t="s">
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25" t="s">
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="S86" s="25"/>
-      <c r="T86" s="25"/>
-      <c r="U86" s="25"/>
-      <c r="V86" s="25"/>
-      <c r="W86" s="25"/>
-      <c r="X86" s="25"/>
-      <c r="Y86" s="25"/>
-      <c r="Z86" s="25"/>
-      <c r="AA86" s="25"/>
-      <c r="AB86" s="25"/>
-      <c r="AC86" s="25"/>
-      <c r="AD86" s="25"/>
-      <c r="AE86" s="31"/>
-      <c r="AF86" s="25"/>
-      <c r="AG86" s="25"/>
-      <c r="AH86" s="25"/>
-      <c r="AI86" s="25"/>
-      <c r="AJ86" s="25" t="n">
+      <c r="S86" s="27"/>
+      <c r="T86" s="27"/>
+      <c r="U86" s="27"/>
+      <c r="V86" s="27"/>
+      <c r="W86" s="27"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="27"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="33"/>
+      <c r="AF86" s="27"/>
+      <c r="AG86" s="27"/>
+      <c r="AH86" s="27"/>
+      <c r="AI86" s="27"/>
+      <c r="AJ86" s="27" t="n">
         <v>79</v>
       </c>
-      <c r="AK86" s="25" t="n">
+      <c r="AK86" s="27" t="n">
         <v>68</v>
       </c>
-      <c r="AM86" s="25"/>
+      <c r="AM86" s="27"/>
     </row>
     <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
@@ -8479,58 +8484,58 @@
       <c r="D87" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E87" s="35" t="s">
+      <c r="E87" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F87" s="35" t="s">
+      <c r="F87" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="G87" s="35" t="s">
+      <c r="G87" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="H87" s="25" t="s">
+      <c r="H87" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="I87" s="25" t="s">
+      <c r="I87" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="29" t="s">
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="25" t="s">
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="S87" s="25"/>
-      <c r="T87" s="25"/>
-      <c r="U87" s="25"/>
-      <c r="V87" s="25"/>
-      <c r="W87" s="25"/>
-      <c r="X87" s="25"/>
-      <c r="Y87" s="25"/>
-      <c r="Z87" s="25"/>
-      <c r="AA87" s="25"/>
-      <c r="AB87" s="25"/>
-      <c r="AC87" s="25"/>
-      <c r="AD87" s="25"/>
-      <c r="AE87" s="31"/>
-      <c r="AF87" s="25"/>
-      <c r="AG87" s="25"/>
-      <c r="AH87" s="25"/>
-      <c r="AI87" s="25"/>
-      <c r="AJ87" s="25" t="n">
+      <c r="S87" s="27"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+      <c r="V87" s="27"/>
+      <c r="W87" s="27"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="27"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="33"/>
+      <c r="AF87" s="27"/>
+      <c r="AG87" s="27"/>
+      <c r="AH87" s="27"/>
+      <c r="AI87" s="27"/>
+      <c r="AJ87" s="27" t="n">
         <v>80</v>
       </c>
-      <c r="AK87" s="25" t="n">
+      <c r="AK87" s="27" t="n">
         <v>130</v>
       </c>
-      <c r="AM87" s="25"/>
+      <c r="AM87" s="27"/>
     </row>
     <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
@@ -8545,56 +8550,56 @@
       <c r="D88" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E88" s="35" t="s">
+      <c r="E88" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="F88" s="35" t="s">
+      <c r="F88" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="G88" s="35" t="s">
+      <c r="G88" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="H88" s="25" t="s">
+      <c r="H88" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="I88" s="25" t="s">
+      <c r="I88" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="25" t="s">
+      <c r="J88" s="27"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
-      <c r="U88" s="25"/>
-      <c r="V88" s="25"/>
-      <c r="W88" s="25"/>
-      <c r="X88" s="25"/>
-      <c r="Y88" s="25"/>
-      <c r="Z88" s="25"/>
-      <c r="AA88" s="25"/>
-      <c r="AB88" s="25"/>
-      <c r="AC88" s="25"/>
-      <c r="AD88" s="25"/>
-      <c r="AE88" s="31"/>
-      <c r="AF88" s="25"/>
-      <c r="AG88" s="25"/>
-      <c r="AH88" s="25"/>
-      <c r="AI88" s="25"/>
-      <c r="AJ88" s="25" t="n">
+      <c r="S88" s="27"/>
+      <c r="T88" s="27"/>
+      <c r="U88" s="27"/>
+      <c r="V88" s="27"/>
+      <c r="W88" s="27"/>
+      <c r="X88" s="27"/>
+      <c r="Y88" s="27"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="33"/>
+      <c r="AF88" s="27"/>
+      <c r="AG88" s="27"/>
+      <c r="AH88" s="27"/>
+      <c r="AI88" s="27"/>
+      <c r="AJ88" s="27" t="n">
         <v>82</v>
       </c>
-      <c r="AK88" s="25" t="n">
+      <c r="AK88" s="27" t="n">
         <v>76</v>
       </c>
-      <c r="AM88" s="25"/>
+      <c r="AM88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
@@ -8609,56 +8614,56 @@
       <c r="D89" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E89" s="35" t="s">
+      <c r="E89" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="F89" s="35" t="s">
+      <c r="F89" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="G89" s="35" t="s">
+      <c r="G89" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="H89" s="25" t="s">
+      <c r="H89" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="I89" s="25" t="s">
+      <c r="I89" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="25"/>
-      <c r="R89" s="25" t="s">
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="S89" s="25"/>
-      <c r="T89" s="25"/>
-      <c r="U89" s="25"/>
-      <c r="V89" s="25"/>
-      <c r="W89" s="25"/>
-      <c r="X89" s="25"/>
-      <c r="Y89" s="25"/>
-      <c r="Z89" s="25"/>
-      <c r="AA89" s="25"/>
-      <c r="AB89" s="25"/>
-      <c r="AC89" s="25"/>
-      <c r="AD89" s="25"/>
-      <c r="AE89" s="31"/>
-      <c r="AF89" s="25"/>
-      <c r="AG89" s="25"/>
-      <c r="AH89" s="25"/>
-      <c r="AI89" s="25"/>
-      <c r="AJ89" s="25" t="n">
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="33"/>
+      <c r="AF89" s="27"/>
+      <c r="AG89" s="27"/>
+      <c r="AH89" s="27"/>
+      <c r="AI89" s="27"/>
+      <c r="AJ89" s="27" t="n">
         <v>83</v>
       </c>
-      <c r="AK89" s="36" t="n">
+      <c r="AK89" s="38" t="n">
         <v>77</v>
       </c>
-      <c r="AM89" s="25"/>
+      <c r="AM89" s="27"/>
     </row>
     <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
@@ -8673,56 +8678,56 @@
       <c r="D90" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E90" s="35" t="s">
+      <c r="E90" s="37" t="s">
         <v>332</v>
       </c>
-      <c r="F90" s="35" t="s">
+      <c r="F90" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="G90" s="35" t="s">
+      <c r="G90" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="I90" s="25" t="s">
+      <c r="I90" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="25"/>
-      <c r="Q90" s="25"/>
-      <c r="R90" s="25" t="s">
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="S90" s="25"/>
-      <c r="T90" s="25"/>
-      <c r="U90" s="25"/>
-      <c r="V90" s="25"/>
-      <c r="W90" s="25"/>
-      <c r="X90" s="25"/>
-      <c r="Y90" s="25"/>
-      <c r="Z90" s="25"/>
-      <c r="AA90" s="25"/>
-      <c r="AB90" s="25"/>
-      <c r="AC90" s="25"/>
-      <c r="AD90" s="25"/>
-      <c r="AE90" s="31"/>
-      <c r="AF90" s="25"/>
-      <c r="AG90" s="25"/>
-      <c r="AH90" s="25"/>
-      <c r="AI90" s="25"/>
-      <c r="AJ90" s="25" t="n">
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
+      <c r="U90" s="27"/>
+      <c r="V90" s="27"/>
+      <c r="W90" s="27"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="33"/>
+      <c r="AF90" s="27"/>
+      <c r="AG90" s="27"/>
+      <c r="AH90" s="27"/>
+      <c r="AI90" s="27"/>
+      <c r="AJ90" s="27" t="n">
         <v>84</v>
       </c>
-      <c r="AK90" s="25" t="n">
+      <c r="AK90" s="27" t="n">
         <v>75</v>
       </c>
-      <c r="AM90" s="25"/>
+      <c r="AM90" s="27"/>
     </row>
     <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
@@ -8737,63 +8742,63 @@
       <c r="D91" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E91" s="25" t="s">
+      <c r="E91" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="F91" s="35" t="s">
+      <c r="F91" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="G91" s="35" t="s">
+      <c r="G91" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="H91" s="25" t="s">
+      <c r="H91" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="I91" s="25" t="s">
+      <c r="I91" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25" t="s">
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="N91" s="37" t="s">
+      <c r="N91" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="O91" s="25"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25" t="s">
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="S91" s="25"/>
-      <c r="T91" s="25"/>
-      <c r="U91" s="25"/>
-      <c r="V91" s="25"/>
-      <c r="W91" s="25"/>
-      <c r="X91" s="25"/>
-      <c r="Y91" s="25"/>
-      <c r="Z91" s="25"/>
-      <c r="AA91" s="25"/>
-      <c r="AB91" s="25"/>
-      <c r="AC91" s="25"/>
-      <c r="AD91" s="25"/>
-      <c r="AE91" s="31"/>
-      <c r="AF91" s="25"/>
-      <c r="AG91" s="25"/>
-      <c r="AH91" s="25"/>
-      <c r="AI91" s="25"/>
-      <c r="AJ91" s="25" t="n">
+      <c r="S91" s="27"/>
+      <c r="T91" s="27"/>
+      <c r="U91" s="27"/>
+      <c r="V91" s="27"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="33"/>
+      <c r="AF91" s="27"/>
+      <c r="AG91" s="27"/>
+      <c r="AH91" s="27"/>
+      <c r="AI91" s="27"/>
+      <c r="AJ91" s="27" t="n">
         <v>85</v>
       </c>
-      <c r="AK91" s="29" t="s">
+      <c r="AK91" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="AM91" s="25"/>
+      <c r="AM91" s="27"/>
     </row>
     <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="38" t="n">
+      <c r="A92" s="40" t="n">
         <v>77</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -8802,29 +8807,29 @@
       <c r="C92" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="E92" s="39" t="s">
+      <c r="E92" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="G92" s="39" t="s">
+      <c r="G92" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="H92" s="38" t="s">
+      <c r="H92" s="40" t="s">
         <v>370</v>
       </c>
-      <c r="I92" s="38" t="s">
+      <c r="I92" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
       <c r="M92" s="6"/>
-      <c r="N92" s="41" t="s">
+      <c r="N92" s="42" t="s">
         <v>371</v>
       </c>
       <c r="O92" s="6"/>
@@ -8846,17 +8851,17 @@
       <c r="AA92" s="6"/>
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
-      <c r="AD92" s="42"/>
+      <c r="AD92" s="43"/>
       <c r="AE92" s="6"/>
       <c r="AF92" s="6"/>
       <c r="AG92" s="6"/>
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
-      <c r="AJ92" s="25" t="n">
+      <c r="AJ92" s="27" t="n">
         <v>86</v>
       </c>
       <c r="AK92" s="6"/>
-      <c r="AT92" s="35"/>
+      <c r="AT92" s="37"/>
     </row>
     <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
@@ -8884,11 +8889,11 @@
       <c r="I93" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
       <c r="M93" s="6"/>
-      <c r="N93" s="43"/>
+      <c r="N93" s="44"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
@@ -8906,12 +8911,12 @@
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
-      <c r="AD93" s="42"/>
+      <c r="AD93" s="43"/>
       <c r="AE93" s="6"/>
       <c r="AF93" s="6"/>
       <c r="AG93" s="6"/>
       <c r="AH93" s="6"/>
-      <c r="AI93" s="44"/>
+      <c r="AI93" s="45"/>
       <c r="AJ93" s="6" t="n">
         <v>521</v>
       </c>
@@ -8939,7 +8944,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F61:AL61 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8948,48 +8953,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="47" t="s">
         <v>377</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="47" t="s">
         <v>378</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="47" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>381</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="381">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -972,9 +973,6 @@
   </si>
   <si>
     <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food should be near Image</t>
   </si>
   <si>
     <t xml:space="preserve">Combo other</t>
@@ -1426,51 +1424,51 @@
   <dimension ref="A1:AL97"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F88" activeCellId="0" sqref="F88"/>
+      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="83.2307692307692"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="254.408906882591"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="28.8137651821862"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="36.7408906882591"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="83.9797570850202"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="256.765182186235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="33.7408906882591"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="6.96356275303644"/>
   </cols>
   <sheetData>
@@ -7214,9 +7212,7 @@
       <c r="AE74" s="8"/>
       <c r="AF74" s="8"/>
       <c r="AG74" s="8"/>
-      <c r="AH74" s="8" t="s">
-        <v>294</v>
-      </c>
+      <c r="AH74" s="8"/>
       <c r="AI74" s="8" t="n">
         <v>4</v>
       </c>
@@ -7245,10 +7241,10 @@
         <v>273</v>
       </c>
       <c r="F75" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>267</v>
@@ -7298,7 +7294,7 @@
         <v>680</v>
       </c>
       <c r="AK75" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL75" s="8" t="n">
         <v>400</v>
@@ -7321,10 +7317,10 @@
         <v>279</v>
       </c>
       <c r="F76" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>282</v>
@@ -7372,7 +7368,7 @@
         <v>72</v>
       </c>
       <c r="AK76" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL76" s="8" t="n">
         <v>680</v>
@@ -7395,10 +7391,10 @@
         <v>279</v>
       </c>
       <c r="F77" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>51</v>
@@ -7411,19 +7407,19 @@
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O77" s="8" t="s">
         <v>288</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q77" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
@@ -7475,10 +7471,10 @@
         <v>279</v>
       </c>
       <c r="F78" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>51</v>
@@ -7490,10 +7486,10 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="N78" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
@@ -7551,10 +7547,10 @@
         <v>279</v>
       </c>
       <c r="F79" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>282</v>
@@ -7602,7 +7598,7 @@
         <v>769</v>
       </c>
       <c r="AK79" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AL79" s="8" t="n">
         <v>680</v>
@@ -7628,7 +7624,7 @@
         <v>284</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>51</v>
@@ -7640,14 +7636,14 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8" t="s">
         <v>288</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q80" s="8" t="s">
         <v>53</v>
@@ -7708,7 +7704,7 @@
         <v>289</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>291</v>
@@ -7754,9 +7750,7 @@
       <c r="AE81" s="8"/>
       <c r="AF81" s="8"/>
       <c r="AG81" s="8"/>
-      <c r="AH81" s="8" t="s">
-        <v>294</v>
-      </c>
+      <c r="AH81" s="8"/>
       <c r="AI81" s="8" t="n">
         <v>4</v>
       </c>
@@ -7785,10 +7779,10 @@
         <v>279</v>
       </c>
       <c r="F82" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>51</v>
@@ -7800,12 +7794,12 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
       <c r="P82" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q82" s="8" t="s">
         <v>53</v>
@@ -7814,7 +7808,7 @@
         <v>271</v>
       </c>
       <c r="S82" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
@@ -7823,7 +7817,7 @@
         <v>277</v>
       </c>
       <c r="X82" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
@@ -7865,10 +7859,10 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>322</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>323</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>40</v>
@@ -7906,7 +7900,7 @@
         <v>330</v>
       </c>
       <c r="AK83" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL83" s="8" t="n">
         <v>520</v>
@@ -7923,16 +7917,16 @@
         <v>39</v>
       </c>
       <c r="D84" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>205</v>
@@ -7964,7 +7958,7 @@
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
       <c r="W84" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
@@ -7984,10 +7978,10 @@
         <v>1</v>
       </c>
       <c r="AG84" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH84" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="AH84" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="AI84" s="8" t="n">
         <v>2</v>
@@ -8011,16 +8005,16 @@
         <v>39</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="G85" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>205</v>
@@ -8052,7 +8046,7 @@
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
@@ -8072,10 +8066,10 @@
         <v>1</v>
       </c>
       <c r="AG85" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH85" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="AH85" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="AI85" s="8" t="n">
         <v>2</v>
@@ -8099,16 +8093,16 @@
         <v>39</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>205</v>
@@ -8140,7 +8134,7 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
@@ -8160,10 +8154,10 @@
         <v>1</v>
       </c>
       <c r="AG86" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH86" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="AH86" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="AI86" s="8" t="n">
         <v>2</v>
@@ -8187,16 +8181,16 @@
         <v>39</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F87" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>205</v>
@@ -8211,10 +8205,10 @@
         <v>206</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P87" s="8"/>
       <c r="Q87" s="8" t="s">
@@ -8228,7 +8222,7 @@
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
@@ -8248,10 +8242,10 @@
         <v>1</v>
       </c>
       <c r="AG87" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH87" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="AH87" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="AI87" s="8" t="n">
         <v>2</v>
@@ -8275,16 +8269,16 @@
         <v>39</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F88" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>205</v>
@@ -8299,10 +8293,10 @@
         <v>206</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P88" s="8"/>
       <c r="Q88" s="8" t="s">
@@ -8316,7 +8310,7 @@
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
       <c r="W88" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
@@ -8336,10 +8330,10 @@
         <v>1</v>
       </c>
       <c r="AG88" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH88" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="AH88" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="AI88" s="8" t="n">
         <v>2</v>
@@ -8363,22 +8357,22 @@
         <v>39</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>254</v>
       </c>
       <c r="F89" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="H89" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="I89" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>348</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -8389,7 +8383,7 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
@@ -8412,7 +8406,7 @@
         <v>78</v>
       </c>
       <c r="AK89" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL89" s="8"/>
     </row>
@@ -8427,35 +8421,35 @@
         <v>39</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E90" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="G90" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="H90" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="I90" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
       <c r="N90" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
@@ -8493,35 +8487,35 @@
         <v>39</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E91" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="G91" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="H91" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="I91" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -8559,22 +8553,22 @@
         <v>39</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E92" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="H92" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>359</v>
-      </c>
       <c r="I92" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -8585,7 +8579,7 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -8623,22 +8617,22 @@
         <v>39</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E93" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="H93" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -8649,7 +8643,7 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -8687,22 +8681,22 @@
         <v>39</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E94" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>327</v>
-      </c>
       <c r="H94" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -8713,7 +8707,7 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -8751,37 +8745,37 @@
         <v>39</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>279</v>
       </c>
       <c r="F95" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>363</v>
-      </c>
       <c r="H95" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>355</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="N95" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="N95" s="12" t="s">
-        <v>365</v>
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -8804,7 +8798,7 @@
         <v>85</v>
       </c>
       <c r="AK95" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AL95" s="8"/>
     </row>
@@ -8819,35 +8813,35 @@
         <v>39</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E96" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="G96" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="H96" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="H96" s="8" t="s">
-        <v>370</v>
-      </c>
       <c r="I96" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -8885,20 +8879,20 @@
         <v>39</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="H97" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>374</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -8909,7 +8903,7 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -8983,10 +8977,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>377</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>32</v>
@@ -8995,18 +8989,18 @@
         <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -12,9 +12,11 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="381">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1423,52 +1425,51 @@
   </sheetPr>
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="R85" activeCellId="0" sqref="R85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.4129554655871"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="83.9797570850202"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="256.765182186235"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.0283400809717"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="68.2348178137652"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="34.3846153846154"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="6.96356275303644"/>
   </cols>
   <sheetData>
@@ -6865,16 +6866,16 @@
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" s="8" t="n">
         <v>4</v>
       </c>
+      <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="N70" s="8"/>
+      <c r="N70" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="O70" s="8"/>
       <c r="P70" s="8" t="s">
         <v>270</v>
@@ -7638,7 +7639,9 @@
       <c r="M80" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="N80" s="8"/>
+      <c r="N80" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="O80" s="8" t="s">
         <v>288</v>
       </c>
@@ -7796,7 +7799,9 @@
       <c r="M82" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="N82" s="8"/>
+      <c r="N82" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="O82" s="8"/>
       <c r="P82" s="8" t="s">
         <v>318</v>
@@ -8929,7 +8934,7 @@
       <c r="AL97" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1"/>
+  <autoFilter ref="A1:AL97"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -13,10 +13,12 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="383">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -925,9 +927,6 @@
     <t xml:space="preserve">AND</t>
   </si>
   <si>
-    <t xml:space="preserve">Activation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Menu Board, Café Activation, Cash Zone</t>
   </si>
   <si>
@@ -1024,6 +1023,9 @@
     <t xml:space="preserve">A5B10102</t>
   </si>
   <si>
+    <t xml:space="preserve">Activation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juice and meal</t>
   </si>
   <si>
@@ -1034,10 +1036,16 @@
 771</t>
   </si>
   <si>
+    <t xml:space="preserve">Juice and meal: Image</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сок и еда: Имидж</t>
   </si>
   <si>
     <t xml:space="preserve">Rich, Dobriy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice and meal: Food</t>
   </si>
   <si>
     <t xml:space="preserve">Сок и еда: Еда</t>
@@ -1298,12 +1306,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1349,7 +1363,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1398,6 +1412,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1425,51 +1443,51 @@
   </sheetPr>
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="R85" activeCellId="0" sqref="R85"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="W74" activeCellId="0" sqref="W74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4574898785425"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="6.96356275303644"/>
   </cols>
   <sheetData>
@@ -6514,9 +6532,7 @@
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
-      <c r="W65" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="W65" s="8"/>
       <c r="X65" s="8" t="s">
         <v>251</v>
       </c>
@@ -6960,11 +6976,9 @@
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
       <c r="V71" s="8"/>
-      <c r="W71" s="8" t="s">
+      <c r="W71" s="8"/>
+      <c r="X71" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X71" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
@@ -7007,16 +7021,16 @@
         <v>40</v>
       </c>
       <c r="E72" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="G72" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="H72" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8" t="n">
@@ -7036,11 +7050,9 @@
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
-      <c r="W72" s="8" t="s">
+      <c r="W72" s="8"/>
+      <c r="X72" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X72" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
@@ -7061,7 +7073,7 @@
         <v>69</v>
       </c>
       <c r="AK72" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AL72" s="8" t="n">
         <v>68</v>
@@ -7081,13 +7093,13 @@
         <v>40</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F73" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>51</v>
@@ -7099,13 +7111,13 @@
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="N73" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="N73" s="8" t="s">
+      <c r="O73" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="P73" s="8"/>
       <c r="Q73" s="8" t="s">
@@ -7118,11 +7130,9 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
-      <c r="W73" s="8" t="s">
+      <c r="W73" s="8"/>
+      <c r="X73" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X73" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
@@ -7161,16 +7171,16 @@
         <v>40</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F74" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="H74" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8" t="n">
@@ -7179,10 +7189,10 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N74" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
@@ -7196,11 +7206,9 @@
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
-      <c r="W74" s="8" t="s">
+      <c r="W74" s="8"/>
+      <c r="X74" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X74" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
@@ -7242,10 +7250,10 @@
         <v>273</v>
       </c>
       <c r="F75" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>267</v>
@@ -7268,11 +7276,9 @@
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
-      <c r="W75" s="8" t="s">
+      <c r="W75" s="8"/>
+      <c r="X75" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X75" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
@@ -7295,7 +7301,7 @@
         <v>680</v>
       </c>
       <c r="AK75" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL75" s="8" t="n">
         <v>400</v>
@@ -7315,16 +7321,16 @@
         <v>40</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F76" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="H76" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8" t="n">
@@ -7344,11 +7350,9 @@
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
-      <c r="W76" s="8" t="s">
+      <c r="W76" s="8"/>
+      <c r="X76" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X76" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
@@ -7369,7 +7373,7 @@
         <v>72</v>
       </c>
       <c r="AK76" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL76" s="8" t="n">
         <v>680</v>
@@ -7389,13 +7393,13 @@
         <v>40</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F77" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>51</v>
@@ -7408,29 +7412,27 @@
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="P77" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="P77" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="Q77" s="8" t="s">
         <v>53</v>
       </c>
       <c r="R77" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S77" s="8"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
-      <c r="W77" s="8" t="s">
+      <c r="W77" s="8"/>
+      <c r="X77" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X77" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
@@ -7469,13 +7471,13 @@
         <v>40</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F78" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>51</v>
@@ -7487,10 +7489,10 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="N78" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="N78" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
@@ -7505,7 +7507,7 @@
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
       <c r="W78" s="8" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
@@ -7545,7 +7547,7 @@
         <v>40</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>309</v>
@@ -7554,7 +7556,7 @@
         <v>310</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="n">
@@ -7574,11 +7576,9 @@
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
-      <c r="W79" s="8" t="s">
+      <c r="W79" s="8"/>
+      <c r="X79" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X79" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
@@ -7619,13 +7619,13 @@
         <v>40</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>312</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>51</v>
@@ -7637,16 +7637,16 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q80" s="8" t="s">
         <v>53</v>
@@ -7658,11 +7658,9 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
-      <c r="W80" s="8" t="s">
+      <c r="W80" s="8"/>
+      <c r="X80" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X80" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
@@ -7701,16 +7699,16 @@
         <v>40</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>289</v>
+        <v>278</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8" t="n">
@@ -7719,10 +7717,10 @@
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N81" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="N81" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
@@ -7736,11 +7734,9 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
-      <c r="W81" s="8" t="s">
+      <c r="W81" s="8"/>
+      <c r="X81" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="X81" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
@@ -7779,13 +7775,13 @@
         <v>40</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>51</v>
@@ -7797,14 +7793,14 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O82" s="8"/>
       <c r="P82" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q82" s="8" t="s">
         <v>53</v>
@@ -7813,16 +7809,14 @@
         <v>271</v>
       </c>
       <c r="S82" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
-      <c r="W82" s="8" t="s">
-        <v>277</v>
-      </c>
+      <c r="W82" s="8"/>
       <c r="X82" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
@@ -7864,10 +7858,10 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>40</v>
@@ -7905,7 +7899,7 @@
         <v>330</v>
       </c>
       <c r="AK83" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL83" s="8" t="n">
         <v>520</v>
@@ -7922,16 +7916,16 @@
         <v>39</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>205</v>
@@ -7963,7 +7957,7 @@
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
       <c r="W84" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
@@ -7983,10 +7977,10 @@
         <v>1</v>
       </c>
       <c r="AG84" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AH84" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AI84" s="8" t="n">
         <v>2</v>
@@ -8010,16 +8004,16 @@
         <v>39</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>205</v>
@@ -8051,7 +8045,7 @@
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
@@ -8071,10 +8065,10 @@
         <v>1</v>
       </c>
       <c r="AG85" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AH85" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AI85" s="8" t="n">
         <v>2</v>
@@ -8098,16 +8092,16 @@
         <v>39</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>205</v>
@@ -8139,7 +8133,7 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
@@ -8159,10 +8153,10 @@
         <v>1</v>
       </c>
       <c r="AG86" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AH86" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AI86" s="8" t="n">
         <v>2</v>
@@ -8186,16 +8180,16 @@
         <v>39</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>205</v>
@@ -8210,10 +8204,10 @@
         <v>206</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P87" s="8"/>
       <c r="Q87" s="8" t="s">
@@ -8227,7 +8221,7 @@
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
@@ -8247,10 +8241,10 @@
         <v>1</v>
       </c>
       <c r="AG87" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AH87" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AI87" s="8" t="n">
         <v>2</v>
@@ -8274,16 +8268,16 @@
         <v>39</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>205</v>
@@ -8298,10 +8292,10 @@
         <v>206</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P88" s="8"/>
       <c r="Q88" s="8" t="s">
@@ -8315,7 +8309,7 @@
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
       <c r="W88" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
@@ -8335,10 +8329,10 @@
         <v>1</v>
       </c>
       <c r="AG88" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AH88" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AI88" s="8" t="n">
         <v>2</v>
@@ -8362,22 +8356,22 @@
         <v>39</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>254</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -8388,7 +8382,7 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
@@ -8411,7 +8405,7 @@
         <v>78</v>
       </c>
       <c r="AK89" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AL89" s="8"/>
     </row>
@@ -8426,35 +8420,35 @@
         <v>39</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
-      <c r="N90" s="12" t="s">
-        <v>355</v>
+      <c r="N90" s="13" t="s">
+        <v>357</v>
       </c>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
@@ -8492,35 +8486,35 @@
         <v>39</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
-      <c r="N91" s="12" t="s">
-        <v>356</v>
+      <c r="N91" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -8558,22 +8552,22 @@
         <v>39</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -8584,7 +8578,7 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -8622,22 +8616,22 @@
         <v>39</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -8648,7 +8642,7 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -8686,22 +8680,22 @@
         <v>39</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F94" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H94" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="G94" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>358</v>
-      </c>
       <c r="I94" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -8712,7 +8706,7 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -8750,37 +8744,37 @@
         <v>39</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="N95" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>366</v>
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -8803,7 +8797,7 @@
         <v>85</v>
       </c>
       <c r="AK95" s="10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL95" s="8"/>
     </row>
@@ -8818,35 +8812,35 @@
         <v>39</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -8884,20 +8878,20 @@
         <v>39</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -8908,7 +8902,7 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -8937,7 +8931,7 @@
   <autoFilter ref="A1:AL97"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8982,10 +8976,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>32</v>
@@ -8994,18 +8988,18 @@
         <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="382">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1061,9 +1062,6 @@
   </si>
   <si>
     <t xml:space="preserve">Burn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">Displays</t>
@@ -1443,50 +1441,50 @@
   </sheetPr>
   <dimension ref="A1:AL97"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="W74" activeCellId="0" sqref="W74"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="3" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="6.96356275303644"/>
   </cols>
@@ -7808,15 +7806,15 @@
       <c r="R82" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="S82" s="8" t="s">
-        <v>321</v>
+      <c r="S82" s="8" t="n">
+        <v>0.5</v>
       </c>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
       <c r="W82" s="8"/>
       <c r="X82" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
@@ -7858,10 +7856,10 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>40</v>
@@ -7899,7 +7897,7 @@
         <v>330</v>
       </c>
       <c r="AK83" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL83" s="8" t="n">
         <v>520</v>
@@ -7916,16 +7914,16 @@
         <v>39</v>
       </c>
       <c r="D84" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="F84" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="G84" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>205</v>
@@ -7957,7 +7955,7 @@
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
       <c r="W84" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
@@ -7977,10 +7975,10 @@
         <v>1</v>
       </c>
       <c r="AG84" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH84" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="AH84" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="AI84" s="8" t="n">
         <v>2</v>
@@ -8004,16 +8002,16 @@
         <v>39</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="G85" s="8" t="s">
         <v>334</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>335</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>205</v>
@@ -8045,7 +8043,7 @@
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X85" s="8"/>
       <c r="Y85" s="8"/>
@@ -8065,10 +8063,10 @@
         <v>1</v>
       </c>
       <c r="AG85" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH85" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="AH85" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="AI85" s="8" t="n">
         <v>2</v>
@@ -8092,16 +8090,16 @@
         <v>39</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E86" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>205</v>
@@ -8133,7 +8131,7 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
@@ -8153,10 +8151,10 @@
         <v>1</v>
       </c>
       <c r="AG86" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH86" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="AH86" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="AI86" s="8" t="n">
         <v>2</v>
@@ -8180,16 +8178,16 @@
         <v>39</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F87" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>205</v>
@@ -8204,10 +8202,10 @@
         <v>206</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O87" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P87" s="8"/>
       <c r="Q87" s="8" t="s">
@@ -8221,7 +8219,7 @@
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
       <c r="W87" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
@@ -8241,10 +8239,10 @@
         <v>1</v>
       </c>
       <c r="AG87" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH87" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="AH87" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="AI87" s="8" t="n">
         <v>2</v>
@@ -8268,16 +8266,16 @@
         <v>39</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F88" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>205</v>
@@ -8292,10 +8290,10 @@
         <v>206</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P88" s="8"/>
       <c r="Q88" s="8" t="s">
@@ -8309,7 +8307,7 @@
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
       <c r="W88" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
@@ -8329,10 +8327,10 @@
         <v>1</v>
       </c>
       <c r="AG88" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH88" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="AH88" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="AI88" s="8" t="n">
         <v>2</v>
@@ -8356,22 +8354,22 @@
         <v>39</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>254</v>
       </c>
       <c r="F89" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="H89" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="I89" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -8382,7 +8380,7 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S89" s="8"/>
       <c r="T89" s="8"/>
@@ -8405,7 +8403,7 @@
         <v>78</v>
       </c>
       <c r="AK89" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL89" s="8"/>
     </row>
@@ -8420,35 +8418,35 @@
         <v>39</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E90" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="G90" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="H90" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="I90" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
       <c r="N90" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S90" s="8"/>
       <c r="T90" s="8"/>
@@ -8486,35 +8484,35 @@
         <v>39</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E91" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F91" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="G91" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="H91" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="I91" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
@@ -8552,22 +8550,22 @@
         <v>39</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E92" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="H92" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="I92" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -8578,7 +8576,7 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -8616,22 +8614,22 @@
         <v>39</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E93" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="H93" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -8642,7 +8640,7 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -8680,22 +8678,22 @@
         <v>39</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E94" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>328</v>
-      </c>
       <c r="H94" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -8706,7 +8704,7 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -8744,37 +8742,37 @@
         <v>39</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>278</v>
       </c>
       <c r="F95" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="G95" s="8" t="s">
-        <v>364</v>
-      </c>
       <c r="H95" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>356</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="N95" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="N95" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -8797,7 +8795,7 @@
         <v>85</v>
       </c>
       <c r="AK95" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL95" s="8"/>
     </row>
@@ -8812,35 +8810,35 @@
         <v>39</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E96" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="G96" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="H96" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="H96" s="8" t="s">
-        <v>371</v>
-      </c>
       <c r="I96" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
       <c r="N96" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="S96" s="8"/>
       <c r="T96" s="8"/>
@@ -8878,20 +8876,20 @@
         <v>39</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="H97" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>376</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -8902,7 +8900,7 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S97" s="8"/>
       <c r="T97" s="8"/>
@@ -8976,10 +8974,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>378</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>32</v>
@@ -8988,18 +8986,18 @@
         <v>29</v>
       </c>
       <c r="K1" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>380</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190717_1938\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF33DFF2-3CFD-420F-B954-62E663C56DF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="681" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Petrol" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Petrol" sheetId="1" r:id="rId1"/>
+    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Petrol!$A$1:$AL$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Petrol!$A$1:$AL$97</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,135 +29,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="382">
-  <si>
-    <t xml:space="preserve">Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP PoS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAP KPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">target_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logical Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub locations to exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_func</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depends on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38000028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petrol_REG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="390">
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>SAP PoS</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>KPI Type</t>
+  </si>
+  <si>
+    <t>SAP KPI</t>
+  </si>
+  <si>
+    <t>KPI name Eng</t>
+  </si>
+  <si>
+    <t>KPI name Rus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Result Format</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>target_min</t>
+  </si>
+  <si>
+    <t>target_max</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Logical Operator</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>Zone to include</t>
+  </si>
+  <si>
+    <t>Locations to exclude</t>
+  </si>
+  <si>
+    <t>Locations to include</t>
+  </si>
+  <si>
+    <t>Scenes to include</t>
+  </si>
+  <si>
+    <t>Scenes to exclude</t>
+  </si>
+  <si>
+    <t>Sub locations to include</t>
+  </si>
+  <si>
+    <t>Sub locations to exclude</t>
+  </si>
+  <si>
+    <t>shelf_number</t>
+  </si>
+  <si>
+    <t>score_func</t>
+  </si>
+  <si>
+    <t>KPI Weight</t>
+  </si>
+  <si>
+    <t>score_min</t>
+  </si>
+  <si>
+    <t>score_max</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>depends on</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>KPI ID</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>RD38000028</t>
+  </si>
+  <si>
+    <t>Petrol_REG</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Представленность</t>
   </si>
   <si>
     <t xml:space="preserve">1
@@ -163,16 +168,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Average</t>
+    <t>STANDARD 1</t>
+  </si>
+  <si>
+    <t>SSD Availability</t>
+  </si>
+  <si>
+    <t>Представленность SSD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
   </si>
   <si>
     <t xml:space="preserve">2
@@ -197,184 +202,184 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BINARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Bitter Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000000996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54491069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000214744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes - Pomegranate - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Гранат - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Mojito - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Мохито - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000231659, 5449000133328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спрайт - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фанта Апельсин - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000044839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Вишня- 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000251626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Vanilla - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Ванила - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppes Tonic - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеппс Тоник - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Воды</t>
+    <t>Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t>number of facings</t>
+  </si>
+  <si>
+    <t>54491472</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>SKUs</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Panoramic Photo</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 1л</t>
+  </si>
+  <si>
+    <t>5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t>Schweppes - Bitter Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 0.33л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131836</t>
+  </si>
+  <si>
+    <t>Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t>5449000000996</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.33L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.33л</t>
+  </si>
+  <si>
+    <t>5449000131805</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.5л</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>54491069</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Вишня - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000214744</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t>40822938</t>
+  </si>
+  <si>
+    <t>Schweppes - Pomegranate - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Гранат - 0.33л</t>
+  </si>
+  <si>
+    <t>Schweppes Mojito - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Мохито - 0.33л</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 1л</t>
+  </si>
+  <si>
+    <t>5449000231659, 5449000133328</t>
+  </si>
+  <si>
+    <t>Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Спрайт - 1л</t>
+  </si>
+  <si>
+    <t>5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t>Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 1л</t>
+  </si>
+  <si>
+    <t>5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t>Швеппс Биттер Лемон - 1л</t>
+  </si>
+  <si>
+    <t>5449000044839</t>
+  </si>
+  <si>
+    <t>Coca-Cola Zero Cherry - 0.9L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро Вишня- 0.9л</t>
+  </si>
+  <si>
+    <t>5449000251626</t>
+  </si>
+  <si>
+    <t>Coca-Cola Vanilla - 0.9L</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.9л</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 0.33L</t>
+  </si>
+  <si>
+    <t>Швеппс Тоник - 0.33л</t>
+  </si>
+  <si>
+    <t>STANDARD 2</t>
+  </si>
+  <si>
+    <t>Water Availability</t>
+  </si>
+  <si>
+    <t>Представленность Воды</t>
   </si>
   <si>
     <t xml:space="preserve">24
@@ -385,52 +390,46 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40822426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90494406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Carb - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Газ - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000026583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000005489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Энергетиков</t>
+    <t>BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t>90494406</t>
+  </si>
+  <si>
+    <t>BonAqua Carb - 1L</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 1л</t>
+  </si>
+  <si>
+    <t>5449000026583</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t>BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t>БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>Energy Availability</t>
+  </si>
+  <si>
+    <t>Представленность Энергетиков</t>
   </si>
   <si>
     <t xml:space="preserve">29
@@ -443,70 +442,70 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000131768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060335632906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466510869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Ultra - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Ультра - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Passion Punch - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Тропический микс - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060466516038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000148056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster Rossi - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монстер Росси - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5060517884710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tea Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Чая</t>
+    <t>Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000131768</t>
+  </si>
+  <si>
+    <t>Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t>5060335632906</t>
+  </si>
+  <si>
+    <t>Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t>5060466510869</t>
+  </si>
+  <si>
+    <t>Monster Ultra - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Ультра - 0.5л</t>
+  </si>
+  <si>
+    <t>Burn Passion Punch - 0.5L</t>
+  </si>
+  <si>
+    <t>Берн Тропический микс - 0.5л</t>
+  </si>
+  <si>
+    <t>5060466516038</t>
+  </si>
+  <si>
+    <t>Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t>5449000148056</t>
+  </si>
+  <si>
+    <t>Monster Rossi - 0.5L</t>
+  </si>
+  <si>
+    <t>Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t>5060517884710</t>
+  </si>
+  <si>
+    <t>Tea Availability</t>
+  </si>
+  <si>
+    <t>Представленность Чая</t>
   </si>
   <si>
     <t xml:space="preserve">39
@@ -517,55 +516,55 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000193124, 5449000259455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430879, 5449000027450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000189301, 5449000235947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Peach-Rose - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Персик - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000189332, 5449000235770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5449000233615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность Сока</t>
+    <t>Fuze Berry-Hibiscus - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000193124, 5449000259455</t>
+  </si>
+  <si>
+    <t>Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t>4607042430879, 5449000027450</t>
+  </si>
+  <si>
+    <t>Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000189301, 5449000235947</t>
+  </si>
+  <si>
+    <t>Fuze Peach-Rose - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Персик - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000189332, 5449000235770</t>
+  </si>
+  <si>
+    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t>5449000233615</t>
+  </si>
+  <si>
+    <t>Juice Availability</t>
+  </si>
+  <si>
+    <t>Представленность Сока</t>
   </si>
   <si>
     <t xml:space="preserve">44
@@ -582,103 +581,103 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174577787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4650075420980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Orange - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607042430565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174577794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607174579729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полка</t>
+    <t>Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t>4607174577787</t>
+  </si>
+  <si>
+    <t>Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t>4650075420980</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t>4607174579309</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t>4607174579286</t>
+  </si>
+  <si>
+    <t>Dobriy - Orange - 0.33L</t>
+  </si>
+  <si>
+    <t>Добрый - Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t>4607174579248</t>
+  </si>
+  <si>
+    <t>Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430619</t>
+  </si>
+  <si>
+    <t>Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t>4607042430565</t>
+  </si>
+  <si>
+    <t>Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Гуава-Маракуйя - 0.45л</t>
+  </si>
+  <si>
+    <t>Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t>Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t>4607174577794</t>
+  </si>
+  <si>
+    <t>Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t>4607174579729</t>
+  </si>
+  <si>
+    <t>Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t>Палпи - Арбуз-Клубника - 0.45л</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>Полка</t>
   </si>
   <si>
     <t xml:space="preserve">54
@@ -687,95 +686,95 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN in CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPORTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must have scene type "Panoramic Photo of the Warm Shelf" to pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo of the Warm Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">311
+    <t>STANDARD 20</t>
+  </si>
+  <si>
+    <t>SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>MAN in CAT</t>
+  </si>
+  <si>
+    <t>Warm Shelf</t>
+  </si>
+  <si>
+    <t>PROPORTIONAL</t>
+  </si>
+  <si>
+    <t>Must have scene type "Panoramic Photo of the Warm Shelf" to pass</t>
+  </si>
+  <si>
+    <t>Panoramic Photo of the Warm Shelf</t>
+  </si>
+  <si>
+    <t>STANDARD 21</t>
+  </si>
+  <si>
+    <t>Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>STANDARD 25</t>
+  </si>
+  <si>
+    <t>Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t>Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Coolers</t>
+  </si>
+  <si>
+    <t>Холодильники</t>
+  </si>
+  <si>
+    <t>311
 312</t>
   </si>
   <si>
-    <t xml:space="preserve">Coolers: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Двери</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store Master Data attr15</t>
+    <t>Coolers: Doors</t>
+  </si>
+  <si>
+    <t>Холодильник: Двери</t>
+  </si>
+  <si>
+    <t>STANDARD 22</t>
+  </si>
+  <si>
+    <t>Cooler: Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t>sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Store Master Data attr15</t>
   </si>
   <si>
     <t xml:space="preserve">63
@@ -783,287 +782,287 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of doors of filled Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOS with empty more than 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facings TCCC/40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolers: Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильник: Качество</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145
+    <t>Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t>number of doors of filled Coolers</t>
+  </si>
+  <si>
+    <t>TCCC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Cooler</t>
+  </si>
+  <si>
+    <t>SOS with empty more than 80%</t>
+  </si>
+  <si>
+    <t>Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t>facings TCCC/40</t>
+  </si>
+  <si>
+    <t>Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t>Coolers: Quality</t>
+  </si>
+  <si>
+    <t>Холодильник: Качество</t>
+  </si>
+  <si>
+    <t>145
 146
 147
 155</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scenes with no tagging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic photo of Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_SCENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: w/o other products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Max 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130
+    <t>-</t>
+  </si>
+  <si>
+    <t>Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t>Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t>Scenes with no tagging</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>NUM_SCENES</t>
+  </si>
+  <si>
+    <t>Calculate if at least one door was passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>STANDARD 18</t>
+  </si>
+  <si>
+    <t>Cooler: w/o other products</t>
+  </si>
+  <si>
+    <t>Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t>Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t>Cooler: Max 15</t>
+  </si>
+  <si>
+    <t>Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t>number of SKU per Door RANGE TOTAL</t>
+  </si>
+  <si>
+    <t>Activations</t>
+  </si>
+  <si>
+    <t>Активации</t>
+  </si>
+  <si>
+    <t>130
 68
 680
 820</t>
   </si>
   <si>
-    <t xml:space="preserve">Zone Activation Impulse/Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсная Зона/Зона кассы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impulse Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Активация Импульсной зоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola, Burn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Café Activation, Cash Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDART 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu Board, Café Activation, Cash Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCCASIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke and meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кола и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70
+    <t>Zone Activation Impulse/Cash</t>
+  </si>
+  <si>
+    <t>Активация Импульсная Зона/Зона кассы</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>Impulse Activation</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны</t>
+  </si>
+  <si>
+    <t>Coca-Cola, Burn</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>Café Activation, Cash Zone</t>
+  </si>
+  <si>
+    <t>STANDART 17</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t>Комбо</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>Menu Board, Café Activation, Cash Zone</t>
+  </si>
+  <si>
+    <t>OCCASIONS</t>
+  </si>
+  <si>
+    <t>Coke and meal</t>
+  </si>
+  <si>
+    <t>Кола и еда</t>
+  </si>
+  <si>
+    <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>70
 71</t>
   </si>
   <si>
-    <t xml:space="preserve">Coke and meal: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кола и еда: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke, Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50111111, 50111112, 50111113, 50111114, 5000101, 5000006, 5000004, 5000005, 5000006, 5050570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke and meal: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кола и еда: Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of facings near food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Другие Комбо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72
+    <t>Coke and meal: Image</t>
+  </si>
+  <si>
+    <t>Кола и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Coke, Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can</t>
+  </si>
+  <si>
+    <t>50111111, 50111112, 50111113, 50111114, 5000101, 5000006, 5000004, 5000005, 5000006, 5050570</t>
+  </si>
+  <si>
+    <t>IC Activation</t>
+  </si>
+  <si>
+    <t>Coke and meal: Food</t>
+  </si>
+  <si>
+    <t>Кола и еда: Еда</t>
+  </si>
+  <si>
+    <t>number of facings near food</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>5000034, A5B10138, A5B10137, A5B10136, A5B10135, A5B10125, A5B10124, A5B10123, A5B10123, A5B10122, A5B10121, A5B10120, A5B10119, A5B10118, A5B10117, A5B10116, A5B10091, A5B10090, A5B10089, A5B10088, A5B10087, A5B10086, A5B10085, A5B10057, 5000044, 5000042</t>
+  </si>
+  <si>
+    <t>Combo other</t>
+  </si>
+  <si>
+    <t>Другие Комбо</t>
+  </si>
+  <si>
+    <t>72
 769</t>
   </si>
   <si>
-    <t xml:space="preserve">Start the day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73
+    <t>Start the day</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе</t>
+  </si>
+  <si>
+    <t>73
 74</t>
   </si>
   <si>
-    <t xml:space="preserve">Start the day: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottles, Glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonaqua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUB_CATEGORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start the day: Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Взбодриться кофе: Кофе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5B10102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">770
+    <t>Start the day: Image</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе: Имидж</t>
+  </si>
+  <si>
+    <t>Bottles, Glass</t>
+  </si>
+  <si>
+    <t>Bonaqua</t>
+  </si>
+  <si>
+    <t>SUB_CATEGORY</t>
+  </si>
+  <si>
+    <t>Start the day: Coffee</t>
+  </si>
+  <si>
+    <t>Взбодриться кофе: Кофе</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>A5B10102</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Juice and meal</t>
+  </si>
+  <si>
+    <t>Сок и еда</t>
+  </si>
+  <si>
+    <t>770
 771</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice and meal: Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Имидж</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich, Dobriy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice and meal: Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Burn parasite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дисплей Берн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодная Полка</t>
+    <t>Juice and meal: Image</t>
+  </si>
+  <si>
+    <t>Сок и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Rich, Dobriy</t>
+  </si>
+  <si>
+    <t>Juice and meal: Food</t>
+  </si>
+  <si>
+    <t>Сок и еда: Еда</t>
+  </si>
+  <si>
+    <t>Display Burn parasite</t>
+  </si>
+  <si>
+    <t>Дисплей Берн</t>
+  </si>
+  <si>
+    <t>Burn 0.5</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Displays</t>
+  </si>
+  <si>
+    <t>Cold Shelf</t>
+  </si>
+  <si>
+    <t>Холодная Полка</t>
   </si>
   <si>
     <t xml:space="preserve">75
@@ -1074,79 +1073,79 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Coolers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must have scene type "Panoramic Photo of the Cold Shelf" to pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panoramic Photo of the Cold Shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки Вода</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCAL 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share Energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки Энергетики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share Ice Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки Чай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilled Shelf Share Juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Охлажденная Доля Полки Сок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_QUALITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sum of KPI scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decimal.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SESSION LEVEL</t>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>LOCAL 13</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share SSD</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки SSD</t>
+  </si>
+  <si>
+    <t>Other Coolers</t>
+  </si>
+  <si>
+    <t>Must have scene type "Panoramic Photo of the Cold Shelf" to pass</t>
+  </si>
+  <si>
+    <t>Panoramic Photo of the Cold Shelf</t>
+  </si>
+  <si>
+    <t>LOCAL 10</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share Water</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Вода</t>
+  </si>
+  <si>
+    <t>LOCAL 12</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share Energy</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Энергетики</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share Ice Tea</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Чай</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Chilled Shelf Share Juice</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Сок</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>COOLER_QUALITY</t>
+  </si>
+  <si>
+    <t>CCH coolers quality (Prime Pos- Max15- Merch STD- Occupancy- Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t>sum of KPI scores</t>
+  </si>
+  <si>
+    <t>Decimal.2</t>
+  </si>
+  <si>
+    <t>SESSION LEVEL</t>
   </si>
   <si>
     <t xml:space="preserve">65
@@ -1155,51 +1154,51 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVATION_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of CCH activation points in NARTD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passed or Failed Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combo
+    <t>STANDARD 17</t>
+  </si>
+  <si>
+    <t>ACTIVATION_SSD</t>
+  </si>
+  <si>
+    <t>Number of CCH activation points in NARTD</t>
+  </si>
+  <si>
+    <t>Passed or Failed Value</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Combo
 No_Combo</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPU
+    <t>IMPU
 No_IMPU</t>
   </si>
   <si>
-    <t xml:space="preserve">CHILLED_SS_WATER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHILLED_SS_ENERGY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHILLED_SS_SSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIORITY_OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Priority Occasions activated in the outlet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTG
+    <t>CHILLED_SS_WATER</t>
+  </si>
+  <si>
+    <t>KPI result</t>
+  </si>
+  <si>
+    <t>CHILLED_SS_ENERGY</t>
+  </si>
+  <si>
+    <t>CHILLED_SS_SSD</t>
+  </si>
+  <si>
+    <t>PRIORITY_OCC</t>
+  </si>
+  <si>
+    <t>Number of Priority Occasions activated in the outlet</t>
+  </si>
+  <si>
+    <t>SEND VALUE if one KPI from lis is Passed , other No_O_A</t>
+  </si>
+  <si>
+    <t>OTG
 No_O_A</t>
   </si>
   <si>
@@ -1211,82 +1210,96 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOLER_DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">template.additional_attribute_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCENE LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Score Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI weighted Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI from POS 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be added on the 16th of December</t>
+    <t>Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t>COOLER_DOORS</t>
+  </si>
+  <si>
+    <t>Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>template.additional_attribute_1</t>
+  </si>
+  <si>
+    <t>SCENE LEVEL</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Scene</t>
+  </si>
+  <si>
+    <t>KPI Score Formula</t>
+  </si>
+  <si>
+    <t>KPI weighted Score</t>
+  </si>
+  <si>
+    <t>Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t>KPI from POS 2016</t>
+  </si>
+  <si>
+    <t>Will be added on the 16th of December</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 0.5L, SW - 0.6L</t>
+  </si>
+  <si>
+    <t>40822426, 5449000034335</t>
+  </si>
+  <si>
+    <t>BonAqua Still - 1L, SW - 1.1L</t>
+  </si>
+  <si>
+    <t>5449000005489, 5449000243089</t>
+  </si>
+  <si>
+    <t>Schweppes - Bitter Lemon - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t>5449000064110, 54490130</t>
+  </si>
+  <si>
+    <t>Schweppes - Pomegranate - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t>5449000030856, 5449000226242</t>
+  </si>
+  <si>
+    <t>Schweppes Mojito - 0.33L/0.5L</t>
+  </si>
+  <si>
+    <t>5449000171351, 5449000176981</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1296,15 +1309,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,108 +1339,95 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1479,71 +1486,375 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AL97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK97"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N73" activeCellId="0" sqref="N73"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.0971659919028"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.1781376518219"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="42.9959514170041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.9473684210526"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.004048582996"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.2955465587045"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="46.4534412955466"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1821862348178"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.4453441295547"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.3238866396761"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.97570850202429"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.1821862348178"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="17.7085020242915"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.417004048583"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2672064777328"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="34.7651821862348"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="19.914979757085"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7935222672065"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.6518218623482"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.5627530364372"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.8623481781377"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="30.502024291498"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="7.56275303643725"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.9473684210526"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.03238866396761"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.1417004048583"/>
+    <col min="1" max="1" width="10.08984375" style="1"/>
+    <col min="2" max="2" width="11.6328125" style="1"/>
+    <col min="3" max="3" width="10.6328125" style="1"/>
+    <col min="4" max="4" width="11.08984375" style="1"/>
+    <col min="5" max="5" width="15.81640625" style="1"/>
+    <col min="6" max="6" width="34.1796875" style="1"/>
+    <col min="7" max="7" width="65.6328125" style="1"/>
+    <col min="8" max="8" width="43" style="1"/>
+    <col min="9" max="9" width="15.90625" style="1"/>
+    <col min="10" max="10" width="8.90625" style="1"/>
+    <col min="11" max="11" width="13" style="1"/>
+    <col min="12" max="12" width="13.26953125" style="1"/>
+    <col min="13" max="14" width="46.453125" style="12"/>
+    <col min="15" max="15" width="19.1796875" style="1"/>
+    <col min="16" max="16" width="14.453125" style="1"/>
+    <col min="17" max="17" width="18.453125" style="1"/>
+    <col min="18" max="18" width="14.26953125" style="1"/>
+    <col min="19" max="19" width="7" style="1"/>
+    <col min="20" max="20" width="14.1796875" style="1"/>
+    <col min="21" max="21" width="17.7265625" style="1"/>
+    <col min="22" max="22" width="22.453125" style="1"/>
+    <col min="23" max="23" width="22.26953125" style="1"/>
+    <col min="24" max="24" width="34.7265625" style="1"/>
+    <col min="25" max="25" width="19.90625" style="1"/>
+    <col min="26" max="26" width="25.81640625" style="1"/>
+    <col min="27" max="27" width="26.08984375" style="1"/>
+    <col min="28" max="28" width="15.6328125" style="1"/>
+    <col min="29" max="29" width="16.26953125" style="1"/>
+    <col min="30" max="30" width="14.453125" style="1"/>
+    <col min="31" max="31" width="12.54296875" style="1"/>
+    <col min="32" max="32" width="12.81640625" style="1"/>
+    <col min="33" max="33" width="62.54296875" style="1"/>
+    <col min="34" max="34" width="30.453125" style="1"/>
+    <col min="35" max="35" width="7.54296875" style="1"/>
+    <col min="36" max="36" width="8.90625" style="1"/>
+    <col min="37" max="37" width="10.90625" style="1"/>
+    <col min="38" max="38" width="9" style="1"/>
+    <col min="39" max="1025" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1580,10 +1891,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1659,8 +1970,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1686,8 +1997,8 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1708,10 +2019,10 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
-      <c r="AI2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="5" t="n">
+      <c r="AI2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="5">
         <v>300</v>
       </c>
       <c r="AK2" s="7" t="s">
@@ -1719,8 +2030,8 @@
       </c>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1748,8 +2059,8 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -1772,21 +2083,21 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
-      <c r="AI3" s="5" t="n">
+      <c r="AI3" s="5">
         <v>2</v>
       </c>
-      <c r="AJ3" s="5" t="n">
+      <c r="AJ3" s="5">
         <v>1</v>
       </c>
       <c r="AK3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AL3" s="5" t="n">
+      <c r="AL3" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1811,15 +2122,15 @@
         <v>51</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O4" s="5"/>
@@ -1847,26 +2158,26 @@
       <c r="AC4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="6" t="n">
-        <v>0.014194</v>
+      <c r="AD4" s="6">
+        <v>1.4194E-2</v>
       </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="5" t="n">
+      <c r="AI4" s="5">
         <v>3</v>
       </c>
-      <c r="AJ4" s="5" t="n">
+      <c r="AJ4" s="5">
         <v>2</v>
       </c>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="AL4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1891,15 +2202,15 @@
         <v>51</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="O5" s="5"/>
@@ -1927,26 +2238,26 @@
       <c r="AC5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD5" s="6" t="n">
-        <v>0.014194</v>
+      <c r="AD5" s="6">
+        <v>1.4194E-2</v>
       </c>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-      <c r="AI5" s="5" t="n">
+      <c r="AI5" s="5">
         <v>3</v>
       </c>
-      <c r="AJ5" s="5" t="n">
+      <c r="AJ5" s="5">
         <v>3</v>
       </c>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="AL5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1971,16 +2282,16 @@
         <v>51</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="5">
         <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>5449000064110</v>
+      <c r="M6" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -2007,26 +2318,26 @@
       <c r="AC6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD6" s="6" t="n">
-        <v>0.014194</v>
+      <c r="AD6" s="6">
+        <v>1.4194E-2</v>
       </c>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
-      <c r="AI6" s="5" t="n">
+      <c r="AI6" s="5">
         <v>3</v>
       </c>
-      <c r="AJ6" s="5" t="n">
+      <c r="AJ6" s="5">
         <v>602</v>
       </c>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="AL6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2051,15 +2362,15 @@
         <v>51</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="5">
         <v>1</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="10" t="s">
         <v>65</v>
       </c>
       <c r="O7" s="5"/>
@@ -2087,26 +2398,26 @@
       <c r="AC7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD7" s="6" t="n">
-        <v>0.014194</v>
+      <c r="AD7" s="6">
+        <v>1.4194E-2</v>
       </c>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="5" t="n">
+      <c r="AI7" s="5">
         <v>3</v>
       </c>
-      <c r="AJ7" s="5" t="n">
+      <c r="AJ7" s="5">
         <v>6</v>
       </c>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="AL7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2131,15 +2442,15 @@
         <v>51</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="5">
         <v>1</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="10" t="s">
         <v>68</v>
       </c>
       <c r="O8" s="5"/>
@@ -2167,26 +2478,26 @@
       <c r="AC8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD8" s="6" t="n">
-        <v>0.0089</v>
+      <c r="AD8" s="6">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AI8" s="5" t="n">
+      <c r="AI8" s="5">
         <v>3</v>
       </c>
-      <c r="AJ8" s="5" t="n">
+      <c r="AJ8" s="5">
         <v>7</v>
       </c>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="AL8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2211,15 +2522,15 @@
         <v>51</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="5">
         <v>1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="10" t="s">
         <v>71</v>
       </c>
       <c r="O9" s="5"/>
@@ -2247,26 +2558,26 @@
       <c r="AC9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD9" s="6" t="n">
-        <v>0.0089</v>
+      <c r="AD9" s="6">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
-      <c r="AI9" s="5" t="n">
+      <c r="AI9" s="5">
         <v>3</v>
       </c>
-      <c r="AJ9" s="5" t="n">
+      <c r="AJ9" s="5">
         <v>8</v>
       </c>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="AL9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2291,15 +2602,15 @@
         <v>51</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="5">
         <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="10">
         <v>42099697</v>
       </c>
       <c r="O10" s="5"/>
@@ -2327,26 +2638,26 @@
       <c r="AC10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD10" s="6" t="n">
-        <v>0.0089</v>
+      <c r="AD10" s="6">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="5" t="n">
+      <c r="AI10" s="5">
         <v>3</v>
       </c>
-      <c r="AJ10" s="5" t="n">
+      <c r="AJ10" s="5">
         <v>603</v>
       </c>
       <c r="AK10" s="8"/>
-      <c r="AL10" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="AL10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2371,15 +2682,15 @@
         <v>51</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="5">
         <v>1</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="10" t="s">
         <v>76</v>
       </c>
       <c r="O11" s="5"/>
@@ -2407,26 +2718,26 @@
       <c r="AC11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD11" s="6" t="n">
-        <v>0.0089</v>
+      <c r="AD11" s="6">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
-      <c r="AI11" s="5" t="n">
+      <c r="AI11" s="5">
         <v>3</v>
       </c>
-      <c r="AJ11" s="5" t="n">
+      <c r="AJ11" s="5">
         <v>5</v>
       </c>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="AL11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2451,15 +2762,15 @@
         <v>51</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="5">
         <v>1</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="10" t="s">
         <v>79</v>
       </c>
       <c r="O12" s="5"/>
@@ -2487,26 +2798,26 @@
       <c r="AC12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD12" s="6" t="n">
-        <v>0.0089</v>
+      <c r="AD12" s="6">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
-      <c r="AI12" s="5" t="n">
+      <c r="AI12" s="5">
         <v>3</v>
       </c>
-      <c r="AJ12" s="5" t="n">
+      <c r="AJ12" s="5">
         <v>9</v>
       </c>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="AL12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -2531,15 +2842,15 @@
         <v>51</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="5">
         <v>1</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O13" s="5"/>
@@ -2567,26 +2878,26 @@
       <c r="AC13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD13" s="6" t="n">
-        <v>0.0089</v>
+      <c r="AD13" s="6">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
-      <c r="AI13" s="5" t="n">
+      <c r="AI13" s="5">
         <v>3</v>
       </c>
-      <c r="AJ13" s="5" t="n">
+      <c r="AJ13" s="5">
         <v>4</v>
       </c>
       <c r="AK13" s="8"/>
-      <c r="AL13" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="AL13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -2611,16 +2922,16 @@
         <v>51</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="5">
         <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>5449000030856</v>
+      <c r="M14" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -2647,26 +2958,26 @@
       <c r="AC14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD14" s="6" t="n">
-        <v>0.0089</v>
+      <c r="AD14" s="6">
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
-      <c r="AI14" s="5" t="n">
+      <c r="AI14" s="5">
         <v>3</v>
       </c>
-      <c r="AJ14" s="5" t="n">
+      <c r="AJ14" s="5">
         <v>606</v>
       </c>
       <c r="AK14" s="8"/>
-      <c r="AL14" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="AL14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2691,16 +3002,16 @@
         <v>51</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="5">
         <v>1</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>5449000171351</v>
+      <c r="M15" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>389</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -2727,26 +3038,26 @@
       <c r="AC15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" s="6" t="n">
-        <v>0.005605</v>
+      <c r="AD15" s="6">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
-      <c r="AI15" s="5" t="n">
+      <c r="AI15" s="5">
         <v>3</v>
       </c>
-      <c r="AJ15" s="5" t="n">
+      <c r="AJ15" s="5">
         <v>607</v>
       </c>
       <c r="AK15" s="8"/>
-      <c r="AL15" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+      <c r="AL15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2771,15 +3082,15 @@
         <v>51</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="5">
         <v>1</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="10" t="s">
         <v>89</v>
       </c>
       <c r="O16" s="5"/>
@@ -2807,26 +3118,26 @@
       <c r="AC16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD16" s="6" t="n">
-        <v>0.005605</v>
+      <c r="AD16" s="6">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-      <c r="AI16" s="5" t="n">
+      <c r="AI16" s="5">
         <v>3</v>
       </c>
-      <c r="AJ16" s="5" t="n">
+      <c r="AJ16" s="5">
         <v>15</v>
       </c>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="AL16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -2851,15 +3162,15 @@
         <v>51</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="5">
         <v>1</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="10" t="s">
         <v>92</v>
       </c>
       <c r="O17" s="5"/>
@@ -2887,26 +3198,26 @@
       <c r="AC17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD17" s="6" t="n">
-        <v>0.005605</v>
+      <c r="AD17" s="6">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
-      <c r="AI17" s="5" t="n">
+      <c r="AI17" s="5">
         <v>3</v>
       </c>
-      <c r="AJ17" s="5" t="n">
+      <c r="AJ17" s="5">
         <v>16</v>
       </c>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+      <c r="AL17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2931,15 +3242,15 @@
         <v>51</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="5">
         <v>1</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="10" t="s">
         <v>95</v>
       </c>
       <c r="O18" s="5"/>
@@ -2967,26 +3278,26 @@
       <c r="AC18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD18" s="6" t="n">
-        <v>0.005605</v>
+      <c r="AD18" s="6">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
-      <c r="AI18" s="5" t="n">
+      <c r="AI18" s="5">
         <v>3</v>
       </c>
-      <c r="AJ18" s="5" t="n">
+      <c r="AJ18" s="5">
         <v>18</v>
       </c>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="AL18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -3011,15 +3322,15 @@
         <v>51</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="5">
         <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="10" t="s">
         <v>98</v>
       </c>
       <c r="O19" s="5"/>
@@ -3047,26 +3358,26 @@
       <c r="AC19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD19" s="6" t="n">
-        <v>0.005605</v>
+      <c r="AD19" s="6">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AI19" s="5" t="n">
+      <c r="AI19" s="5">
         <v>3</v>
       </c>
-      <c r="AJ19" s="5" t="n">
+      <c r="AJ19" s="5">
         <v>19</v>
       </c>
       <c r="AK19" s="8"/>
-      <c r="AL19" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="AL19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3091,15 +3402,15 @@
         <v>51</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="5">
         <v>1</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="10" t="s">
         <v>101</v>
       </c>
       <c r="O20" s="5"/>
@@ -3127,26 +3438,26 @@
       <c r="AC20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD20" s="6" t="n">
-        <v>0.005605</v>
+      <c r="AD20" s="6">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-      <c r="AI20" s="5" t="n">
+      <c r="AI20" s="5">
         <v>3</v>
       </c>
-      <c r="AJ20" s="5" t="n">
+      <c r="AJ20" s="5">
         <v>21</v>
       </c>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="AL20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3171,15 +3482,15 @@
         <v>51</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="5">
         <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="5" t="n">
+      <c r="N21" s="10">
         <v>5449000253101</v>
       </c>
       <c r="O21" s="5"/>
@@ -3207,26 +3518,26 @@
       <c r="AC21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="6" t="n">
-        <v>0.005605</v>
+      <c r="AD21" s="6">
+        <v>5.6049999999999997E-3</v>
       </c>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AI21" s="5" t="n">
+      <c r="AI21" s="5">
         <v>3</v>
       </c>
-      <c r="AJ21" s="5" t="n">
+      <c r="AJ21" s="5">
         <v>601</v>
       </c>
       <c r="AK21" s="8"/>
-      <c r="AL21" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="AL21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3251,15 +3562,15 @@
         <v>51</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="5">
         <v>1</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="5" t="n">
+      <c r="N22" s="10">
         <v>5449000046390</v>
       </c>
       <c r="O22" s="5"/>
@@ -3287,26 +3598,26 @@
       <c r="AC22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD22" s="6" t="n">
-        <v>0.005589</v>
+      <c r="AD22" s="6">
+        <v>5.5890000000000002E-3</v>
       </c>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AI22" s="5" t="n">
+      <c r="AI22" s="5">
         <v>3</v>
       </c>
-      <c r="AJ22" s="5" t="n">
+      <c r="AJ22" s="5">
         <v>605</v>
       </c>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+      <c r="AL22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3334,8 +3645,8 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -3358,21 +3669,21 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="5" t="n">
+      <c r="AI23" s="5">
         <v>2</v>
       </c>
-      <c r="AJ23" s="5" t="n">
+      <c r="AJ23" s="5">
         <v>23</v>
       </c>
       <c r="AK23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AL23" s="5" t="n">
+      <c r="AL23" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
         <v>31</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3397,16 +3708,16 @@
         <v>51</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="5">
         <v>1</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>112</v>
+      <c r="M24" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>381</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -3433,26 +3744,26 @@
       <c r="AC24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD24" s="6" t="n">
-        <v>0.013072</v>
+      <c r="AD24" s="6">
+        <v>1.3072E-2</v>
       </c>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
-      <c r="AI24" s="5" t="n">
+      <c r="AI24" s="5">
         <v>3</v>
       </c>
-      <c r="AJ24" s="5" t="n">
+      <c r="AJ24" s="5">
         <v>24</v>
       </c>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="5" t="n">
+      <c r="AL24" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>32</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3468,25 +3779,25 @@
         <v>106</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="5">
         <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>115</v>
+      <c r="M25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -3513,26 +3824,26 @@
       <c r="AC25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD25" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD25" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-      <c r="AI25" s="5" t="n">
+      <c r="AI25" s="5">
         <v>3</v>
       </c>
-      <c r="AJ25" s="5" t="n">
+      <c r="AJ25" s="5">
         <v>25</v>
       </c>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="5" t="n">
+      <c r="AL25" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
         <v>33</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3548,25 +3859,25 @@
         <v>106</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="5" t="n">
+      <c r="J26" s="5">
         <v>1</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>118</v>
+      <c r="M26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -3593,26 +3904,26 @@
       <c r="AC26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD26" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD26" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
-      <c r="AI26" s="5" t="n">
+      <c r="AI26" s="5">
         <v>3</v>
       </c>
-      <c r="AJ26" s="5" t="n">
+      <c r="AJ26" s="5">
         <v>26</v>
       </c>
       <c r="AK26" s="8"/>
-      <c r="AL26" s="5" t="n">
+      <c r="AL26" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+    <row r="27" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
         <v>34</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3628,25 +3939,25 @@
         <v>106</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="5">
         <v>1</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>121</v>
+      <c r="M27" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>383</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -3673,26 +3984,26 @@
       <c r="AC27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD27" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD27" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
-      <c r="AI27" s="5" t="n">
+      <c r="AI27" s="5">
         <v>3</v>
       </c>
-      <c r="AJ27" s="5" t="n">
+      <c r="AJ27" s="5">
         <v>27</v>
       </c>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="5" t="n">
+      <c r="AL27" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
         <v>35</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3708,24 +4019,24 @@
         <v>106</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="5" t="n">
+      <c r="J28" s="5">
         <v>1</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" s="5" t="n">
+      <c r="M28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="10">
         <v>5449000152190</v>
       </c>
       <c r="O28" s="5"/>
@@ -3753,26 +4064,26 @@
       <c r="AC28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD28" s="6" t="n">
-        <v>0.003585</v>
+      <c r="AD28" s="6">
+        <v>3.5850000000000001E-3</v>
       </c>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
-      <c r="AI28" s="5" t="n">
+      <c r="AI28" s="5">
         <v>3</v>
       </c>
-      <c r="AJ28" s="5" t="n">
+      <c r="AJ28" s="5">
         <v>653</v>
       </c>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="5" t="n">
+      <c r="AL28" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+    <row r="29" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
         <v>36</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3788,10 +4099,10 @@
         <v>106</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>47</v>
@@ -3800,8 +4111,8 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -3824,21 +4135,21 @@
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
-      <c r="AI29" s="5" t="n">
+      <c r="AI29" s="5">
         <v>2</v>
       </c>
-      <c r="AJ29" s="5" t="n">
+      <c r="AJ29" s="5">
         <v>28</v>
       </c>
       <c r="AK29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL29" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="AL29" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+    <row r="30" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
         <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3854,25 +4165,25 @@
         <v>106</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="5" t="n">
+      <c r="J30" s="5">
         <v>1</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N30" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -3899,26 +4210,26 @@
       <c r="AC30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD30" s="6" t="n">
-        <v>0.013072</v>
+      <c r="AD30" s="6">
+        <v>1.3072E-2</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
-      <c r="AI30" s="5" t="n">
+      <c r="AI30" s="5">
         <v>3</v>
       </c>
-      <c r="AJ30" s="5" t="n">
+      <c r="AJ30" s="5">
         <v>29</v>
       </c>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="5" t="n">
+      <c r="AL30" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+    <row r="31" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
         <v>38</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3934,25 +4245,25 @@
         <v>106</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5" t="n">
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -3979,26 +4290,26 @@
       <c r="AC31" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD31" s="6" t="n">
-        <v>0.01305</v>
+      <c r="AD31" s="6">
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
-      <c r="AI31" s="5" t="n">
+      <c r="AI31" s="5">
         <v>3</v>
       </c>
-      <c r="AJ31" s="5" t="n">
+      <c r="AJ31" s="5">
         <v>30</v>
       </c>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="5" t="n">
+      <c r="AL31" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+    <row r="32" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
         <v>39</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -4014,25 +4325,25 @@
         <v>106</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="5" t="n">
+      <c r="J32" s="5">
         <v>1</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
@@ -4059,26 +4370,26 @@
       <c r="AC32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD32" s="6" t="n">
-        <v>0.01305</v>
+      <c r="AD32" s="6">
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
-      <c r="AI32" s="5" t="n">
+      <c r="AI32" s="5">
         <v>3</v>
       </c>
-      <c r="AJ32" s="5" t="n">
+      <c r="AJ32" s="5">
         <v>32</v>
       </c>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="5" t="n">
+      <c r="AL32" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+    <row r="33" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
         <v>40</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -4094,24 +4405,24 @@
         <v>106</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="5" t="n">
+      <c r="J33" s="5">
         <v>1</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="N33" s="5" t="n">
+      <c r="M33" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N33" s="10">
         <v>5060517888794</v>
       </c>
       <c r="O33" s="5"/>
@@ -4139,26 +4450,26 @@
       <c r="AC33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD33" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD33" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
-      <c r="AI33" s="5" t="n">
+      <c r="AI33" s="5">
         <v>3</v>
       </c>
-      <c r="AJ33" s="5" t="n">
+      <c r="AJ33" s="5">
         <v>34</v>
       </c>
       <c r="AK33" s="8"/>
-      <c r="AL33" s="5" t="n">
+      <c r="AL33" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+    <row r="34" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
         <v>41</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -4174,25 +4485,25 @@
         <v>106</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="5" t="n">
+      <c r="J34" s="5">
         <v>1</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="N34" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -4219,26 +4530,26 @@
       <c r="AC34" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD34" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD34" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
-      <c r="AI34" s="5" t="n">
+      <c r="AI34" s="5">
         <v>3</v>
       </c>
-      <c r="AJ34" s="5" t="n">
+      <c r="AJ34" s="5">
         <v>33</v>
       </c>
       <c r="AK34" s="8"/>
-      <c r="AL34" s="5" t="n">
+      <c r="AL34" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+    <row r="35" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
         <v>42</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -4254,25 +4565,25 @@
         <v>106</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="5">
         <v>1</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N35" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -4299,26 +4610,26 @@
       <c r="AC35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD35" s="6" t="n">
-        <v>0.003585</v>
+      <c r="AD35" s="6">
+        <v>3.5850000000000001E-3</v>
       </c>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
-      <c r="AI35" s="5" t="n">
+      <c r="AI35" s="5">
         <v>3</v>
       </c>
-      <c r="AJ35" s="5" t="n">
+      <c r="AJ35" s="5">
         <v>35</v>
       </c>
       <c r="AK35" s="8"/>
-      <c r="AL35" s="5" t="n">
+      <c r="AL35" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
+    <row r="36" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
         <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -4334,25 +4645,25 @@
         <v>106</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="5" t="n">
+      <c r="J36" s="5">
         <v>1</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="N36" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -4379,26 +4690,26 @@
       <c r="AC36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD36" s="6" t="n">
-        <v>0.003585</v>
+      <c r="AD36" s="6">
+        <v>3.5850000000000001E-3</v>
       </c>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
-      <c r="AI36" s="5" t="n">
+      <c r="AI36" s="5">
         <v>3</v>
       </c>
-      <c r="AJ36" s="5" t="n">
+      <c r="AJ36" s="5">
         <v>31</v>
       </c>
       <c r="AK36" s="8"/>
-      <c r="AL36" s="5" t="n">
+      <c r="AL36" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+    <row r="37" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
         <v>44</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -4414,10 +4725,10 @@
         <v>106</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>47</v>
@@ -4426,8 +4737,8 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -4450,21 +4761,21 @@
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
-      <c r="AI37" s="5" t="n">
+      <c r="AI37" s="5">
         <v>2</v>
       </c>
-      <c r="AJ37" s="5" t="n">
+      <c r="AJ37" s="5">
         <v>36</v>
       </c>
       <c r="AK37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL37" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="AL37" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+    <row r="38" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
         <v>45</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -4480,25 +4791,25 @@
         <v>106</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="5" t="n">
+      <c r="J38" s="5">
         <v>1</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="N38" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -4525,26 +4836,26 @@
       <c r="AC38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD38" s="6" t="n">
-        <v>0.01305</v>
+      <c r="AD38" s="6">
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
-      <c r="AI38" s="5" t="n">
+      <c r="AI38" s="5">
         <v>3</v>
       </c>
-      <c r="AJ38" s="5" t="n">
+      <c r="AJ38" s="5">
         <v>39</v>
       </c>
       <c r="AK38" s="8"/>
-      <c r="AL38" s="5" t="n">
+      <c r="AL38" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
+    <row r="39" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
         <v>46</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4560,25 +4871,25 @@
         <v>106</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="5" t="n">
+      <c r="J39" s="5">
         <v>1</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N39" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -4605,26 +4916,26 @@
       <c r="AC39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD39" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD39" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
-      <c r="AI39" s="5" t="n">
+      <c r="AI39" s="5">
         <v>3</v>
       </c>
-      <c r="AJ39" s="5" t="n">
+      <c r="AJ39" s="5">
         <v>37</v>
       </c>
       <c r="AK39" s="8"/>
-      <c r="AL39" s="5" t="n">
+      <c r="AL39" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
+    <row r="40" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
         <v>47</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -4640,25 +4951,25 @@
         <v>106</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="5" t="n">
+      <c r="J40" s="5">
         <v>1</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="N40" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -4685,26 +4996,26 @@
       <c r="AC40" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD40" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD40" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
-      <c r="AI40" s="5" t="n">
+      <c r="AI40" s="5">
         <v>3</v>
       </c>
-      <c r="AJ40" s="5" t="n">
+      <c r="AJ40" s="5">
         <v>38</v>
       </c>
       <c r="AK40" s="8"/>
-      <c r="AL40" s="5" t="n">
+      <c r="AL40" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
+    <row r="41" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
         <v>48</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4720,25 +5031,25 @@
         <v>106</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="5" t="n">
+      <c r="J41" s="5">
         <v>1</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="N41" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -4765,26 +5076,26 @@
       <c r="AC41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD41" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD41" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
-      <c r="AI41" s="5" t="n">
+      <c r="AI41" s="5">
         <v>3</v>
       </c>
-      <c r="AJ41" s="5" t="n">
+      <c r="AJ41" s="5">
         <v>40</v>
       </c>
       <c r="AK41" s="8"/>
-      <c r="AL41" s="5" t="n">
+      <c r="AL41" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
+    <row r="42" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
         <v>49</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4800,25 +5111,25 @@
         <v>106</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="5" t="n">
+      <c r="J42" s="5">
         <v>1</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="N42" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -4845,26 +5156,26 @@
       <c r="AC42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD42" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD42" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
-      <c r="AI42" s="5" t="n">
+      <c r="AI42" s="5">
         <v>3</v>
       </c>
-      <c r="AJ42" s="5" t="n">
+      <c r="AJ42" s="5">
         <v>41</v>
       </c>
       <c r="AK42" s="8"/>
-      <c r="AL42" s="5" t="n">
+      <c r="AL42" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="n">
+    <row r="43" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
         <v>51</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -4880,10 +5191,10 @@
         <v>106</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>47</v>
@@ -4892,8 +5203,8 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
@@ -4916,21 +5227,21 @@
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
-      <c r="AI43" s="5" t="n">
+      <c r="AI43" s="5">
         <v>2</v>
       </c>
-      <c r="AJ43" s="5" t="n">
+      <c r="AJ43" s="5">
         <v>43</v>
       </c>
       <c r="AK43" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL43" s="5" t="n">
+        <v>165</v>
+      </c>
+      <c r="AL43" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+    <row r="44" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
         <v>52</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -4946,25 +5257,25 @@
         <v>106</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="5" t="n">
+      <c r="J44" s="5">
         <v>1</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="N44" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
@@ -4991,26 +5302,26 @@
       <c r="AC44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="6" t="n">
-        <v>0.01305</v>
+      <c r="AD44" s="6">
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
-      <c r="AI44" s="5" t="n">
+      <c r="AI44" s="5">
         <v>3</v>
       </c>
-      <c r="AJ44" s="5" t="n">
+      <c r="AJ44" s="5">
         <v>44</v>
       </c>
       <c r="AK44" s="8"/>
-      <c r="AL44" s="5" t="n">
+      <c r="AL44" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="n">
+    <row r="45" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
         <v>53</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -5026,25 +5337,25 @@
         <v>106</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I45" s="5"/>
-      <c r="J45" s="5" t="n">
+      <c r="J45" s="5">
         <v>1</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N45" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -5071,26 +5382,26 @@
       <c r="AC45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD45" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD45" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
-      <c r="AI45" s="5" t="n">
+      <c r="AI45" s="5">
         <v>3</v>
       </c>
-      <c r="AJ45" s="5" t="n">
+      <c r="AJ45" s="5">
         <v>45</v>
       </c>
       <c r="AK45" s="8"/>
-      <c r="AL45" s="5" t="n">
+      <c r="AL45" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
+    <row r="46" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
         <v>54</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -5106,25 +5417,25 @@
         <v>106</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I46" s="5"/>
-      <c r="J46" s="5" t="n">
+      <c r="J46" s="5">
         <v>1</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -5151,26 +5462,26 @@
       <c r="AC46" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD46" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD46" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
-      <c r="AI46" s="5" t="n">
+      <c r="AI46" s="5">
         <v>3</v>
       </c>
-      <c r="AJ46" s="5" t="n">
+      <c r="AJ46" s="5">
         <v>46</v>
       </c>
       <c r="AK46" s="8"/>
-      <c r="AL46" s="5" t="n">
+      <c r="AL46" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
+    <row r="47" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
         <v>55</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -5186,25 +5497,25 @@
         <v>106</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I47" s="5"/>
-      <c r="J47" s="5" t="n">
+      <c r="J47" s="5">
         <v>1</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="N47" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -5231,26 +5542,26 @@
       <c r="AC47" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD47" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD47" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
-      <c r="AI47" s="5" t="n">
+      <c r="AI47" s="5">
         <v>3</v>
       </c>
-      <c r="AJ47" s="5" t="n">
+      <c r="AJ47" s="5">
         <v>47</v>
       </c>
       <c r="AK47" s="8"/>
-      <c r="AL47" s="5" t="n">
+      <c r="AL47" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
+    <row r="48" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
         <v>56</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -5266,25 +5577,25 @@
         <v>106</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="5" t="n">
+      <c r="J48" s="5">
         <v>1</v>
       </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="N48" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -5311,26 +5622,26 @@
       <c r="AC48" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD48" s="6" t="n">
-        <v>0.008307</v>
+      <c r="AD48" s="6">
+        <v>8.3070000000000001E-3</v>
       </c>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
-      <c r="AI48" s="5" t="n">
+      <c r="AI48" s="5">
         <v>3</v>
       </c>
-      <c r="AJ48" s="5" t="n">
+      <c r="AJ48" s="5">
         <v>48</v>
       </c>
       <c r="AK48" s="8"/>
-      <c r="AL48" s="5" t="n">
+      <c r="AL48" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="n">
+    <row r="49" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
         <v>57</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -5346,25 +5657,25 @@
         <v>106</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="5" t="n">
+      <c r="J49" s="5">
         <v>1</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N49" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
@@ -5391,26 +5702,26 @@
       <c r="AC49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD49" s="6" t="n">
-        <v>0.003585</v>
+      <c r="AD49" s="6">
+        <v>3.5850000000000001E-3</v>
       </c>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
-      <c r="AI49" s="5" t="n">
+      <c r="AI49" s="5">
         <v>3</v>
       </c>
-      <c r="AJ49" s="5" t="n">
+      <c r="AJ49" s="5">
         <v>104</v>
       </c>
       <c r="AK49" s="8"/>
-      <c r="AL49" s="5" t="n">
+      <c r="AL49" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
+    <row r="50" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5">
         <v>58</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -5426,25 +5737,25 @@
         <v>106</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="5" t="n">
+      <c r="J50" s="5">
         <v>1</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="N50" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -5471,26 +5782,26 @@
       <c r="AC50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD50" s="6" t="n">
-        <v>0.003585</v>
+      <c r="AD50" s="6">
+        <v>3.5850000000000001E-3</v>
       </c>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
-      <c r="AI50" s="5" t="n">
+      <c r="AI50" s="5">
         <v>3</v>
       </c>
-      <c r="AJ50" s="5" t="n">
+      <c r="AJ50" s="5">
         <v>105</v>
       </c>
       <c r="AK50" s="8"/>
-      <c r="AL50" s="5" t="n">
+      <c r="AL50" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="n">
+    <row r="51" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
         <v>59</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -5506,24 +5817,24 @@
         <v>106</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="5" t="n">
+      <c r="J51" s="5">
         <v>1</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="N51" s="5" t="n">
+      <c r="M51" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="N51" s="10">
         <v>4650075423257</v>
       </c>
       <c r="O51" s="5"/>
@@ -5551,26 +5862,26 @@
       <c r="AC51" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD51" s="6" t="n">
-        <v>0.003585</v>
+      <c r="AD51" s="6">
+        <v>3.5850000000000001E-3</v>
       </c>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
-      <c r="AI51" s="5" t="n">
+      <c r="AI51" s="5">
         <v>3</v>
       </c>
-      <c r="AJ51" s="5" t="n">
+      <c r="AJ51" s="5">
         <v>51</v>
       </c>
       <c r="AK51" s="8"/>
-      <c r="AL51" s="5" t="n">
+      <c r="AL51" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
+    <row r="52" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
         <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -5586,25 +5897,25 @@
         <v>106</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I52" s="5"/>
-      <c r="J52" s="5" t="n">
+      <c r="J52" s="5">
         <v>1</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N52" s="10" t="s">
         <v>191</v>
-      </c>
-      <c r="N52" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -5631,26 +5942,26 @@
       <c r="AC52" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD52" s="6" t="n">
-        <v>0.003585</v>
+      <c r="AD52" s="6">
+        <v>3.5850000000000001E-3</v>
       </c>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
-      <c r="AI52" s="5" t="n">
+      <c r="AI52" s="5">
         <v>3</v>
       </c>
-      <c r="AJ52" s="5" t="n">
+      <c r="AJ52" s="5">
         <v>50</v>
       </c>
       <c r="AK52" s="8"/>
-      <c r="AL52" s="5" t="n">
+      <c r="AL52" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="n">
+    <row r="53" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
         <v>61</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -5666,25 +5977,25 @@
         <v>106</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="5" t="n">
+      <c r="J53" s="5">
         <v>1</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="N53" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -5711,26 +6022,26 @@
       <c r="AC53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD53" s="6" t="n">
-        <v>0.003585</v>
+      <c r="AD53" s="6">
+        <v>3.5850000000000001E-3</v>
       </c>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
-      <c r="AI53" s="5" t="n">
+      <c r="AI53" s="5">
         <v>3</v>
       </c>
-      <c r="AJ53" s="5" t="n">
+      <c r="AJ53" s="5">
         <v>52</v>
       </c>
       <c r="AK53" s="8"/>
-      <c r="AL53" s="5" t="n">
+      <c r="AL53" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
+    <row r="54" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
         <v>62</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -5746,24 +6057,24 @@
         <v>106</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I54" s="5"/>
-      <c r="J54" s="5" t="n">
+      <c r="J54" s="5">
         <v>1</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N54" s="5" t="n">
+      <c r="M54" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="N54" s="10">
         <v>4650075423233</v>
       </c>
       <c r="O54" s="5"/>
@@ -5791,26 +6102,26 @@
       <c r="AC54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD54" s="6" t="n">
-        <v>0.003585</v>
+      <c r="AD54" s="6">
+        <v>3.5850000000000001E-3</v>
       </c>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
-      <c r="AI54" s="5" t="n">
+      <c r="AI54" s="5">
         <v>3</v>
       </c>
-      <c r="AJ54" s="5" t="n">
+      <c r="AJ54" s="5">
         <v>53</v>
       </c>
       <c r="AK54" s="8"/>
-      <c r="AL54" s="5" t="n">
+      <c r="AL54" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="n">
+    <row r="55" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
         <v>64</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -5824,10 +6135,10 @@
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>40</v>
@@ -5836,8 +6147,8 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
@@ -5858,19 +6169,19 @@
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
-      <c r="AI55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ55" s="5" t="n">
+      <c r="AI55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="5">
         <v>520</v>
       </c>
       <c r="AK55" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AL55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="n">
+    <row r="56" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
         <v>65</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -5883,45 +6194,45 @@
         <v>40</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="I56" s="5"/>
-      <c r="J56" s="5" t="n">
+      <c r="J56" s="5">
         <v>0.5</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>207</v>
+      <c r="M56" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P56" s="5"/>
       <c r="Q56" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
@@ -5929,36 +6240,36 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD56" s="6">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AE56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH56" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AD56" s="6" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="AE56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG56" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH56" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI56" s="5" t="n">
+      <c r="AI56" s="5">
         <v>2</v>
       </c>
-      <c r="AJ56" s="5" t="n">
+      <c r="AJ56" s="5">
         <v>54</v>
       </c>
       <c r="AK56" s="8"/>
-      <c r="AL56" s="5" t="n">
+      <c r="AL56" s="5">
         <v>520</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="n">
+    <row r="57" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
         <v>66</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -5971,45 +6282,45 @@
         <v>40</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="H57" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I57" s="5"/>
-      <c r="J57" s="5" t="n">
+      <c r="J57" s="5">
         <v>0.3</v>
       </c>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>216</v>
+      <c r="M57" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="W57" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
@@ -6017,36 +6328,36 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD57" s="6">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AE57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH57" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AD57" s="6" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="AE57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG57" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH57" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI57" s="5" t="n">
+      <c r="AI57" s="5">
         <v>2</v>
       </c>
-      <c r="AJ57" s="5" t="n">
+      <c r="AJ57" s="5">
         <v>55</v>
       </c>
       <c r="AK57" s="8"/>
-      <c r="AL57" s="5" t="n">
+      <c r="AL57" s="5">
         <v>520</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
+    <row r="58" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
         <v>67</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -6059,45 +6370,45 @@
         <v>40</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="H58" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I58" s="5"/>
-      <c r="J58" s="5" t="n">
+      <c r="J58" s="5">
         <v>0.25</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>220</v>
+      <c r="M58" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P58" s="5"/>
       <c r="Q58" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
@@ -6105,36 +6416,36 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD58" s="6">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AE58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG58" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH58" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AD58" s="6" t="n">
-        <v>0.0425</v>
-      </c>
-      <c r="AE58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG58" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH58" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI58" s="5" t="n">
+      <c r="AI58" s="5">
         <v>2</v>
       </c>
-      <c r="AJ58" s="5" t="n">
+      <c r="AJ58" s="5">
         <v>56</v>
       </c>
       <c r="AK58" s="8"/>
-      <c r="AL58" s="5" t="n">
+      <c r="AL58" s="5">
         <v>520</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="n">
+    <row r="59" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
         <v>68</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -6148,10 +6459,10 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>40</v>
@@ -6160,8 +6471,8 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -6182,19 +6493,19 @@
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
-      <c r="AI59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ59" s="5" t="n">
+      <c r="AI59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ59" s="5">
         <v>310</v>
       </c>
       <c r="AK59" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
+    <row r="60" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
         <v>69</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -6208,10 +6519,10 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>40</v>
@@ -6220,8 +6531,8 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
@@ -6242,21 +6553,21 @@
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
-      <c r="AI60" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ60" s="5" t="n">
+      <c r="AI60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="5">
         <v>311</v>
       </c>
-      <c r="AK60" s="8" t="n">
+      <c r="AK60" s="8">
         <v>142</v>
       </c>
-      <c r="AL60" s="5" t="n">
+      <c r="AL60" s="5">
         <v>310</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="n">
+    <row r="61" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
         <v>70</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -6269,27 +6580,27 @@
         <v>40</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
@@ -6303,32 +6614,32 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD61" s="6" t="n">
+        <v>208</v>
+      </c>
+      <c r="AD61" s="6">
         <v>0.1275</v>
       </c>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AH61" s="5"/>
-      <c r="AI61" s="5" t="n">
+      <c r="AI61" s="5">
         <v>2</v>
       </c>
-      <c r="AJ61" s="5" t="n">
+      <c r="AJ61" s="5">
         <v>62</v>
       </c>
       <c r="AK61" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AL61" s="5" t="n">
+        <v>230</v>
+      </c>
+      <c r="AL61" s="5">
         <v>311</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="n">
+    <row r="62" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
         <v>71</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -6341,41 +6652,41 @@
         <v>40</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G62" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="I62" s="5"/>
-      <c r="J62" s="5" t="n">
+      <c r="J62" s="5">
         <v>0.5</v>
       </c>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>236</v>
+      <c r="M62" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
@@ -6389,22 +6700,22 @@
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AH62" s="5"/>
-      <c r="AI62" s="5" t="n">
+      <c r="AI62" s="5">
         <v>3</v>
       </c>
-      <c r="AJ62" s="5" t="n">
+      <c r="AJ62" s="5">
         <v>63</v>
       </c>
       <c r="AK62" s="8"/>
-      <c r="AL62" s="5" t="n">
+      <c r="AL62" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="n">
+    <row r="63" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
         <v>72</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -6417,41 +6728,41 @@
         <v>40</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F63" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="G63" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="I63" s="5"/>
-      <c r="J63" s="5" t="n">
+      <c r="J63" s="5">
         <v>0.01</v>
       </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>236</v>
+      <c r="M63" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="W63" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
@@ -6466,19 +6777,19 @@
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
-      <c r="AI63" s="5" t="n">
+      <c r="AI63" s="5">
         <v>3</v>
       </c>
-      <c r="AJ63" s="5" t="n">
+      <c r="AJ63" s="5">
         <v>64</v>
       </c>
       <c r="AK63" s="8"/>
-      <c r="AL63" s="5" t="n">
+      <c r="AL63" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
+    <row r="64" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
         <v>73</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -6492,10 +6803,10 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>40</v>
@@ -6504,8 +6815,8 @@
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
@@ -6526,21 +6837,21 @@
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
-      <c r="AI64" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ64" s="5" t="n">
+      <c r="AI64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="5">
         <v>312</v>
       </c>
       <c r="AK64" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="AL64" s="5" t="n">
+        <v>244</v>
+      </c>
+      <c r="AL64" s="5">
         <v>310</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="n">
+    <row r="65" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
         <v>74</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -6553,32 +6864,32 @@
         <v>40</v>
       </c>
       <c r="E65" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G65" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="5" t="n">
+      <c r="J65" s="5">
         <v>1</v>
       </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5" t="s">
-        <v>251</v>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
@@ -6586,7 +6897,7 @@
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
       <c r="X65" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
@@ -6595,30 +6906,30 @@
       <c r="AC65" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD65" s="6" t="n">
-        <v>0.0425</v>
+      <c r="AD65" s="6">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AH65" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI65" s="5" t="n">
+        <v>231</v>
+      </c>
+      <c r="AI65" s="5">
         <v>2</v>
       </c>
-      <c r="AJ65" s="5" t="n">
+      <c r="AJ65" s="5">
         <v>65</v>
       </c>
       <c r="AK65" s="8"/>
-      <c r="AL65" s="5" t="n">
+      <c r="AL65" s="5">
         <v>312</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="n">
+    <row r="66" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
         <v>75</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -6631,41 +6942,41 @@
         <v>40</v>
       </c>
       <c r="E66" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G66" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="I66" s="5"/>
-      <c r="J66" s="5" t="n">
+      <c r="J66" s="5">
         <v>1</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N66" s="5" t="s">
-        <v>236</v>
+      <c r="M66" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
       <c r="W66" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
@@ -6673,32 +6984,32 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD66" s="6" t="n">
-        <v>0.0425</v>
+        <v>208</v>
+      </c>
+      <c r="AD66" s="6">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH66" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI66" s="5" t="n">
+        <v>231</v>
+      </c>
+      <c r="AI66" s="5">
         <v>2</v>
       </c>
-      <c r="AJ66" s="5" t="n">
+      <c r="AJ66" s="5">
         <v>66</v>
       </c>
       <c r="AK66" s="8"/>
-      <c r="AL66" s="5" t="n">
+      <c r="AL66" s="5">
         <v>312</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="n">
+    <row r="67" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
         <v>76</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -6711,43 +7022,43 @@
         <v>40</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F67" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" s="5" t="n">
+      <c r="K67" s="5">
+        <v>1</v>
+      </c>
+      <c r="L67" s="5">
         <v>15</v>
       </c>
-      <c r="M67" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>236</v>
+      <c r="M67" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
       <c r="W67" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
@@ -6757,30 +7068,30 @@
       <c r="AC67" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD67" s="6" t="n">
-        <v>0.0425</v>
+      <c r="AD67" s="6">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH67" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI67" s="5" t="n">
+        <v>231</v>
+      </c>
+      <c r="AI67" s="5">
         <v>2</v>
       </c>
-      <c r="AJ67" s="5" t="n">
+      <c r="AJ67" s="5">
         <v>67</v>
       </c>
       <c r="AK67" s="8"/>
-      <c r="AL67" s="5" t="n">
+      <c r="AL67" s="5">
         <v>312</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="n">
+    <row r="68" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
         <v>77</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -6794,10 +7105,10 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>40</v>
@@ -6806,8 +7117,8 @@
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
@@ -6828,19 +7139,19 @@
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
-      <c r="AI68" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ68" s="5" t="n">
+      <c r="AI68" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ68" s="5">
         <v>400</v>
       </c>
       <c r="AK68" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AL68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="n">
+    <row r="69" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
         <v>78</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -6854,22 +7165,22 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="I69" s="5"/>
-      <c r="J69" s="5" t="n">
+      <c r="J69" s="5">
         <v>1</v>
       </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5" t="s">
@@ -6889,28 +7200,28 @@
       <c r="AC69" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD69" s="6" t="n">
-        <v>0.0425</v>
+      <c r="AD69" s="6">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
-      <c r="AI69" s="5" t="n">
+      <c r="AI69" s="5">
         <v>2</v>
       </c>
-      <c r="AJ69" s="5" t="n">
+      <c r="AJ69" s="5">
         <v>130</v>
       </c>
-      <c r="AK69" s="8" t="n">
+      <c r="AK69" s="8">
         <v>57</v>
       </c>
-      <c r="AL69" s="5" t="n">
+      <c r="AL69" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="n">
+    <row r="70" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
         <v>79</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -6924,43 +7235,43 @@
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I70" s="5"/>
-      <c r="J70" s="5" t="n">
+      <c r="J70" s="5">
         <v>4</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>270</v>
+      <c r="M70" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="O70" s="5"/>
       <c r="P70" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q70" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="9" t="s">
-        <v>272</v>
+      <c r="X70" s="10" t="s">
+        <v>270</v>
       </c>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
@@ -6974,19 +7285,19 @@
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
-      <c r="AI70" s="5" t="n">
+      <c r="AI70" s="5">
         <v>3</v>
       </c>
-      <c r="AJ70" s="5" t="n">
+      <c r="AJ70" s="5">
         <v>57</v>
       </c>
       <c r="AK70" s="8"/>
-      <c r="AL70" s="5" t="n">
+      <c r="AL70" s="5">
         <v>130</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="n">
+    <row r="71" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
         <v>83</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -6999,29 +7310,29 @@
         <v>40</v>
       </c>
       <c r="E71" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="H71" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I71" s="5"/>
-      <c r="J71" s="5" t="n">
+      <c r="J71" s="5">
         <v>1</v>
       </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
       <c r="Q71" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
@@ -7030,7 +7341,7 @@
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
@@ -7039,28 +7350,28 @@
       <c r="AC71" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD71" s="6" t="n">
-        <v>0.025</v>
+      <c r="AD71" s="14">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
-      <c r="AI71" s="5" t="n">
+      <c r="AI71" s="5">
         <v>2</v>
       </c>
-      <c r="AJ71" s="5" t="n">
+      <c r="AJ71" s="5">
         <v>68</v>
       </c>
-      <c r="AK71" s="8" t="n">
+      <c r="AK71" s="8">
         <v>69</v>
       </c>
-      <c r="AL71" s="5" t="n">
+      <c r="AL71" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
+    <row r="72" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
         <v>84</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -7073,29 +7384,29 @@
         <v>40</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="H72" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="I72" s="5"/>
-      <c r="J72" s="5" t="n">
+      <c r="J72" s="5">
         <v>2</v>
       </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
       <c r="Q72" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
@@ -7104,7 +7415,7 @@
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
@@ -7113,26 +7424,26 @@
       <c r="AC72" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD72" s="6"/>
+      <c r="AD72" s="14"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
-      <c r="AI72" s="5" t="n">
+      <c r="AI72" s="5">
         <v>3</v>
       </c>
-      <c r="AJ72" s="5" t="n">
+      <c r="AJ72" s="5">
         <v>69</v>
       </c>
       <c r="AK72" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL72" s="5" t="n">
+        <v>280</v>
+      </c>
+      <c r="AL72" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="n">
+    <row r="73" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
         <v>85</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -7145,31 +7456,31 @@
         <v>40</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I73" s="5"/>
-      <c r="J73" s="5" t="n">
+      <c r="J73" s="5">
         <v>1</v>
       </c>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="9" t="s">
+      <c r="M73" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="O73" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="N73" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="O73" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="P73" s="5"/>
       <c r="Q73" s="5" t="s">
@@ -7184,7 +7495,7 @@
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
@@ -7193,24 +7504,24 @@
       <c r="AC73" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD73" s="6"/>
+      <c r="AD73" s="14"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
-      <c r="AI73" s="5" t="n">
+      <c r="AI73" s="5">
         <v>4</v>
       </c>
-      <c r="AJ73" s="5" t="n">
+      <c r="AJ73" s="5">
         <v>70</v>
       </c>
       <c r="AK73" s="8"/>
-      <c r="AL73" s="5" t="n">
+      <c r="AL73" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="n">
+    <row r="74" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
         <v>86</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -7223,28 +7534,28 @@
         <v>40</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F74" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="I74" s="5"/>
-      <c r="J74" s="5" t="n">
+      <c r="J74" s="5">
         <v>1</v>
       </c>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>292</v>
+      <c r="M74" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -7260,7 +7571,7 @@
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
@@ -7269,24 +7580,24 @@
       <c r="AC74" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD74" s="6"/>
+      <c r="AD74" s="14"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
-      <c r="AI74" s="5" t="n">
+      <c r="AI74" s="5">
         <v>4</v>
       </c>
-      <c r="AJ74" s="5" t="n">
+      <c r="AJ74" s="5">
         <v>71</v>
       </c>
       <c r="AK74" s="8"/>
-      <c r="AL74" s="5" t="n">
+      <c r="AL74" s="5">
         <v>69</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="n">
+    <row r="75" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
         <v>87</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -7299,29 +7610,29 @@
         <v>40</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I75" s="5"/>
-      <c r="J75" s="5" t="n">
+      <c r="J75" s="5">
         <v>1</v>
       </c>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
@@ -7330,7 +7641,7 @@
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
@@ -7339,28 +7650,28 @@
       <c r="AC75" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD75" s="6" t="n">
-        <v>0.0175</v>
+      <c r="AD75" s="14">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
-      <c r="AI75" s="5" t="n">
+      <c r="AI75" s="5">
         <v>2</v>
       </c>
-      <c r="AJ75" s="5" t="n">
+      <c r="AJ75" s="5">
         <v>680</v>
       </c>
       <c r="AK75" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="AL75" s="5" t="n">
+        <v>293</v>
+      </c>
+      <c r="AL75" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
+    <row r="76" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
         <v>88</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -7373,29 +7684,29 @@
         <v>40</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I76" s="5"/>
-      <c r="J76" s="5" t="n">
+      <c r="J76" s="5">
         <v>2</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
@@ -7404,7 +7715,7 @@
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
@@ -7413,26 +7724,26 @@
       <c r="AC76" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD76" s="6"/>
+      <c r="AD76" s="14"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
-      <c r="AI76" s="5" t="n">
+      <c r="AI76" s="5">
         <v>3</v>
       </c>
-      <c r="AJ76" s="5" t="n">
+      <c r="AJ76" s="5">
         <v>72</v>
       </c>
       <c r="AK76" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="AL76" s="5" t="n">
+        <v>296</v>
+      </c>
+      <c r="AL76" s="5">
         <v>680</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
+    <row r="77" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
         <v>89</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -7445,38 +7756,38 @@
         <v>40</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I77" s="5"/>
-      <c r="J77" s="5" t="n">
+      <c r="J77" s="5">
         <v>1</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5" t="s">
-        <v>301</v>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q77" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
@@ -7484,7 +7795,7 @@
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
@@ -7498,19 +7809,19 @@
       <c r="AF77" s="5"/>
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
-      <c r="AI77" s="5" t="n">
+      <c r="AI77" s="5">
         <v>4</v>
       </c>
-      <c r="AJ77" s="5" t="n">
+      <c r="AJ77" s="5">
         <v>73</v>
       </c>
       <c r="AK77" s="8"/>
-      <c r="AL77" s="5" t="n">
+      <c r="AL77" s="5">
         <v>72</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
+    <row r="78" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
         <v>90</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -7523,28 +7834,28 @@
         <v>40</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I78" s="5"/>
-      <c r="J78" s="5" t="n">
+      <c r="J78" s="5">
         <v>1</v>
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>307</v>
+      <c r="M78" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="N78" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
@@ -7559,7 +7870,7 @@
       <c r="U78" s="5"/>
       <c r="V78" s="5"/>
       <c r="W78" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
@@ -7574,19 +7885,19 @@
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
-      <c r="AI78" s="5" t="n">
+      <c r="AI78" s="5">
         <v>4</v>
       </c>
-      <c r="AJ78" s="5" t="n">
+      <c r="AJ78" s="5">
         <v>74</v>
       </c>
       <c r="AK78" s="8"/>
-      <c r="AL78" s="5" t="n">
+      <c r="AL78" s="5">
         <v>72</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="n">
+    <row r="79" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
         <v>91</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -7599,29 +7910,29 @@
         <v>40</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I79" s="5"/>
-      <c r="J79" s="5" t="n">
+      <c r="J79" s="5">
         <v>2</v>
       </c>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
@@ -7630,7 +7941,7 @@
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
@@ -7644,21 +7955,21 @@
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
-      <c r="AI79" s="5" t="n">
+      <c r="AI79" s="5">
         <v>3</v>
       </c>
-      <c r="AJ79" s="5" t="n">
+      <c r="AJ79" s="5">
         <v>769</v>
       </c>
       <c r="AK79" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="AL79" s="5" t="n">
+        <v>309</v>
+      </c>
+      <c r="AL79" s="5">
         <v>680</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
+    <row r="80" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
         <v>92</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -7671,40 +7982,40 @@
         <v>40</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I80" s="5"/>
-      <c r="J80" s="5" t="n">
+      <c r="J80" s="5">
         <v>1</v>
       </c>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>314</v>
+      <c r="M80" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q80" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
@@ -7712,7 +8023,7 @@
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
@@ -7726,19 +8037,19 @@
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
-      <c r="AI80" s="5" t="n">
+      <c r="AI80" s="5">
         <v>4</v>
       </c>
-      <c r="AJ80" s="5" t="n">
+      <c r="AJ80" s="5">
         <v>770</v>
       </c>
       <c r="AK80" s="8"/>
-      <c r="AL80" s="5" t="n">
+      <c r="AL80" s="5">
         <v>769</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="n">
+    <row r="81" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
         <v>93</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -7751,28 +8062,28 @@
         <v>40</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I81" s="5"/>
-      <c r="J81" s="5" t="n">
+      <c r="J81" s="5">
         <v>1</v>
       </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>292</v>
+      <c r="M81" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>290</v>
       </c>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
@@ -7788,7 +8099,7 @@
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
@@ -7802,19 +8113,19 @@
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
-      <c r="AI81" s="5" t="n">
+      <c r="AI81" s="5">
         <v>4</v>
       </c>
-      <c r="AJ81" s="5" t="n">
+      <c r="AJ81" s="5">
         <v>771</v>
       </c>
       <c r="AK81" s="8"/>
-      <c r="AL81" s="5" t="n">
+      <c r="AL81" s="5">
         <v>769</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="n">
+    <row r="82" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
         <v>94</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -7827,40 +8138,40 @@
         <v>40</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I82" s="5"/>
-      <c r="J82" s="5" t="n">
+      <c r="J82" s="5">
         <v>8</v>
       </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="N82" s="5" t="s">
-        <v>320</v>
+      <c r="M82" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="N82" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="O82" s="5"/>
       <c r="P82" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q82" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R82" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="S82" s="5" t="n">
+        <v>269</v>
+      </c>
+      <c r="S82" s="5">
         <v>0.5</v>
       </c>
       <c r="T82" s="5"/>
@@ -7868,7 +8179,7 @@
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
@@ -7877,26 +8188,26 @@
       <c r="AC82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AD82" s="6" t="n">
+      <c r="AD82" s="6">
         <v>0.03</v>
       </c>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
-      <c r="AI82" s="5" t="n">
+      <c r="AI82" s="5">
         <v>2</v>
       </c>
-      <c r="AJ82" s="5" t="n">
+      <c r="AJ82" s="5">
         <v>820</v>
       </c>
       <c r="AK82" s="8"/>
-      <c r="AL82" s="5" t="n">
+      <c r="AL82" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="n">
+    <row r="83" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
         <v>95</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -7910,10 +8221,10 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>40</v>
@@ -7922,8 +8233,8 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
@@ -7944,72 +8255,72 @@
       <c r="AF83" s="5"/>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
-      <c r="AI83" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ83" s="5" t="n">
+      <c r="AI83" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ83" s="5">
         <v>330</v>
       </c>
       <c r="AK83" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AL83" s="5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>96</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="AL83" s="5" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="H84" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I84" s="5"/>
-      <c r="J84" s="5" t="n">
+      <c r="J84" s="5">
         <v>0.5</v>
       </c>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N84" s="5" t="s">
-        <v>207</v>
+      <c r="M84" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N84" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P84" s="5"/>
       <c r="Q84" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
       <c r="W84" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
@@ -8017,87 +8328,87 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD84" s="6" t="n">
+        <v>208</v>
+      </c>
+      <c r="AD84" s="6">
         <v>0.02</v>
       </c>
-      <c r="AE84" s="5" t="n">
+      <c r="AE84" s="5">
         <v>0</v>
       </c>
-      <c r="AF84" s="5" t="n">
+      <c r="AF84" s="5">
         <v>1</v>
       </c>
       <c r="AG84" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH84" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI84" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ84" s="5">
+        <v>75</v>
+      </c>
+      <c r="AK84" s="8"/>
+      <c r="AL84" s="5">
         <v>330</v>
       </c>
-      <c r="AH84" s="5" t="s">
+    </row>
+    <row r="85" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>97</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="AI84" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ84" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK84" s="8"/>
-      <c r="AL84" s="5" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="n">
-        <v>97</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E85" s="5" t="s">
+      <c r="G85" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="H85" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I85" s="5"/>
-      <c r="J85" s="5" t="n">
+      <c r="J85" s="5">
         <v>0.3</v>
       </c>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N85" s="5" t="s">
-        <v>216</v>
+      <c r="M85" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P85" s="5"/>
       <c r="Q85" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
       <c r="W85" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
@@ -8105,36 +8416,36 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD85" s="6" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AE85" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="AD85" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AE85" s="5">
         <v>0</v>
       </c>
-      <c r="AF85" s="5" t="n">
+      <c r="AF85" s="5">
         <v>1</v>
       </c>
       <c r="AG85" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH85" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI85" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ85" s="5">
+        <v>76</v>
+      </c>
+      <c r="AK85" s="8"/>
+      <c r="AL85" s="5">
         <v>330</v>
       </c>
-      <c r="AH85" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="AI85" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ85" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="AK85" s="8"/>
-      <c r="AL85" s="5" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
+    </row>
+    <row r="86" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
         <v>98</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -8144,48 +8455,48 @@
         <v>39</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>337</v>
-      </c>
       <c r="H86" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I86" s="5"/>
-      <c r="J86" s="5" t="n">
+      <c r="J86" s="5">
         <v>0.25</v>
       </c>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>220</v>
+      <c r="M86" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N86" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P86" s="5"/>
       <c r="Q86" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
@@ -8193,36 +8504,36 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD86" s="6" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="AE86" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="AD86" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AE86" s="5">
         <v>0</v>
       </c>
-      <c r="AF86" s="5" t="n">
+      <c r="AF86" s="5">
         <v>1</v>
       </c>
       <c r="AG86" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH86" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI86" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ86" s="5">
+        <v>77</v>
+      </c>
+      <c r="AK86" s="8"/>
+      <c r="AL86" s="5">
         <v>330</v>
       </c>
-      <c r="AH86" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="AI86" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ86" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="AK86" s="8"/>
-      <c r="AL86" s="5" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="n">
+    </row>
+    <row r="87" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
         <v>99</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -8232,48 +8543,48 @@
         <v>39</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I87" s="5"/>
-      <c r="J87" s="5" t="n">
+      <c r="J87" s="5">
         <v>0.4</v>
       </c>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>340</v>
+      <c r="M87" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
@@ -8281,36 +8592,36 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD87" s="6" t="n">
+        <v>208</v>
+      </c>
+      <c r="AD87" s="6">
         <v>0.02</v>
       </c>
-      <c r="AE87" s="5" t="n">
+      <c r="AE87" s="5">
         <v>0</v>
       </c>
-      <c r="AF87" s="5" t="n">
+      <c r="AF87" s="5">
         <v>1</v>
       </c>
       <c r="AG87" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH87" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI87" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ87" s="5">
+        <v>777</v>
+      </c>
+      <c r="AK87" s="8"/>
+      <c r="AL87" s="5">
         <v>330</v>
       </c>
-      <c r="AH87" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="AI87" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ87" s="5" t="n">
-        <v>777</v>
-      </c>
-      <c r="AK87" s="8"/>
-      <c r="AL87" s="5" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="n">
+    </row>
+    <row r="88" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
         <v>100</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -8320,48 +8631,48 @@
         <v>39</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I88" s="5"/>
-      <c r="J88" s="5" t="n">
+      <c r="J88" s="5">
         <v>0.3</v>
       </c>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="N88" s="5" t="s">
-        <v>343</v>
+      <c r="M88" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N88" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="P88" s="5"/>
       <c r="Q88" s="5" t="s">
         <v>53</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
@@ -8369,36 +8680,36 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD88" s="6" t="n">
+        <v>208</v>
+      </c>
+      <c r="AD88" s="6">
         <v>0.03</v>
       </c>
-      <c r="AE88" s="5" t="n">
+      <c r="AE88" s="5">
         <v>0</v>
       </c>
-      <c r="AF88" s="5" t="n">
+      <c r="AF88" s="5">
         <v>1</v>
       </c>
       <c r="AG88" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH88" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI88" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ88" s="5">
+        <v>778</v>
+      </c>
+      <c r="AK88" s="8"/>
+      <c r="AL88" s="5">
         <v>330</v>
       </c>
-      <c r="AH88" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="AI88" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ88" s="5" t="n">
-        <v>778</v>
-      </c>
-      <c r="AK88" s="8"/>
-      <c r="AL88" s="5" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="n">
+    </row>
+    <row r="89" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
         <v>101</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -8408,33 +8719,33 @@
         <v>39</v>
       </c>
       <c r="D89" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F89" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>346</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
       <c r="O89" s="5"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
@@ -8453,54 +8764,54 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
       <c r="AI89" s="5"/>
-      <c r="AJ89" s="5" t="n">
+      <c r="AJ89" s="5">
         <v>78</v>
       </c>
       <c r="AK89" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL89" s="5"/>
+    </row>
+    <row r="90" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>102</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F90" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="AL89" s="5"/>
-    </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="n">
-        <v>102</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E90" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="H90" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="I90" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="10" t="s">
-        <v>356</v>
+      <c r="M90" s="10"/>
+      <c r="N90" s="11" t="s">
+        <v>354</v>
       </c>
       <c r="O90" s="5"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
@@ -8519,16 +8830,16 @@
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
-      <c r="AJ90" s="5" t="n">
+      <c r="AJ90" s="5">
         <v>79</v>
       </c>
-      <c r="AK90" s="8" t="n">
+      <c r="AK90" s="8">
         <v>68</v>
       </c>
       <c r="AL90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="n">
+    <row r="91" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
         <v>103</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -8538,35 +8849,35 @@
         <v>39</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E91" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="10" t="s">
-        <v>357</v>
+      <c r="M91" s="10"/>
+      <c r="N91" s="11" t="s">
+        <v>355</v>
       </c>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
@@ -8585,16 +8896,16 @@
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
       <c r="AI91" s="5"/>
-      <c r="AJ91" s="5" t="n">
+      <c r="AJ91" s="5">
         <v>80</v>
       </c>
-      <c r="AK91" s="8" t="n">
+      <c r="AK91" s="8">
         <v>130</v>
       </c>
       <c r="AL91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="n">
+    <row r="92" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
         <v>104</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -8604,33 +8915,33 @@
         <v>39</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
@@ -8649,16 +8960,16 @@
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
       <c r="AI92" s="5"/>
-      <c r="AJ92" s="5" t="n">
+      <c r="AJ92" s="5">
         <v>82</v>
       </c>
-      <c r="AK92" s="8" t="n">
+      <c r="AK92" s="8">
         <v>76</v>
       </c>
       <c r="AL92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="n">
+    <row r="93" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
         <v>105</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -8668,33 +8979,33 @@
         <v>39</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
@@ -8713,16 +9024,16 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
       <c r="AI93" s="5"/>
-      <c r="AJ93" s="5" t="n">
+      <c r="AJ93" s="5">
         <v>83</v>
       </c>
-      <c r="AK93" s="8" t="n">
+      <c r="AK93" s="8">
         <v>77</v>
       </c>
       <c r="AL93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="n">
+    <row r="94" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
         <v>106</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -8732,33 +9043,33 @@
         <v>39</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
@@ -8777,16 +9088,16 @@
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
       <c r="AI94" s="5"/>
-      <c r="AJ94" s="5" t="n">
+      <c r="AJ94" s="5">
         <v>84</v>
       </c>
-      <c r="AK94" s="8" t="n">
+      <c r="AK94" s="8">
         <v>75</v>
       </c>
       <c r="AL94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="n">
+    <row r="95" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
         <v>107</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -8796,37 +9107,37 @@
         <v>39</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="N95" s="10" t="s">
-        <v>365</v>
+      <c r="M95" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>363</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
@@ -8845,61 +9156,61 @@
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
-      <c r="AJ95" s="5" t="n">
+      <c r="AJ95" s="5">
         <v>85</v>
       </c>
       <c r="AK95" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL95" s="5"/>
+    </row>
+    <row r="96" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>108</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="AL95" s="5"/>
-    </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="n">
-        <v>108</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E96" s="5" t="s">
+      <c r="G96" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G96" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="I96" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5" t="s">
-        <v>371</v>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S96" s="5"/>
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
       <c r="V96" s="5"/>
       <c r="W96" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
@@ -8913,14 +9224,14 @@
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
       <c r="AI96" s="5"/>
-      <c r="AJ96" s="5" t="n">
+      <c r="AJ96" s="5">
         <v>86</v>
       </c>
       <c r="AK96" s="8"/>
       <c r="AL96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="n">
+    <row r="97" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
         <v>109</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -8930,31 +9241,31 @@
         <v>39</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I97" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I97" s="5" t="s">
-        <v>375</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S97" s="5"/>
       <c r="T97" s="5"/>
@@ -8973,94 +9284,78 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
-      <c r="AJ97" s="5" t="n">
+      <c r="AJ97" s="5">
         <v>521</v>
       </c>
       <c r="AK97" s="8"/>
       <c r="AL97" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL97"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:AL97" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col min="1" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>376</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="L1" t="s">
         <v>377</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" t="s">
         <v>378</v>
       </c>
-      <c r="L1" s="0" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>379</v>
       </c>
-      <c r="M1" s="0" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>381</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8754A51-22A4-48A5-BC12-1924E4996706}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC59AB-550C-4687-AB10-326267C55A04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Petrol!$A$1:$AL$97</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4972" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4972" uniqueCount="389">
   <si>
     <t>Sorting</t>
   </si>
@@ -1286,9 +1286,6 @@
   </si>
   <si>
     <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,6 +1399,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1789,8 +1789,8 @@
   <dimension ref="A1:AMK97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H75" sqref="H75"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -6364,8 +6364,8 @@
         <v>213</v>
       </c>
       <c r="I58" s="6"/>
-      <c r="J58" s="6">
-        <v>0.25</v>
+      <c r="J58" s="12">
+        <v>0.2</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -7301,7 +7301,7 @@
         <v>283</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6">
@@ -7524,7 +7524,7 @@
       <c r="G74" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I74" s="6"/>
@@ -7601,7 +7601,7 @@
         <v>300</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6">
@@ -8052,7 +8052,7 @@
       <c r="G81" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I81" s="6"/>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC59AB-550C-4687-AB10-326267C55A04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB50630-C5D3-493A-8C91-3AD03C29EA1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4972" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5587" uniqueCount="390">
   <si>
     <t>Sorting</t>
   </si>
@@ -1286,6 +1286,9 @@
   </si>
   <si>
     <t>number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>number of atomic KPI Passed on the same scene</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1403,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1789,8 +1792,8 @@
   <dimension ref="A1:AMK97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6276,7 +6279,7 @@
         <v>213</v>
       </c>
       <c r="I57" s="6"/>
-      <c r="J57" s="6">
+      <c r="J57" s="11">
         <v>0.15</v>
       </c>
       <c r="K57" s="6"/>
@@ -7300,8 +7303,8 @@
       <c r="G71" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>275</v>
+      <c r="H71" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6">
@@ -7600,8 +7603,8 @@
       <c r="G75" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>275</v>
+      <c r="H75" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6">
@@ -8364,7 +8367,7 @@
         <v>213</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="6">
+      <c r="J85" s="11">
         <v>0.15</v>
       </c>
       <c r="K85" s="6"/>
@@ -8452,7 +8455,7 @@
         <v>213</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="6">
+      <c r="J86" s="11">
         <v>0.2</v>
       </c>
       <c r="K86" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_20190815_1845\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB50630-C5D3-493A-8C91-3AD03C29EA1B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC59AB-550C-4687-AB10-326267C55A04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5587" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4972" uniqueCount="389">
   <si>
     <t>Sorting</t>
   </si>
@@ -1286,9 +1286,6 @@
   </si>
   <si>
     <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1400,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1792,8 +1789,8 @@
   <dimension ref="A1:AMK97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J56" sqref="J56"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6279,7 +6276,7 @@
         <v>213</v>
       </c>
       <c r="I57" s="6"/>
-      <c r="J57" s="11">
+      <c r="J57" s="6">
         <v>0.15</v>
       </c>
       <c r="K57" s="6"/>
@@ -7303,8 +7300,8 @@
       <c r="G71" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>389</v>
+      <c r="H71" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6">
@@ -7603,8 +7600,8 @@
       <c r="G75" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>389</v>
+      <c r="H75" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6">
@@ -8367,7 +8364,7 @@
         <v>213</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="11">
+      <c r="J85" s="6">
         <v>0.15</v>
       </c>
       <c r="K85" s="6"/>
@@ -8455,7 +8452,7 @@
         <v>213</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="11">
+      <c r="J86" s="6">
         <v>0.2</v>
       </c>
       <c r="K86" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2185C313-E3F5-419F-81B2-74BDCCA61079}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2283F8C-20C1-49A3-97AE-47DDCE507CE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="392">
   <si>
     <t>Sorting</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -1279,12 +1276,6 @@
     <t>Will be added on the 16th of December</t>
   </si>
   <si>
-    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone</t>
-  </si>
-  <si>
-    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board, SS_Café Activation, SS_Cash Zone</t>
-  </si>
-  <si>
     <t>Displays, SS_Displays</t>
   </si>
   <si>
@@ -1292,6 +1283,18 @@
   </si>
   <si>
     <t>5449000251626, 5449000251619</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler</t>
+  </si>
+  <si>
+    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
   </si>
 </sst>
 </file>
@@ -1794,9 +1797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20:N20"/>
+      <selection pane="bottomLeft" activeCell="X79" sqref="X79:X81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2138,13 +2141,13 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD4" s="7">
         <v>1.4194E-2</v>
@@ -2181,10 +2184,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>51</v>
@@ -2196,10 +2199,10 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -2218,13 +2221,13 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD5" s="7">
         <v>1.4194E-2</v>
@@ -2261,10 +2264,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>51</v>
@@ -2276,10 +2279,10 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -2298,13 +2301,13 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="7">
         <v>1.4194E-2</v>
@@ -2341,10 +2344,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>51</v>
@@ -2356,10 +2359,10 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -2378,13 +2381,13 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD7" s="7">
         <v>1.4194E-2</v>
@@ -2421,10 +2424,10 @@
         <v>44</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>51</v>
@@ -2436,10 +2439,10 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -2458,13 +2461,13 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD8" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2501,10 +2504,10 @@
         <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>51</v>
@@ -2516,10 +2519,10 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2538,13 +2541,13 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD9" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2581,10 +2584,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>51</v>
@@ -2596,7 +2599,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N10" s="6">
         <v>42099697</v>
@@ -2618,13 +2621,13 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD10" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2661,10 +2664,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>51</v>
@@ -2676,10 +2679,10 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -2698,13 +2701,13 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD11" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2741,10 +2744,10 @@
         <v>44</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>51</v>
@@ -2756,10 +2759,10 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2778,13 +2781,13 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD12" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2821,10 +2824,10 @@
         <v>44</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>51</v>
@@ -2836,10 +2839,10 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2858,13 +2861,13 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD13" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2901,10 +2904,10 @@
         <v>44</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>51</v>
@@ -2916,10 +2919,10 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2938,13 +2941,13 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD14" s="7">
         <v>8.8999999999999999E-3</v>
@@ -2981,10 +2984,10 @@
         <v>44</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>51</v>
@@ -2996,10 +2999,10 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -3018,13 +3021,13 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD15" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3061,10 +3064,10 @@
         <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>51</v>
@@ -3076,10 +3079,10 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -3098,13 +3101,13 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD16" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3141,10 +3144,10 @@
         <v>44</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>51</v>
@@ -3156,10 +3159,10 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -3178,13 +3181,13 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3221,10 +3224,10 @@
         <v>44</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>51</v>
@@ -3236,10 +3239,10 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -3258,13 +3261,13 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD18" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3301,10 +3304,10 @@
         <v>44</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>51</v>
@@ -3316,10 +3319,10 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -3338,13 +3341,13 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD19" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3381,10 +3384,10 @@
         <v>44</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>51</v>
@@ -3396,10 +3399,10 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -3418,13 +3421,13 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD20" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3461,10 +3464,10 @@
         <v>44</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>51</v>
@@ -3476,7 +3479,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N21" s="6">
         <v>5449000253101</v>
@@ -3498,13 +3501,13 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD21" s="7">
         <v>5.6049999999999997E-3</v>
@@ -3541,10 +3544,10 @@
         <v>44</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>51</v>
@@ -3556,7 +3559,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N22" s="6">
         <v>5449000046390</v>
@@ -3578,13 +3581,13 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD22" s="7">
         <v>5.5890000000000002E-3</v>
@@ -3618,13 +3621,13 @@
         <v>40</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>47</v>
@@ -3664,7 +3667,7 @@
         <v>23</v>
       </c>
       <c r="AK23" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL23" s="6">
         <v>300</v>
@@ -3684,13 +3687,13 @@
         <v>40</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>51</v>
@@ -3702,10 +3705,10 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -3724,13 +3727,13 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD24" s="7">
         <v>1.3072E-2</v>
@@ -3764,13 +3767,13 @@
         <v>40</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>51</v>
@@ -3782,10 +3785,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -3804,13 +3807,13 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD25" s="7">
         <v>8.3070000000000001E-3</v>
@@ -3844,13 +3847,13 @@
         <v>40</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>51</v>
@@ -3862,10 +3865,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -3884,13 +3887,13 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD26" s="7">
         <v>8.3070000000000001E-3</v>
@@ -3924,13 +3927,13 @@
         <v>40</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>51</v>
@@ -3942,10 +3945,10 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -3964,13 +3967,13 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD27" s="7">
         <v>8.3070000000000001E-3</v>
@@ -4004,13 +4007,13 @@
         <v>40</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>51</v>
@@ -4022,7 +4025,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N28" s="6">
         <v>5449000152190</v>
@@ -4044,13 +4047,13 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD28" s="7">
         <v>3.5850000000000001E-3</v>
@@ -4084,13 +4087,13 @@
         <v>40</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>47</v>
@@ -4130,7 +4133,7 @@
         <v>28</v>
       </c>
       <c r="AK29" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL29" s="6">
         <v>300</v>
@@ -4150,13 +4153,13 @@
         <v>40</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>51</v>
@@ -4168,10 +4171,10 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -4190,13 +4193,13 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD30" s="7">
         <v>1.3072E-2</v>
@@ -4230,13 +4233,13 @@
         <v>40</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>51</v>
@@ -4248,10 +4251,10 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -4270,13 +4273,13 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD31" s="7">
         <v>1.3050000000000001E-2</v>
@@ -4310,13 +4313,13 @@
         <v>40</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>51</v>
@@ -4328,10 +4331,10 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -4350,13 +4353,13 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD32" s="7">
         <v>1.3050000000000001E-2</v>
@@ -4390,13 +4393,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>51</v>
@@ -4408,7 +4411,7 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N33" s="6">
         <v>5060517888794</v>
@@ -4430,13 +4433,13 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD33" s="7">
         <v>8.3070000000000001E-3</v>
@@ -4470,13 +4473,13 @@
         <v>40</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>51</v>
@@ -4488,10 +4491,10 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -4510,13 +4513,13 @@
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD34" s="7">
         <v>8.3070000000000001E-3</v>
@@ -4550,13 +4553,13 @@
         <v>40</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>51</v>
@@ -4568,10 +4571,10 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -4590,13 +4593,13 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD35" s="7">
         <v>3.5850000000000001E-3</v>
@@ -4630,13 +4633,13 @@
         <v>40</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>51</v>
@@ -4648,10 +4651,10 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -4670,13 +4673,13 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD36" s="7">
         <v>3.5850000000000001E-3</v>
@@ -4710,13 +4713,13 @@
         <v>40</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>47</v>
@@ -4756,7 +4759,7 @@
         <v>36</v>
       </c>
       <c r="AK37" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL37" s="6">
         <v>300</v>
@@ -4776,13 +4779,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>51</v>
@@ -4794,10 +4797,10 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -4816,13 +4819,13 @@
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z38" s="6"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD38" s="7">
         <v>1.3050000000000001E-2</v>
@@ -4856,13 +4859,13 @@
         <v>40</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>51</v>
@@ -4874,10 +4877,10 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -4896,13 +4899,13 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD39" s="7">
         <v>8.3070000000000001E-3</v>
@@ -4936,13 +4939,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>51</v>
@@ -4954,10 +4957,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -4976,13 +4979,13 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD40" s="7">
         <v>8.3070000000000001E-3</v>
@@ -5016,13 +5019,13 @@
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>51</v>
@@ -5034,10 +5037,10 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -5056,13 +5059,13 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z41" s="6"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD41" s="7">
         <v>8.3070000000000001E-3</v>
@@ -5096,13 +5099,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>51</v>
@@ -5114,10 +5117,10 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -5136,13 +5139,13 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z42" s="6"/>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD42" s="7">
         <v>8.3070000000000001E-3</v>
@@ -5176,13 +5179,13 @@
         <v>40</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>47</v>
@@ -5222,7 +5225,7 @@
         <v>43</v>
       </c>
       <c r="AK43" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL43" s="6">
         <v>300</v>
@@ -5242,13 +5245,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>51</v>
@@ -5260,10 +5263,10 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -5282,13 +5285,13 @@
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z44" s="6"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD44" s="7">
         <v>1.3050000000000001E-2</v>
@@ -5322,13 +5325,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>51</v>
@@ -5340,10 +5343,10 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
@@ -5362,13 +5365,13 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD45" s="7">
         <v>8.3070000000000001E-3</v>
@@ -5402,13 +5405,13 @@
         <v>40</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>51</v>
@@ -5420,10 +5423,10 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
@@ -5442,13 +5445,13 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z46" s="6"/>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD46" s="7">
         <v>8.3070000000000001E-3</v>
@@ -5482,13 +5485,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>51</v>
@@ -5500,10 +5503,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
@@ -5522,13 +5525,13 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD47" s="7">
         <v>8.3070000000000001E-3</v>
@@ -5562,13 +5565,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>51</v>
@@ -5580,10 +5583,10 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
@@ -5602,13 +5605,13 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD48" s="7">
         <v>8.3070000000000001E-3</v>
@@ -5642,13 +5645,13 @@
         <v>40</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>51</v>
@@ -5660,10 +5663,10 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -5682,13 +5685,13 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD49" s="7">
         <v>3.5850000000000001E-3</v>
@@ -5722,13 +5725,13 @@
         <v>40</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>51</v>
@@ -5740,10 +5743,10 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -5762,13 +5765,13 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD50" s="7">
         <v>3.5850000000000001E-3</v>
@@ -5802,13 +5805,13 @@
         <v>40</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>51</v>
@@ -5820,7 +5823,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N51" s="6">
         <v>4650075423257</v>
@@ -5842,13 +5845,13 @@
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z51" s="6"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD51" s="7">
         <v>3.5850000000000001E-3</v>
@@ -5882,13 +5885,13 @@
         <v>40</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>51</v>
@@ -5900,10 +5903,10 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -5922,13 +5925,13 @@
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD52" s="7">
         <v>3.5850000000000001E-3</v>
@@ -5962,13 +5965,13 @@
         <v>40</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>51</v>
@@ -5980,10 +5983,10 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
@@ -6002,13 +6005,13 @@
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD53" s="7">
         <v>3.5850000000000001E-3</v>
@@ -6042,13 +6045,13 @@
         <v>40</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>51</v>
@@ -6060,7 +6063,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N54" s="6">
         <v>4650075423233</v>
@@ -6082,13 +6085,13 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD54" s="7">
         <v>3.5850000000000001E-3</v>
@@ -6123,10 +6126,10 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>40</v>
@@ -6164,7 +6167,7 @@
         <v>520</v>
       </c>
       <c r="AK55" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL55" s="6"/>
     </row>
@@ -6182,16 +6185,16 @@
         <v>40</v>
       </c>
       <c r="E56" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6">
@@ -6200,27 +6203,27 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N56" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="O56" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
@@ -6228,7 +6231,7 @@
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
       <c r="AC56" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD56" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6240,10 +6243,10 @@
         <v>1</v>
       </c>
       <c r="AG56" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH56" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="AH56" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="AI56" s="6">
         <v>2</v>
@@ -6270,16 +6273,16 @@
         <v>40</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="H57" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6">
@@ -6288,27 +6291,27 @@
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
@@ -6316,7 +6319,7 @@
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
       <c r="AC57" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD57" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6328,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="AG57" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH57" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="AH57" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="AI57" s="6">
         <v>2</v>
@@ -6358,16 +6361,16 @@
         <v>40</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="H58" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="10">
@@ -6376,27 +6379,27 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
@@ -6404,7 +6407,7 @@
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
       <c r="AC58" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD58" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6416,10 +6419,10 @@
         <v>1</v>
       </c>
       <c r="AG58" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH58" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="AH58" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="AI58" s="6">
         <v>2</v>
@@ -6447,10 +6450,10 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>40</v>
@@ -6488,7 +6491,7 @@
         <v>310</v>
       </c>
       <c r="AK59" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AL59" s="6"/>
     </row>
@@ -6507,10 +6510,10 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>40</v>
@@ -6568,16 +6571,16 @@
         <v>40</v>
       </c>
       <c r="E61" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -6588,7 +6591,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
@@ -6602,7 +6605,7 @@
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
       <c r="AC61" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD61" s="7">
         <v>0.1275</v>
@@ -6610,7 +6613,7 @@
       <c r="AE61" s="6"/>
       <c r="AF61" s="6"/>
       <c r="AG61" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AH61" s="6"/>
       <c r="AI61" s="6">
@@ -6620,7 +6623,7 @@
         <v>62</v>
       </c>
       <c r="AK61" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AL61" s="6">
         <v>311</v>
@@ -6640,16 +6643,16 @@
         <v>40</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6">
@@ -6658,23 +6661,23 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
@@ -6682,13 +6685,13 @@
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
       <c r="AC62" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD62" s="7"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="6"/>
       <c r="AG62" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH62" s="6"/>
       <c r="AI62" s="6">
@@ -6716,16 +6719,16 @@
         <v>40</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F63" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6">
@@ -6734,23 +6737,23 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
       <c r="R63" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
@@ -6758,7 +6761,7 @@
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
       <c r="AC63" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD63" s="7"/>
       <c r="AE63" s="6"/>
@@ -6791,10 +6794,10 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>40</v>
@@ -6832,7 +6835,7 @@
         <v>312</v>
       </c>
       <c r="AK64" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AL64" s="6">
         <v>310</v>
@@ -6852,16 +6855,16 @@
         <v>40</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="H65" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6">
@@ -6871,13 +6874,13 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
       <c r="R65" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
@@ -6885,14 +6888,14 @@
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6" t="s">
-        <v>258</v>
+        <v>389</v>
       </c>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
       <c r="AC65" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD65" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6900,10 +6903,10 @@
       <c r="AE65" s="6"/>
       <c r="AF65" s="6"/>
       <c r="AG65" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH65" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI65" s="6">
         <v>2</v>
@@ -6930,16 +6933,16 @@
         <v>40</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6">
@@ -6948,23 +6951,23 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
@@ -6972,7 +6975,7 @@
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
       <c r="AC66" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD66" s="7">
         <v>4.2500000000000003E-2</v>
@@ -6980,10 +6983,10 @@
       <c r="AE66" s="6"/>
       <c r="AF66" s="6"/>
       <c r="AG66" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH66" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI66" s="6">
         <v>2</v>
@@ -7010,16 +7013,16 @@
         <v>40</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F67" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -7030,23 +7033,23 @@
         <v>15</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
       <c r="R67" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
@@ -7054,7 +7057,7 @@
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
       <c r="AC67" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD67" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7062,10 +7065,10 @@
       <c r="AE67" s="6"/>
       <c r="AF67" s="6"/>
       <c r="AG67" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AH67" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI67" s="6">
         <v>2</v>
@@ -7093,10 +7096,10 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>40</v>
@@ -7134,7 +7137,7 @@
         <v>400</v>
       </c>
       <c r="AK68" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL68" s="6"/>
     </row>
@@ -7153,13 +7156,13 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6">
@@ -7186,7 +7189,7 @@
       <c r="AA69" s="6"/>
       <c r="AB69" s="6"/>
       <c r="AC69" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD69" s="7">
         <v>4.2500000000000003E-2</v>
@@ -7223,10 +7226,10 @@
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>51</v>
@@ -7238,20 +7241,20 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q70" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R70" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
@@ -7259,14 +7262,14 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
       <c r="AC70" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD70" s="7"/>
       <c r="AE70" s="6"/>
@@ -7298,16 +7301,16 @@
         <v>40</v>
       </c>
       <c r="E71" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6">
@@ -7320,7 +7323,7 @@
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
@@ -7329,14 +7332,14 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
       <c r="AC71" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD71" s="7">
         <v>2.5000000000000001E-2</v>
@@ -7372,16 +7375,16 @@
         <v>40</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6">
@@ -7394,7 +7397,7 @@
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
@@ -7403,14 +7406,14 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
       <c r="AC72" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD72" s="7"/>
       <c r="AE72" s="6"/>
@@ -7424,7 +7427,7 @@
         <v>69</v>
       </c>
       <c r="AK72" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL72" s="6">
         <v>68</v>
@@ -7444,13 +7447,13 @@
         <v>40</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F73" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>51</v>
@@ -7462,13 +7465,13 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="N73" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="N73" s="6" t="s">
+      <c r="O73" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="O73" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6" t="s">
@@ -7483,14 +7486,14 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
       <c r="AC73" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD73" s="7"/>
       <c r="AE73" s="6"/>
@@ -7522,13 +7525,13 @@
         <v>40</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F74" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G74" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>51</v>
@@ -7540,10 +7543,10 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N74" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="N74" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
@@ -7559,14 +7562,14 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD74" s="7"/>
       <c r="AE74" s="6"/>
@@ -7598,16 +7601,16 @@
         <v>40</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F75" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="H75" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6">
@@ -7620,7 +7623,7 @@
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -7629,14 +7632,14 @@
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y75" s="6"/>
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD75" s="7">
         <v>1.7500000000000002E-2</v>
@@ -7652,7 +7655,7 @@
         <v>680</v>
       </c>
       <c r="AK75" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AL75" s="6">
         <v>400</v>
@@ -7672,16 +7675,16 @@
         <v>40</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F76" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="H76" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6">
@@ -7694,7 +7697,7 @@
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -7703,14 +7706,14 @@
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y76" s="6"/>
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
       <c r="AC76" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD76" s="7"/>
       <c r="AE76" s="6"/>
@@ -7724,7 +7727,7 @@
         <v>72</v>
       </c>
       <c r="AK76" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL76" s="6">
         <v>680</v>
@@ -7744,13 +7747,13 @@
         <v>40</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F77" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>51</v>
@@ -7763,19 +7766,19 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="P77" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="O77" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="P77" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="Q77" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
@@ -7783,14 +7786,14 @@
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y77" s="6"/>
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
       <c r="AC77" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD77" s="7"/>
       <c r="AE77" s="6"/>
@@ -7822,13 +7825,13 @@
         <v>40</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>51</v>
@@ -7840,10 +7843,10 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="N78" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="N78" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
@@ -7858,7 +7861,7 @@
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
       <c r="W78" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
@@ -7866,7 +7869,7 @@
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
       <c r="AC78" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD78" s="7"/>
       <c r="AE78" s="6"/>
@@ -7898,16 +7901,16 @@
         <v>40</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F79" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="H79" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6">
@@ -7920,7 +7923,7 @@
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -7929,14 +7932,14 @@
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
       <c r="AC79" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD79" s="7"/>
       <c r="AE79" s="6"/>
@@ -7950,7 +7953,7 @@
         <v>769</v>
       </c>
       <c r="AK79" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AL79" s="6">
         <v>680</v>
@@ -7970,13 +7973,13 @@
         <v>40</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F80" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>51</v>
@@ -7988,22 +7991,22 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q80" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
@@ -8011,14 +8014,14 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
       <c r="AC80" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD80" s="7"/>
       <c r="AE80" s="6"/>
@@ -8050,13 +8053,13 @@
         <v>40</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F81" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>51</v>
@@ -8068,10 +8071,10 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="N81" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
@@ -8087,14 +8090,14 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
       <c r="AC81" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD81" s="7"/>
       <c r="AE81" s="6"/>
@@ -8126,13 +8129,13 @@
         <v>40</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F82" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>51</v>
@@ -8144,20 +8147,20 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="N82" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="N82" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="O82" s="6"/>
       <c r="P82" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q82" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S82" s="6">
         <v>0.5</v>
@@ -8167,14 +8170,14 @@
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
       <c r="AC82" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD82" s="7">
         <v>0.03</v>
@@ -8209,10 +8212,10 @@
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>40</v>
@@ -8250,7 +8253,7 @@
         <v>330</v>
       </c>
       <c r="AK83" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AL83" s="6">
         <v>520</v>
@@ -8267,19 +8270,19 @@
         <v>39</v>
       </c>
       <c r="D84" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="F84" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="G84" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="G84" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="H84" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6">
@@ -8288,27 +8291,27 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N84" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="N84" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="O84" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P84" s="6"/>
       <c r="Q84" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
       <c r="W84" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
@@ -8316,7 +8319,7 @@
       <c r="AA84" s="6"/>
       <c r="AB84" s="6"/>
       <c r="AC84" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD84" s="7">
         <v>0.02</v>
@@ -8328,10 +8331,10 @@
         <v>1</v>
       </c>
       <c r="AG84" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH84" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="AH84" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="AI84" s="6">
         <v>2</v>
@@ -8355,19 +8358,19 @@
         <v>39</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E85" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="H85" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6">
@@ -8376,27 +8379,27 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R85" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
@@ -8404,7 +8407,7 @@
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
       <c r="AC85" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD85" s="7">
         <v>2.5000000000000001E-2</v>
@@ -8416,10 +8419,10 @@
         <v>1</v>
       </c>
       <c r="AG85" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH85" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="AH85" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="AI85" s="6">
         <v>2</v>
@@ -8443,19 +8446,19 @@
         <v>39</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="H86" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6">
@@ -8464,27 +8467,27 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
@@ -8492,7 +8495,7 @@
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
       <c r="AC86" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD86" s="7">
         <v>2.5000000000000001E-2</v>
@@ -8504,10 +8507,10 @@
         <v>1</v>
       </c>
       <c r="AG86" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH86" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="AH86" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="AI86" s="6">
         <v>2</v>
@@ -8531,19 +8534,19 @@
         <v>39</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F87" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="H87" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6">
@@ -8552,27 +8555,27 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
@@ -8580,7 +8583,7 @@
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
       <c r="AC87" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD87" s="7">
         <v>0.02</v>
@@ -8592,10 +8595,10 @@
         <v>1</v>
       </c>
       <c r="AG87" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH87" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="AH87" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="AI87" s="6">
         <v>2</v>
@@ -8619,19 +8622,19 @@
         <v>39</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F88" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="G88" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="H88" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6">
@@ -8640,27 +8643,27 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P88" s="6"/>
       <c r="Q88" s="6" t="s">
         <v>53</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
@@ -8668,7 +8671,7 @@
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
       <c r="AC88" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AD88" s="7">
         <v>0.03</v>
@@ -8680,10 +8683,10 @@
         <v>1</v>
       </c>
       <c r="AG88" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH88" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="AH88" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="AI88" s="6">
         <v>2</v>
@@ -8707,22 +8710,22 @@
         <v>39</v>
       </c>
       <c r="D89" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F89" s="6" t="s">
+      <c r="G89" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="H89" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="I89" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>352</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -8733,7 +8736,7 @@
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
@@ -8756,7 +8759,7 @@
         <v>78</v>
       </c>
       <c r="AK89" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL89" s="6"/>
     </row>
@@ -8771,35 +8774,35 @@
         <v>39</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E90" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="H90" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="I90" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
@@ -8837,35 +8840,35 @@
         <v>39</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E91" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="H91" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="I91" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
@@ -8903,22 +8906,22 @@
         <v>39</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E92" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="G92" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="I92" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
@@ -8929,7 +8932,7 @@
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -8967,22 +8970,22 @@
         <v>39</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>340</v>
-      </c>
       <c r="H93" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
@@ -8993,7 +8996,7 @@
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
@@ -9031,22 +9034,22 @@
         <v>39</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="H94" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
@@ -9057,7 +9060,7 @@
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
@@ -9095,37 +9098,37 @@
         <v>39</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F95" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>367</v>
-      </c>
       <c r="H95" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I95" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="N95" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="N95" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
@@ -9148,7 +9151,7 @@
         <v>85</v>
       </c>
       <c r="AK95" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL95" s="6"/>
     </row>
@@ -9163,42 +9166,42 @@
         <v>39</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E96" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="G96" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="H96" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>374</v>
-      </c>
       <c r="I96" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
@@ -9229,20 +9232,20 @@
         <v>39</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="H97" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I97" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
@@ -9253,7 +9256,7 @@
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
@@ -9316,10 +9319,10 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" t="s">
         <v>380</v>
-      </c>
-      <c r="H1" t="s">
-        <v>381</v>
       </c>
       <c r="I1" t="s">
         <v>32</v>
@@ -9328,18 +9331,18 @@
         <v>29</v>
       </c>
       <c r="K1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L1" t="s">
         <v>382</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>383</v>
-      </c>
-      <c r="M1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2283F8C-20C1-49A3-97AE-47DDCE507CE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EFE418-FA4B-4622-9B10-0BBD30378EA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Petrol" sheetId="1" r:id="rId1"/>
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Petrol!$A$1:$AL$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Petrol!$A$1:$AN$97</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="394">
   <si>
     <t>Sorting</t>
   </si>
@@ -1295,6 +1295,12 @@
   </si>
   <si>
     <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1342,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,8 +1355,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1373,12 +1385,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,6 +1437,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1795,57 +1828,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK97"/>
+  <dimension ref="A1:AMM97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X79" sqref="X79:X81"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="4"/>
-    <col min="2" max="2" width="11.6640625" style="4"/>
-    <col min="3" max="3" width="10.6640625" style="4"/>
-    <col min="4" max="4" width="11.109375" style="4"/>
+    <col min="1" max="1" width="10.28515625" style="4"/>
+    <col min="2" max="2" width="11.7109375" style="4"/>
+    <col min="3" max="3" width="10.7109375" style="4"/>
+    <col min="4" max="4" width="11.140625" style="4"/>
     <col min="5" max="5" width="16" style="4"/>
-    <col min="6" max="6" width="34.6640625" style="4"/>
-    <col min="7" max="7" width="66.88671875" style="4"/>
-    <col min="8" max="8" width="43.6640625" style="4"/>
-    <col min="9" max="9" width="16.109375" style="4"/>
-    <col min="10" max="10" width="8.88671875" style="4"/>
-    <col min="11" max="11" width="13.21875" style="4"/>
-    <col min="12" max="12" width="13.33203125" style="4"/>
-    <col min="13" max="14" width="47.109375" style="4"/>
-    <col min="15" max="15" width="19.44140625" style="4"/>
-    <col min="16" max="16" width="14.6640625" style="4"/>
-    <col min="17" max="17" width="18.6640625" style="4"/>
-    <col min="18" max="18" width="14.44140625" style="4"/>
-    <col min="19" max="19" width="7" style="4"/>
-    <col min="20" max="20" width="14.44140625" style="4"/>
-    <col min="21" max="21" width="18" style="4"/>
-    <col min="22" max="22" width="22.6640625" style="4"/>
-    <col min="23" max="23" width="22.44140625" style="4"/>
-    <col min="24" max="24" width="35.21875" style="4"/>
-    <col min="25" max="25" width="20.109375" style="4"/>
-    <col min="26" max="26" width="26" style="4"/>
-    <col min="27" max="27" width="26.5546875" style="4"/>
-    <col min="28" max="28" width="15.88671875" style="4"/>
-    <col min="29" max="29" width="16.33203125" style="4"/>
-    <col min="30" max="30" width="14.6640625" style="4"/>
-    <col min="31" max="31" width="12.77734375" style="4"/>
-    <col min="32" max="32" width="13" style="4"/>
-    <col min="33" max="33" width="63.6640625" style="4"/>
-    <col min="34" max="34" width="30.88671875" style="4"/>
-    <col min="35" max="35" width="7.5546875" style="4"/>
-    <col min="36" max="36" width="8.88671875" style="4"/>
-    <col min="37" max="37" width="10.88671875" style="4"/>
-    <col min="38" max="38" width="9" style="4"/>
-    <col min="39" max="1025" width="9.21875" style="4"/>
-    <col min="1026" max="16384" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="34.7109375" style="4"/>
+    <col min="7" max="7" width="66.85546875" style="4"/>
+    <col min="8" max="8" width="43.7109375" style="4"/>
+    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="4"/>
+    <col min="12" max="12" width="8.85546875" style="4"/>
+    <col min="13" max="14" width="13.28515625" style="4"/>
+    <col min="15" max="16" width="47.140625" style="4"/>
+    <col min="17" max="17" width="19.42578125" style="4"/>
+    <col min="18" max="18" width="14.7109375" style="4"/>
+    <col min="19" max="19" width="18.7109375" style="4"/>
+    <col min="20" max="20" width="14.42578125" style="4"/>
+    <col min="21" max="21" width="7" style="4"/>
+    <col min="22" max="22" width="14.42578125" style="4"/>
+    <col min="23" max="23" width="18" style="4"/>
+    <col min="24" max="24" width="22.7109375" style="4"/>
+    <col min="25" max="25" width="22.42578125" style="4"/>
+    <col min="26" max="26" width="35.28515625" style="4"/>
+    <col min="27" max="27" width="20.140625" style="4"/>
+    <col min="28" max="28" width="26" style="4"/>
+    <col min="29" max="29" width="26.5703125" style="4"/>
+    <col min="30" max="30" width="15.85546875" style="4"/>
+    <col min="31" max="31" width="16.28515625" style="4"/>
+    <col min="32" max="32" width="14.7109375" style="4"/>
+    <col min="33" max="33" width="12.7109375" style="4"/>
+    <col min="34" max="34" width="13" style="4"/>
+    <col min="35" max="35" width="63.7109375" style="4"/>
+    <col min="36" max="36" width="30.85546875" style="4"/>
+    <col min="37" max="37" width="7.5703125" style="4"/>
+    <col min="38" max="38" width="8.85546875" style="4"/>
+    <col min="39" max="39" width="10.85546875" style="4"/>
+    <col min="40" max="40" width="9" style="4"/>
+    <col min="41" max="1027" width="9.28515625" style="4"/>
+    <col min="1028" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1870,98 +1904,104 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2005,23 +2045,25 @@
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="7"/>
+      <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="AF2" s="7"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
-      <c r="AI2" s="6">
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6">
         <v>1</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AL2" s="6">
         <v>300</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AM2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="6"/>
-    </row>
-    <row r="3" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN2" s="6"/>
+    </row>
+    <row r="3" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2046,8 +2088,12 @@
       <c r="H3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -2066,28 +2112,30 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
+      <c r="AF3" s="7"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
-      <c r="AI3" s="6">
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6">
         <v>2</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AL3" s="6">
         <v>1</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AN3" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2113,61 +2161,63 @@
         <v>51</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AF4" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="6">
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6">
         <v>3</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AL4" s="6">
         <v>2</v>
       </c>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="6">
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2193,61 +2243,63 @@
         <v>51</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
-      <c r="AC5" s="6" t="s">
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AF5" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
-      <c r="AI5" s="6">
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6">
         <v>3</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AL5" s="6">
         <v>3</v>
       </c>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="6">
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2273,61 +2325,63 @@
         <v>51</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
-      <c r="AC6" s="6" t="s">
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD6" s="7">
+      <c r="AF6" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
-      <c r="AI6" s="6">
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6">
         <v>3</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AL6" s="6">
         <v>602</v>
       </c>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="6">
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2353,61 +2407,63 @@
         <v>51</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD7" s="7">
+      <c r="AF7" s="7">
         <v>1.4194E-2</v>
       </c>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
-      <c r="AI7" s="6">
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6">
         <v>3</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AL7" s="6">
         <v>6</v>
       </c>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="6">
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2433,61 +2489,63 @@
         <v>51</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD8" s="7">
+      <c r="AF8" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
-      <c r="AI8" s="6">
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6">
         <v>3</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AL8" s="6">
         <v>7</v>
       </c>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="6">
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2513,61 +2571,63 @@
         <v>51</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="6" t="s">
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD9" s="7">
+      <c r="AF9" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
-      <c r="AI9" s="6">
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6">
         <v>3</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AL9" s="6">
         <v>8</v>
       </c>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="6">
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2593,61 +2653,63 @@
         <v>51</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="6">
+      <c r="P10" s="6">
         <v>42099697</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="6" t="s">
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD10" s="7">
+      <c r="AF10" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
-      <c r="AI10" s="6">
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6">
         <v>3</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AL10" s="6">
         <v>603</v>
       </c>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="6">
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2673,61 +2735,63 @@
         <v>51</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="T11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6" t="s">
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="6" t="s">
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD11" s="7">
+      <c r="AF11" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
-      <c r="AI11" s="6">
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6">
         <v>3</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AL11" s="6">
         <v>5</v>
       </c>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="6">
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2753,61 +2817,63 @@
         <v>51</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>1</v>
       </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD12" s="7">
+      <c r="AF12" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
-      <c r="AI12" s="6">
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6">
         <v>3</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AL12" s="6">
         <v>9</v>
       </c>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="6">
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2833,61 +2899,63 @@
         <v>51</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6" t="s">
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="6" t="s">
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD13" s="7">
+      <c r="AF13" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
-      <c r="AI13" s="6">
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6">
         <v>3</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AL13" s="6">
         <v>4</v>
       </c>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="6">
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2913,61 +2981,63 @@
         <v>51</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="6" t="s">
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD14" s="7">
+      <c r="AF14" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
-      <c r="AI14" s="6">
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6">
         <v>3</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AL14" s="6">
         <v>606</v>
       </c>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="6">
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2993,61 +3063,63 @@
         <v>51</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
-      <c r="AC15" s="6" t="s">
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD15" s="7">
+      <c r="AF15" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
-      <c r="AI15" s="6">
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6">
         <v>3</v>
       </c>
-      <c r="AJ15" s="6">
+      <c r="AL15" s="6">
         <v>607</v>
       </c>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="6">
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3073,61 +3145,63 @@
         <v>51</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6" t="s">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6" t="s">
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
-      <c r="AC16" s="6" t="s">
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD16" s="7">
+      <c r="AF16" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
-      <c r="AI16" s="6">
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6">
         <v>3</v>
       </c>
-      <c r="AJ16" s="6">
+      <c r="AL16" s="6">
         <v>15</v>
       </c>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="6">
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3153,61 +3227,63 @@
         <v>51</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="6">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="P17" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6" t="s">
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="T17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="6" t="s">
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6" t="s">
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
-      <c r="AC17" s="6" t="s">
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD17" s="7">
+      <c r="AF17" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
-      <c r="AI17" s="6">
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6">
         <v>3</v>
       </c>
-      <c r="AJ17" s="6">
+      <c r="AL17" s="6">
         <v>16</v>
       </c>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="6">
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3233,61 +3309,63 @@
         <v>51</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="6">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6" t="s">
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
-      <c r="AC18" s="6" t="s">
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD18" s="7">
+      <c r="AF18" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
-      <c r="AI18" s="6">
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6">
         <v>3</v>
       </c>
-      <c r="AJ18" s="6">
+      <c r="AL18" s="6">
         <v>18</v>
       </c>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="6">
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3313,61 +3391,63 @@
         <v>51</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6">
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="P19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="T19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6" t="s">
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="6" t="s">
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AF19" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
-      <c r="AI19" s="6">
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6">
         <v>3</v>
       </c>
-      <c r="AJ19" s="6">
+      <c r="AL19" s="6">
         <v>19</v>
       </c>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="6">
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3393,61 +3473,63 @@
         <v>51</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>1</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="P20" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6" t="s">
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="6" t="s">
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="AF20" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
-      <c r="AI20" s="6">
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6">
         <v>3</v>
       </c>
-      <c r="AJ20" s="6">
+      <c r="AL20" s="6">
         <v>21</v>
       </c>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="6">
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3473,61 +3555,63 @@
         <v>51</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
         <v>1</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N21" s="6">
+      <c r="P21" s="6">
         <v>5449000253101</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="T21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="6" t="s">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
-      <c r="AC21" s="6" t="s">
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD21" s="7">
+      <c r="AF21" s="7">
         <v>5.6049999999999997E-3</v>
       </c>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
-      <c r="AI21" s="6">
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6">
         <v>3</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AL21" s="6">
         <v>601</v>
       </c>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="6">
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3553,61 +3637,63 @@
         <v>51</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="6">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="6">
+      <c r="P22" s="6">
         <v>5449000046390</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R22" s="6" t="s">
+      <c r="T22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="6" t="s">
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6" t="s">
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-      <c r="AC22" s="6" t="s">
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD22" s="7">
+      <c r="AF22" s="7">
         <v>5.5890000000000002E-3</v>
       </c>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
-      <c r="AI22" s="6">
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6">
         <v>3</v>
       </c>
-      <c r="AJ22" s="6">
+      <c r="AL22" s="6">
         <v>605</v>
       </c>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="6">
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>30</v>
       </c>
@@ -3632,8 +3718,12 @@
       <c r="H23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="I23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>222</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -3652,28 +3742,30 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
-      <c r="AC23" s="6" t="s">
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
+      <c r="AF23" s="7"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
-      <c r="AI23" s="6">
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6">
         <v>2</v>
       </c>
-      <c r="AJ23" s="6">
+      <c r="AL23" s="6">
         <v>23</v>
       </c>
-      <c r="AK23" s="8" t="s">
+      <c r="AM23" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AL23" s="6">
+      <c r="AN23" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>31</v>
       </c>
@@ -3699,61 +3791,63 @@
         <v>51</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="6">
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6" t="s">
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="6" t="s">
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD24" s="7">
+      <c r="AF24" s="7">
         <v>1.3072E-2</v>
       </c>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
-      <c r="AI24" s="6">
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6">
         <v>3</v>
       </c>
-      <c r="AJ24" s="6">
+      <c r="AL24" s="6">
         <v>24</v>
       </c>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="6">
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>32</v>
       </c>
@@ -3779,61 +3873,63 @@
         <v>51</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R25" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6" t="s">
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
-      <c r="AC25" s="6" t="s">
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD25" s="7">
+      <c r="AF25" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
-      <c r="AI25" s="6">
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6">
         <v>3</v>
       </c>
-      <c r="AJ25" s="6">
+      <c r="AL25" s="6">
         <v>25</v>
       </c>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="6">
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>33</v>
       </c>
@@ -3859,61 +3955,63 @@
         <v>51</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>1</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="T26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6" t="s">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6" t="s">
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="6" t="s">
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD26" s="7">
+      <c r="AF26" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
-      <c r="AI26" s="6">
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6">
         <v>3</v>
       </c>
-      <c r="AJ26" s="6">
+      <c r="AL26" s="6">
         <v>26</v>
       </c>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="6">
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>34</v>
       </c>
@@ -3939,61 +4037,63 @@
         <v>51</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="6">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
         <v>1</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6" t="s">
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R27" s="6" t="s">
+      <c r="T27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="6" t="s">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6" t="s">
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
-      <c r="AC27" s="6" t="s">
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD27" s="7">
+      <c r="AF27" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
-      <c r="AI27" s="6">
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6">
         <v>3</v>
       </c>
-      <c r="AJ27" s="6">
+      <c r="AL27" s="6">
         <v>27</v>
       </c>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="6">
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>35</v>
       </c>
@@ -4019,61 +4119,63 @@
         <v>51</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
         <v>1</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N28" s="6">
+      <c r="P28" s="6">
         <v>5449000152190</v>
       </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6" t="s">
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R28" s="6" t="s">
+      <c r="T28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="6" t="s">
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6" t="s">
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
-      <c r="AC28" s="6" t="s">
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD28" s="7">
+      <c r="AF28" s="7">
         <v>3.5850000000000001E-3</v>
       </c>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
-      <c r="AI28" s="6">
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6">
         <v>3</v>
       </c>
-      <c r="AJ28" s="6">
+      <c r="AL28" s="6">
         <v>653</v>
       </c>
-      <c r="AK28" s="9"/>
-      <c r="AL28" s="6">
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>36</v>
       </c>
@@ -4098,8 +4200,12 @@
       <c r="H29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="I29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>226</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -4118,28 +4224,30 @@
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
-      <c r="AC29" s="6" t="s">
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
+      <c r="AF29" s="7"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
-      <c r="AI29" s="6">
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6">
         <v>2</v>
       </c>
-      <c r="AJ29" s="6">
+      <c r="AL29" s="6">
         <v>28</v>
       </c>
-      <c r="AK29" s="8" t="s">
+      <c r="AM29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AL29" s="6">
+      <c r="AN29" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>37</v>
       </c>
@@ -4165,61 +4273,63 @@
         <v>51</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="6">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="P30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6" t="s">
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R30" s="6" t="s">
+      <c r="T30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="6" t="s">
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6" t="s">
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
-      <c r="AC30" s="6" t="s">
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD30" s="7">
+      <c r="AF30" s="7">
         <v>1.3072E-2</v>
       </c>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
-      <c r="AI30" s="6">
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6">
         <v>3</v>
       </c>
-      <c r="AJ30" s="6">
+      <c r="AL30" s="6">
         <v>29</v>
       </c>
-      <c r="AK30" s="9"/>
-      <c r="AL30" s="6">
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>38</v>
       </c>
@@ -4245,61 +4355,63 @@
         <v>51</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="6">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
         <v>1</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="P31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="T31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-      <c r="V31" s="6" t="s">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6" t="s">
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
-      <c r="AC31" s="6" t="s">
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD31" s="7">
+      <c r="AF31" s="7">
         <v>1.3050000000000001E-2</v>
       </c>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
-      <c r="AI31" s="6">
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6">
         <v>3</v>
       </c>
-      <c r="AJ31" s="6">
+      <c r="AL31" s="6">
         <v>30</v>
       </c>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="6">
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>39</v>
       </c>
@@ -4325,61 +4437,63 @@
         <v>51</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="6">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6">
         <v>1</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="P32" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6" t="s">
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="T32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="6" t="s">
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6" t="s">
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
-      <c r="AC32" s="6" t="s">
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD32" s="7">
+      <c r="AF32" s="7">
         <v>1.3050000000000001E-2</v>
       </c>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
-      <c r="AI32" s="6">
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6">
         <v>3</v>
       </c>
-      <c r="AJ32" s="6">
+      <c r="AL32" s="6">
         <v>32</v>
       </c>
-      <c r="AK32" s="9"/>
-      <c r="AL32" s="6">
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>40</v>
       </c>
@@ -4405,61 +4519,63 @@
         <v>51</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N33" s="6">
+      <c r="P33" s="6">
         <v>5060517888794</v>
       </c>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6" t="s">
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="T33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="6" t="s">
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6" t="s">
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
-      <c r="AC33" s="6" t="s">
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD33" s="7">
+      <c r="AF33" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
-      <c r="AI33" s="6">
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6">
         <v>3</v>
       </c>
-      <c r="AJ33" s="6">
+      <c r="AL33" s="6">
         <v>34</v>
       </c>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="6">
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>41</v>
       </c>
@@ -4485,61 +4601,63 @@
         <v>51</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="6">
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="P34" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6" t="s">
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="T34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="6" t="s">
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6" t="s">
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="6" t="s">
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD34" s="7">
+      <c r="AF34" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="6">
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6">
         <v>3</v>
       </c>
-      <c r="AJ34" s="6">
+      <c r="AL34" s="6">
         <v>33</v>
       </c>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="6">
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>42</v>
       </c>
@@ -4565,61 +4683,63 @@
         <v>51</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="6">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
         <v>1</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6" t="s">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="P35" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6" t="s">
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="T35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-      <c r="V35" s="6" t="s">
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6" t="s">
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="6" t="s">
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD35" s="7">
+      <c r="AF35" s="7">
         <v>3.5850000000000001E-3</v>
       </c>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
-      <c r="AI35" s="6">
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6">
         <v>3</v>
       </c>
-      <c r="AJ35" s="6">
+      <c r="AL35" s="6">
         <v>35</v>
       </c>
-      <c r="AK35" s="9"/>
-      <c r="AL35" s="6">
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43</v>
       </c>
@@ -4645,61 +4765,63 @@
         <v>51</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="6">
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6">
         <v>1</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="P36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="T36" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
       <c r="U36" s="6"/>
-      <c r="V36" s="6" t="s">
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6" t="s">
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
-      <c r="AC36" s="6" t="s">
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD36" s="7">
+      <c r="AF36" s="7">
         <v>3.5850000000000001E-3</v>
       </c>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
-      <c r="AI36" s="6">
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6">
         <v>3</v>
       </c>
-      <c r="AJ36" s="6">
+      <c r="AL36" s="6">
         <v>31</v>
       </c>
-      <c r="AK36" s="9"/>
-      <c r="AL36" s="6">
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>44</v>
       </c>
@@ -4724,8 +4846,12 @@
       <c r="H37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="I37" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>343</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -4744,28 +4870,30 @@
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="6" t="s">
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
+      <c r="AF37" s="7"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
-      <c r="AI37" s="6">
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6">
         <v>2</v>
       </c>
-      <c r="AJ37" s="6">
+      <c r="AL37" s="6">
         <v>36</v>
       </c>
-      <c r="AK37" s="8" t="s">
+      <c r="AM37" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AL37" s="6">
+      <c r="AN37" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45</v>
       </c>
@@ -4791,61 +4919,63 @@
         <v>51</v>
       </c>
       <c r="I38" s="6"/>
-      <c r="J38" s="6">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6" t="s">
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="P38" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6" t="s">
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R38" s="6" t="s">
+      <c r="T38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
       <c r="U38" s="6"/>
-      <c r="V38" s="6" t="s">
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6" t="s">
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="6" t="s">
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD38" s="7">
+      <c r="AF38" s="7">
         <v>1.3050000000000001E-2</v>
       </c>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
-      <c r="AI38" s="6">
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6">
         <v>3</v>
       </c>
-      <c r="AJ38" s="6">
-        <v>39</v>
-      </c>
-      <c r="AK38" s="9"/>
       <c r="AL38" s="6">
+        <v>39</v>
+      </c>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>46</v>
       </c>
@@ -4871,61 +5001,63 @@
         <v>51</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="6">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="P39" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6" t="s">
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="T39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
-      <c r="V39" s="6" t="s">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6" t="s">
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
-      <c r="AC39" s="6" t="s">
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD39" s="7">
+      <c r="AF39" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
-      <c r="AI39" s="6">
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6">
         <v>3</v>
       </c>
-      <c r="AJ39" s="6">
+      <c r="AL39" s="6">
         <v>37</v>
       </c>
-      <c r="AK39" s="9"/>
-      <c r="AL39" s="6">
+      <c r="AM39" s="9"/>
+      <c r="AN39" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>47</v>
       </c>
@@ -4951,61 +5083,63 @@
         <v>51</v>
       </c>
       <c r="I40" s="6"/>
-      <c r="J40" s="6">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <v>1</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="P40" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6" t="s">
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R40" s="6" t="s">
+      <c r="T40" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
       <c r="U40" s="6"/>
-      <c r="V40" s="6" t="s">
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6" t="s">
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
-      <c r="AC40" s="6" t="s">
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD40" s="7">
+      <c r="AF40" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
-      <c r="AI40" s="6">
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6">
         <v>3</v>
       </c>
-      <c r="AJ40" s="6">
-        <v>38</v>
-      </c>
-      <c r="AK40" s="9"/>
       <c r="AL40" s="6">
+        <v>38</v>
+      </c>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>48</v>
       </c>
@@ -5031,61 +5165,63 @@
         <v>51</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="6">
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6">
         <v>1</v>
       </c>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="P41" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6" t="s">
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R41" s="6" t="s">
+      <c r="T41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
       <c r="U41" s="6"/>
-      <c r="V41" s="6" t="s">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6" t="s">
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
-      <c r="AC41" s="6" t="s">
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD41" s="7">
+      <c r="AF41" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
-      <c r="AI41" s="6">
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6">
         <v>3</v>
       </c>
-      <c r="AJ41" s="6">
+      <c r="AL41" s="6">
         <v>40</v>
       </c>
-      <c r="AK41" s="9"/>
-      <c r="AL41" s="6">
+      <c r="AM41" s="9"/>
+      <c r="AN41" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>49</v>
       </c>
@@ -5111,61 +5247,63 @@
         <v>51</v>
       </c>
       <c r="I42" s="6"/>
-      <c r="J42" s="6">
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="P42" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6" t="s">
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R42" s="6" t="s">
+      <c r="T42" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="6" t="s">
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6" t="s">
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
-      <c r="AC42" s="6" t="s">
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD42" s="7">
+      <c r="AF42" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
-      <c r="AI42" s="6">
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6">
         <v>3</v>
       </c>
-      <c r="AJ42" s="6">
+      <c r="AL42" s="6">
         <v>41</v>
       </c>
-      <c r="AK42" s="9"/>
-      <c r="AL42" s="6">
+      <c r="AM42" s="9"/>
+      <c r="AN42" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>51</v>
       </c>
@@ -5190,8 +5328,12 @@
       <c r="H43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="I43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>346</v>
+      </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -5210,28 +5352,30 @@
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
-      <c r="AC43" s="6" t="s">
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AD43" s="7"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
+      <c r="AF43" s="7"/>
       <c r="AG43" s="6"/>
       <c r="AH43" s="6"/>
-      <c r="AI43" s="6">
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6">
         <v>2</v>
       </c>
-      <c r="AJ43" s="6">
+      <c r="AL43" s="6">
         <v>43</v>
       </c>
-      <c r="AK43" s="8" t="s">
+      <c r="AM43" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AL43" s="6">
+      <c r="AN43" s="6">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>52</v>
       </c>
@@ -5257,61 +5401,63 @@
         <v>51</v>
       </c>
       <c r="I44" s="6"/>
-      <c r="J44" s="6">
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="P44" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6" t="s">
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R44" s="6" t="s">
+      <c r="T44" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
       <c r="U44" s="6"/>
-      <c r="V44" s="6" t="s">
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6" t="s">
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
-      <c r="AC44" s="6" t="s">
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD44" s="7">
+      <c r="AF44" s="7">
         <v>1.3050000000000001E-2</v>
       </c>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="6"/>
       <c r="AG44" s="6"/>
       <c r="AH44" s="6"/>
-      <c r="AI44" s="6">
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6">
         <v>3</v>
       </c>
-      <c r="AJ44" s="6">
+      <c r="AL44" s="6">
         <v>44</v>
       </c>
-      <c r="AK44" s="9"/>
-      <c r="AL44" s="6">
+      <c r="AM44" s="9"/>
+      <c r="AN44" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>53</v>
       </c>
@@ -5337,61 +5483,63 @@
         <v>51</v>
       </c>
       <c r="I45" s="6"/>
-      <c r="J45" s="6">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6">
         <v>1</v>
       </c>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="P45" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R45" s="6" t="s">
+      <c r="T45" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
       <c r="U45" s="6"/>
-      <c r="V45" s="6" t="s">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6" t="s">
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
-      <c r="AC45" s="6" t="s">
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD45" s="7">
+      <c r="AF45" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
-      <c r="AI45" s="6">
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6">
         <v>3</v>
       </c>
-      <c r="AJ45" s="6">
+      <c r="AL45" s="6">
         <v>45</v>
       </c>
-      <c r="AK45" s="9"/>
-      <c r="AL45" s="6">
+      <c r="AM45" s="9"/>
+      <c r="AN45" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>54</v>
       </c>
@@ -5417,61 +5565,63 @@
         <v>51</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="6">
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6">
         <v>1</v>
       </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6" t="s">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="P46" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6" t="s">
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
       <c r="U46" s="6"/>
-      <c r="V46" s="6" t="s">
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6" t="s">
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
-      <c r="AC46" s="6" t="s">
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD46" s="7">
+      <c r="AF46" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="6"/>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
-      <c r="AI46" s="6">
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6">
         <v>3</v>
       </c>
-      <c r="AJ46" s="6">
+      <c r="AL46" s="6">
         <v>46</v>
       </c>
-      <c r="AK46" s="9"/>
-      <c r="AL46" s="6">
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>55</v>
       </c>
@@ -5497,61 +5647,63 @@
         <v>51</v>
       </c>
       <c r="I47" s="6"/>
-      <c r="J47" s="6">
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6">
         <v>1</v>
       </c>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6" t="s">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="P47" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R47" s="6" t="s">
+      <c r="T47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
       <c r="U47" s="6"/>
-      <c r="V47" s="6" t="s">
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6" t="s">
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
-      <c r="AC47" s="6" t="s">
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD47" s="7">
+      <c r="AF47" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="6"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
-      <c r="AI47" s="6">
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6">
         <v>3</v>
       </c>
-      <c r="AJ47" s="6">
+      <c r="AL47" s="6">
         <v>47</v>
       </c>
-      <c r="AK47" s="9"/>
-      <c r="AL47" s="6">
+      <c r="AM47" s="9"/>
+      <c r="AN47" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>56</v>
       </c>
@@ -5577,61 +5729,63 @@
         <v>51</v>
       </c>
       <c r="I48" s="6"/>
-      <c r="J48" s="6">
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6">
         <v>1</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="P48" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6" t="s">
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R48" s="6" t="s">
+      <c r="T48" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
       <c r="U48" s="6"/>
-      <c r="V48" s="6" t="s">
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6" t="s">
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
-      <c r="AC48" s="6" t="s">
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD48" s="7">
+      <c r="AF48" s="7">
         <v>8.3070000000000001E-3</v>
       </c>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="6"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
-      <c r="AI48" s="6">
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6">
         <v>3</v>
       </c>
-      <c r="AJ48" s="6">
+      <c r="AL48" s="6">
         <v>48</v>
       </c>
-      <c r="AK48" s="9"/>
-      <c r="AL48" s="6">
+      <c r="AM48" s="9"/>
+      <c r="AN48" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>57</v>
       </c>
@@ -5657,61 +5811,63 @@
         <v>51</v>
       </c>
       <c r="I49" s="6"/>
-      <c r="J49" s="6">
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="N49" s="6" t="s">
+      <c r="P49" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6" t="s">
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R49" s="6" t="s">
+      <c r="T49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
-      <c r="V49" s="6" t="s">
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6" t="s">
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
-      <c r="AC49" s="6" t="s">
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD49" s="7">
+      <c r="AF49" s="7">
         <v>3.5850000000000001E-3</v>
       </c>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
       <c r="AG49" s="6"/>
       <c r="AH49" s="6"/>
-      <c r="AI49" s="6">
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6">
         <v>3</v>
       </c>
-      <c r="AJ49" s="6">
+      <c r="AL49" s="6">
         <v>104</v>
       </c>
-      <c r="AK49" s="9"/>
-      <c r="AL49" s="6">
+      <c r="AM49" s="9"/>
+      <c r="AN49" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>58</v>
       </c>
@@ -5737,61 +5893,63 @@
         <v>51</v>
       </c>
       <c r="I50" s="6"/>
-      <c r="J50" s="6">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6">
         <v>1</v>
       </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="N50" s="6" t="s">
+      <c r="P50" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6" t="s">
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R50" s="6" t="s">
+      <c r="T50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
-      <c r="V50" s="6" t="s">
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6" t="s">
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
-      <c r="AC50" s="6" t="s">
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD50" s="7">
+      <c r="AF50" s="7">
         <v>3.5850000000000001E-3</v>
       </c>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
-      <c r="AI50" s="6">
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6">
         <v>3</v>
       </c>
-      <c r="AJ50" s="6">
+      <c r="AL50" s="6">
         <v>105</v>
       </c>
-      <c r="AK50" s="9"/>
-      <c r="AL50" s="6">
+      <c r="AM50" s="9"/>
+      <c r="AN50" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>59</v>
       </c>
@@ -5817,61 +5975,63 @@
         <v>51</v>
       </c>
       <c r="I51" s="6"/>
-      <c r="J51" s="6">
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6">
         <v>1</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="N51" s="6">
+      <c r="P51" s="6">
         <v>4650075423257</v>
       </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6" t="s">
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R51" s="6" t="s">
+      <c r="T51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
       <c r="U51" s="6"/>
-      <c r="V51" s="6" t="s">
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6" t="s">
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
-      <c r="AC51" s="6" t="s">
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD51" s="7">
+      <c r="AF51" s="7">
         <v>3.5850000000000001E-3</v>
       </c>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6"/>
       <c r="AG51" s="6"/>
       <c r="AH51" s="6"/>
-      <c r="AI51" s="6">
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6">
         <v>3</v>
       </c>
-      <c r="AJ51" s="6">
+      <c r="AL51" s="6">
         <v>51</v>
       </c>
-      <c r="AK51" s="9"/>
-      <c r="AL51" s="6">
+      <c r="AM51" s="9"/>
+      <c r="AN51" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>60</v>
       </c>
@@ -5897,61 +6057,63 @@
         <v>51</v>
       </c>
       <c r="I52" s="6"/>
-      <c r="J52" s="6">
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="P52" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6" t="s">
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R52" s="6" t="s">
+      <c r="T52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
       <c r="U52" s="6"/>
-      <c r="V52" s="6" t="s">
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6" t="s">
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
-      <c r="AC52" s="6" t="s">
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD52" s="7">
+      <c r="AF52" s="7">
         <v>3.5850000000000001E-3</v>
       </c>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="6"/>
       <c r="AG52" s="6"/>
       <c r="AH52" s="6"/>
-      <c r="AI52" s="6">
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6">
         <v>3</v>
       </c>
-      <c r="AJ52" s="6">
+      <c r="AL52" s="6">
         <v>50</v>
       </c>
-      <c r="AK52" s="9"/>
-      <c r="AL52" s="6">
+      <c r="AM52" s="9"/>
+      <c r="AN52" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>61</v>
       </c>
@@ -5977,61 +6139,63 @@
         <v>51</v>
       </c>
       <c r="I53" s="6"/>
-      <c r="J53" s="6">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6">
         <v>1</v>
       </c>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6" t="s">
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="P53" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6" t="s">
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R53" s="6" t="s">
+      <c r="T53" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
       <c r="U53" s="6"/>
-      <c r="V53" s="6" t="s">
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6" t="s">
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
-      <c r="AC53" s="6" t="s">
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD53" s="7">
+      <c r="AF53" s="7">
         <v>3.5850000000000001E-3</v>
       </c>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
       <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
-      <c r="AI53" s="6">
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6">
         <v>3</v>
       </c>
-      <c r="AJ53" s="6">
+      <c r="AL53" s="6">
         <v>52</v>
       </c>
-      <c r="AK53" s="9"/>
-      <c r="AL53" s="6">
+      <c r="AM53" s="9"/>
+      <c r="AN53" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>62</v>
       </c>
@@ -6057,61 +6221,63 @@
         <v>51</v>
       </c>
       <c r="I54" s="6"/>
-      <c r="J54" s="6">
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6">
         <v>1</v>
       </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6" t="s">
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="N54" s="6">
+      <c r="P54" s="6">
         <v>4650075423233</v>
       </c>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6" t="s">
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R54" s="6" t="s">
+      <c r="T54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
       <c r="U54" s="6"/>
-      <c r="V54" s="6" t="s">
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6" t="s">
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
-      <c r="AC54" s="6" t="s">
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD54" s="7">
+      <c r="AF54" s="7">
         <v>3.5850000000000001E-3</v>
       </c>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="6"/>
       <c r="AG54" s="6"/>
       <c r="AH54" s="6"/>
-      <c r="AI54" s="6">
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6">
         <v>3</v>
       </c>
-      <c r="AJ54" s="6">
+      <c r="AL54" s="6">
         <v>53</v>
       </c>
-      <c r="AK54" s="9"/>
-      <c r="AL54" s="6">
+      <c r="AM54" s="9"/>
+      <c r="AN54" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>64</v>
       </c>
@@ -6155,23 +6321,25 @@
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
-      <c r="AD55" s="7"/>
+      <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
-      <c r="AF55" s="6"/>
+      <c r="AF55" s="7"/>
       <c r="AG55" s="6"/>
       <c r="AH55" s="6"/>
-      <c r="AI55" s="6">
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6">
         <v>1</v>
       </c>
-      <c r="AJ55" s="6">
+      <c r="AL55" s="6">
         <v>520</v>
       </c>
-      <c r="AK55" s="8" t="s">
+      <c r="AM55" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="AL55" s="6"/>
-    </row>
-    <row r="56" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN55" s="6"/>
+    </row>
+    <row r="56" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>65</v>
       </c>
@@ -6196,70 +6364,76 @@
       <c r="H56" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6">
+      <c r="I56" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6">
         <v>0.5</v>
       </c>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6" t="s">
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N56" s="6" t="s">
+      <c r="P56" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="O56" s="6" t="s">
+      <c r="Q56" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6" t="s">
+      <c r="R56" s="6"/>
+      <c r="S56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R56" s="6" t="s">
+      <c r="T56" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
-      <c r="W56" s="6" t="s">
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
-      <c r="AC56" s="6" t="s">
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD56" s="7">
+      <c r="AF56" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AE56" s="6">
+      <c r="AG56" s="6">
         <v>0</v>
       </c>
-      <c r="AF56" s="6">
+      <c r="AH56" s="6">
         <v>1</v>
       </c>
-      <c r="AG56" s="6" t="s">
+      <c r="AI56" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="AH56" s="6" t="s">
+      <c r="AJ56" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="AI56" s="6">
+      <c r="AK56" s="6">
         <v>2</v>
       </c>
-      <c r="AJ56" s="6">
+      <c r="AL56" s="6">
         <v>54</v>
       </c>
-      <c r="AK56" s="9"/>
-      <c r="AL56" s="6">
+      <c r="AM56" s="9"/>
+      <c r="AN56" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>66</v>
       </c>
@@ -6284,70 +6458,76 @@
       <c r="H57" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6">
+      <c r="I57" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6">
         <v>0.15</v>
       </c>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6" t="s">
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N57" s="6" t="s">
+      <c r="P57" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="O57" s="6" t="s">
+      <c r="Q57" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6" t="s">
+      <c r="R57" s="6"/>
+      <c r="S57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R57" s="6" t="s">
+      <c r="T57" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
-      <c r="W57" s="6" t="s">
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
-      <c r="AC57" s="6" t="s">
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD57" s="7">
+      <c r="AF57" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AE57" s="6">
+      <c r="AG57" s="6">
         <v>0</v>
       </c>
-      <c r="AF57" s="6">
+      <c r="AH57" s="6">
         <v>1</v>
       </c>
-      <c r="AG57" s="6" t="s">
+      <c r="AI57" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="AH57" s="6" t="s">
+      <c r="AJ57" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="AI57" s="6">
+      <c r="AK57" s="6">
         <v>2</v>
       </c>
-      <c r="AJ57" s="6">
+      <c r="AL57" s="6">
         <v>55</v>
       </c>
-      <c r="AK57" s="9"/>
-      <c r="AL57" s="6">
+      <c r="AM57" s="9"/>
+      <c r="AN57" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>67</v>
       </c>
@@ -6372,70 +6552,76 @@
       <c r="H58" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="10">
+      <c r="I58" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="10">
         <v>0.2</v>
       </c>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6" t="s">
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="P58" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="Q58" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6" t="s">
+      <c r="R58" s="6"/>
+      <c r="S58" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R58" s="6" t="s">
+      <c r="T58" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-      <c r="W58" s="6" t="s">
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
-      <c r="AC58" s="6" t="s">
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD58" s="7">
+      <c r="AF58" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AE58" s="6">
+      <c r="AG58" s="6">
         <v>0</v>
       </c>
-      <c r="AF58" s="6">
+      <c r="AH58" s="6">
         <v>1</v>
       </c>
-      <c r="AG58" s="6" t="s">
+      <c r="AI58" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="AH58" s="6" t="s">
+      <c r="AJ58" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="AI58" s="6">
+      <c r="AK58" s="6">
         <v>2</v>
       </c>
-      <c r="AJ58" s="6">
+      <c r="AL58" s="6">
         <v>56</v>
       </c>
-      <c r="AK58" s="9"/>
-      <c r="AL58" s="6">
+      <c r="AM58" s="9"/>
+      <c r="AN58" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>68</v>
       </c>
@@ -6479,23 +6665,25 @@
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
-      <c r="AD59" s="7"/>
+      <c r="AD59" s="6"/>
       <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
+      <c r="AF59" s="7"/>
       <c r="AG59" s="6"/>
       <c r="AH59" s="6"/>
-      <c r="AI59" s="6">
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6">
         <v>1</v>
       </c>
-      <c r="AJ59" s="6">
+      <c r="AL59" s="6">
         <v>310</v>
       </c>
-      <c r="AK59" s="8" t="s">
+      <c r="AM59" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="AL59" s="6"/>
-    </row>
-    <row r="60" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN59" s="6"/>
+    </row>
+    <row r="60" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>69</v>
       </c>
@@ -6539,25 +6727,27 @@
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
-      <c r="AD60" s="7"/>
+      <c r="AD60" s="6"/>
       <c r="AE60" s="6"/>
-      <c r="AF60" s="6"/>
+      <c r="AF60" s="7"/>
       <c r="AG60" s="6"/>
       <c r="AH60" s="6"/>
-      <c r="AI60" s="6">
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6">
         <v>1</v>
       </c>
-      <c r="AJ60" s="6">
+      <c r="AL60" s="6">
         <v>311</v>
       </c>
-      <c r="AK60" s="9">
+      <c r="AM60" s="9">
         <v>142</v>
       </c>
-      <c r="AL60" s="6">
+      <c r="AN60" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>70</v>
       </c>
@@ -6590,11 +6780,11 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
-      <c r="Q61" s="6" t="s">
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
@@ -6604,32 +6794,34 @@
       <c r="Z61" s="6"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
-      <c r="AC61" s="6" t="s">
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD61" s="7">
+      <c r="AF61" s="7">
         <v>0.1275</v>
       </c>
-      <c r="AE61" s="6"/>
-      <c r="AF61" s="6"/>
-      <c r="AG61" s="6" t="s">
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AH61" s="6"/>
-      <c r="AI61" s="6">
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6">
         <v>2</v>
       </c>
-      <c r="AJ61" s="6">
+      <c r="AL61" s="6">
         <v>62</v>
       </c>
-      <c r="AK61" s="8" t="s">
+      <c r="AM61" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="AL61" s="6">
+      <c r="AN61" s="6">
         <v>311</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>71</v>
       </c>
@@ -6655,57 +6847,59 @@
         <v>241</v>
       </c>
       <c r="I62" s="6"/>
-      <c r="J62" s="6">
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6">
         <v>0.5</v>
       </c>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6" t="s">
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N62" s="6" t="s">
+      <c r="P62" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
-      <c r="R62" s="6" t="s">
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
-      <c r="W62" s="6" t="s">
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
       <c r="Z62" s="6"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
-      <c r="AC62" s="6" t="s">
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD62" s="7"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="6"/>
-      <c r="AG62" s="6" t="s">
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="6"/>
+      <c r="AI62" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AH62" s="6"/>
-      <c r="AI62" s="6">
+      <c r="AJ62" s="6"/>
+      <c r="AK62" s="6">
         <v>3</v>
       </c>
-      <c r="AJ62" s="6">
+      <c r="AL62" s="6">
         <v>63</v>
       </c>
-      <c r="AK62" s="9"/>
-      <c r="AL62" s="6">
+      <c r="AM62" s="9"/>
+      <c r="AN62" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>72</v>
       </c>
@@ -6731,55 +6925,57 @@
         <v>248</v>
       </c>
       <c r="I63" s="6"/>
-      <c r="J63" s="6">
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6">
         <v>0.01</v>
       </c>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6" t="s">
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N63" s="6" t="s">
+      <c r="P63" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-      <c r="R63" s="6" t="s">
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
-      <c r="W63" s="6" t="s">
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
-      <c r="AC63" s="6" t="s">
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD63" s="7"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
+      <c r="AF63" s="7"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6"/>
-      <c r="AI63" s="6">
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6">
         <v>3</v>
       </c>
-      <c r="AJ63" s="6">
+      <c r="AL63" s="6">
         <v>64</v>
       </c>
-      <c r="AK63" s="9"/>
-      <c r="AL63" s="6">
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>73</v>
       </c>
@@ -6823,25 +7019,27 @@
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
-      <c r="AD64" s="7"/>
+      <c r="AD64" s="6"/>
       <c r="AE64" s="6"/>
-      <c r="AF64" s="6"/>
+      <c r="AF64" s="7"/>
       <c r="AG64" s="6"/>
       <c r="AH64" s="6"/>
-      <c r="AI64" s="6">
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6">
         <v>1</v>
       </c>
-      <c r="AJ64" s="6">
+      <c r="AL64" s="6">
         <v>312</v>
       </c>
-      <c r="AK64" s="8" t="s">
+      <c r="AM64" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="AL64" s="6">
+      <c r="AN64" s="6">
         <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>74</v>
       </c>
@@ -6867,59 +7065,61 @@
         <v>256</v>
       </c>
       <c r="I65" s="6"/>
-      <c r="J65" s="6">
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6">
         <v>1</v>
       </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="6" t="s">
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
-      <c r="R65" s="6" t="s">
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
-      <c r="X65" s="6" t="s">
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
-      <c r="AC65" s="6" t="s">
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD65" s="7">
+      <c r="AF65" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="6"/>
-      <c r="AG65" s="6" t="s">
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AH65" s="6" t="s">
+      <c r="AJ65" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="AI65" s="6">
+      <c r="AK65" s="6">
         <v>2</v>
       </c>
-      <c r="AJ65" s="6">
+      <c r="AL65" s="6">
         <v>65</v>
       </c>
-      <c r="AK65" s="9"/>
-      <c r="AL65" s="6">
+      <c r="AM65" s="9"/>
+      <c r="AN65" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>75</v>
       </c>
@@ -6945,61 +7145,63 @@
         <v>263</v>
       </c>
       <c r="I66" s="6"/>
-      <c r="J66" s="6">
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6">
         <v>1</v>
       </c>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6" t="s">
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N66" s="6" t="s">
+      <c r="P66" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
-      <c r="R66" s="6" t="s">
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
-      <c r="W66" s="6" t="s">
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
-      <c r="AC66" s="6" t="s">
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD66" s="7">
+      <c r="AF66" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AE66" s="6"/>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="6" t="s">
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="AH66" s="6" t="s">
+      <c r="AJ66" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="AI66" s="6">
+      <c r="AK66" s="6">
         <v>2</v>
       </c>
-      <c r="AJ66" s="6">
+      <c r="AL66" s="6">
         <v>66</v>
       </c>
-      <c r="AK66" s="9"/>
-      <c r="AL66" s="6">
+      <c r="AM66" s="9"/>
+      <c r="AN66" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>76</v>
       </c>
@@ -7026,62 +7228,64 @@
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="6">
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6">
         <v>1</v>
       </c>
-      <c r="L67" s="6">
+      <c r="N67" s="6">
         <v>15</v>
       </c>
-      <c r="M67" s="6" t="s">
+      <c r="O67" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N67" s="6" t="s">
+      <c r="P67" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
-      <c r="R67" s="6" t="s">
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
-      <c r="W67" s="6" t="s">
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
-      <c r="AC67" s="6" t="s">
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD67" s="7">
+      <c r="AF67" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AE67" s="6"/>
-      <c r="AF67" s="6"/>
-      <c r="AG67" s="6" t="s">
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="AH67" s="6" t="s">
+      <c r="AJ67" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="AI67" s="6">
+      <c r="AK67" s="6">
         <v>2</v>
       </c>
-      <c r="AJ67" s="6">
+      <c r="AL67" s="6">
         <v>67</v>
       </c>
-      <c r="AK67" s="9"/>
-      <c r="AL67" s="6">
+      <c r="AM67" s="9"/>
+      <c r="AN67" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>77</v>
       </c>
@@ -7125,23 +7329,25 @@
       <c r="AA68" s="6"/>
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
-      <c r="AD68" s="7"/>
+      <c r="AD68" s="6"/>
       <c r="AE68" s="6"/>
-      <c r="AF68" s="6"/>
+      <c r="AF68" s="7"/>
       <c r="AG68" s="6"/>
       <c r="AH68" s="6"/>
-      <c r="AI68" s="6">
+      <c r="AI68" s="6"/>
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="6">
         <v>1</v>
       </c>
-      <c r="AJ68" s="6">
+      <c r="AL68" s="6">
         <v>400</v>
       </c>
-      <c r="AK68" s="8" t="s">
+      <c r="AM68" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="AL68" s="6"/>
-    </row>
-    <row r="69" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN68" s="6"/>
+    </row>
+    <row r="69" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>78</v>
       </c>
@@ -7165,20 +7371,20 @@
         <v>273</v>
       </c>
       <c r="I69" s="6"/>
-      <c r="J69" s="6">
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6">
         <v>1</v>
       </c>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
-      <c r="Q69" s="6" t="s">
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
@@ -7188,30 +7394,32 @@
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="6"/>
-      <c r="AC69" s="6" t="s">
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD69" s="7">
+      <c r="AF69" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="AE69" s="6"/>
-      <c r="AF69" s="6"/>
       <c r="AG69" s="6"/>
       <c r="AH69" s="6"/>
-      <c r="AI69" s="6">
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6">
         <v>2</v>
       </c>
-      <c r="AJ69" s="6">
+      <c r="AL69" s="6">
         <v>130</v>
       </c>
-      <c r="AK69" s="9">
+      <c r="AM69" s="9">
         <v>57</v>
       </c>
-      <c r="AL69" s="6">
+      <c r="AN69" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>79</v>
       </c>
@@ -7235,59 +7443,61 @@
         <v>51</v>
       </c>
       <c r="I70" s="6"/>
-      <c r="J70" s="6">
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6">
         <v>4</v>
       </c>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6" t="s">
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N70" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="O70" s="6"/>
       <c r="P70" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="Q70" s="6" t="s">
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="S70" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R70" s="6" t="s">
+      <c r="T70" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
-      <c r="X70" s="6" t="s">
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
-      <c r="AC70" s="6" t="s">
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD70" s="7"/>
-      <c r="AE70" s="6"/>
-      <c r="AF70" s="6"/>
+      <c r="AF70" s="7"/>
       <c r="AG70" s="6"/>
       <c r="AH70" s="6"/>
-      <c r="AI70" s="6">
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6">
         <v>3</v>
       </c>
-      <c r="AJ70" s="6">
+      <c r="AL70" s="6">
         <v>57</v>
       </c>
-      <c r="AK70" s="9"/>
-      <c r="AL70" s="6">
+      <c r="AM70" s="9"/>
+      <c r="AN70" s="6">
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>83</v>
       </c>
@@ -7313,55 +7523,57 @@
         <v>281</v>
       </c>
       <c r="I71" s="6"/>
-      <c r="J71" s="6">
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6">
         <v>1</v>
       </c>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
-      <c r="Q71" s="6" t="s">
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
-      <c r="X71" s="6" t="s">
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
-      <c r="AC71" s="6" t="s">
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD71" s="7">
+      <c r="AF71" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE71" s="6"/>
-      <c r="AF71" s="6"/>
       <c r="AG71" s="6"/>
       <c r="AH71" s="6"/>
-      <c r="AI71" s="6">
+      <c r="AI71" s="6"/>
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6">
         <v>2</v>
       </c>
-      <c r="AJ71" s="6">
+      <c r="AL71" s="6">
         <v>68</v>
       </c>
-      <c r="AK71" s="9">
+      <c r="AM71" s="9">
         <v>69</v>
       </c>
-      <c r="AL71" s="6">
+      <c r="AN71" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>84</v>
       </c>
@@ -7387,53 +7599,55 @@
         <v>286</v>
       </c>
       <c r="I72" s="6"/>
-      <c r="J72" s="6">
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6">
         <v>2</v>
       </c>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="6" t="s">
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
-      <c r="X72" s="6" t="s">
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
-      <c r="AC72" s="6" t="s">
+      <c r="AC72" s="6"/>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD72" s="7"/>
-      <c r="AE72" s="6"/>
-      <c r="AF72" s="6"/>
+      <c r="AF72" s="7"/>
       <c r="AG72" s="6"/>
       <c r="AH72" s="6"/>
-      <c r="AI72" s="6">
+      <c r="AI72" s="6"/>
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="6">
         <v>3</v>
       </c>
-      <c r="AJ72" s="6">
+      <c r="AL72" s="6">
         <v>69</v>
       </c>
-      <c r="AK72" s="8" t="s">
+      <c r="AM72" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="AL72" s="6">
+      <c r="AN72" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>85</v>
       </c>
@@ -7459,59 +7673,61 @@
         <v>51</v>
       </c>
       <c r="I73" s="6"/>
-      <c r="J73" s="6">
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6">
         <v>1</v>
       </c>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6" t="s">
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="N73" s="6" t="s">
+      <c r="P73" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="O73" s="6" t="s">
+      <c r="Q73" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6" t="s">
+      <c r="R73" s="6"/>
+      <c r="S73" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R73" s="6" t="s">
+      <c r="T73" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
-      <c r="X73" s="6" t="s">
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
-      <c r="AC73" s="6" t="s">
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD73" s="7"/>
-      <c r="AE73" s="6"/>
-      <c r="AF73" s="6"/>
+      <c r="AF73" s="7"/>
       <c r="AG73" s="6"/>
       <c r="AH73" s="6"/>
-      <c r="AI73" s="6">
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6">
         <v>4</v>
       </c>
-      <c r="AJ73" s="6">
+      <c r="AL73" s="6">
         <v>70</v>
       </c>
-      <c r="AK73" s="9"/>
-      <c r="AL73" s="6">
+      <c r="AM73" s="9"/>
+      <c r="AN73" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>86</v>
       </c>
@@ -7537,57 +7753,59 @@
         <v>51</v>
       </c>
       <c r="I74" s="6"/>
-      <c r="J74" s="6">
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6">
         <v>1</v>
       </c>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6" t="s">
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="P74" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6" t="s">
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R74" s="6" t="s">
+      <c r="T74" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
-      <c r="X74" s="6" t="s">
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
-      <c r="AC74" s="6" t="s">
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD74" s="7"/>
-      <c r="AE74" s="6"/>
-      <c r="AF74" s="6"/>
+      <c r="AF74" s="7"/>
       <c r="AG74" s="6"/>
       <c r="AH74" s="6"/>
-      <c r="AI74" s="6">
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6">
         <v>4</v>
       </c>
-      <c r="AJ74" s="6">
+      <c r="AL74" s="6">
         <v>71</v>
       </c>
-      <c r="AK74" s="9"/>
-      <c r="AL74" s="6">
+      <c r="AM74" s="9"/>
+      <c r="AN74" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>87</v>
       </c>
@@ -7613,55 +7831,57 @@
         <v>281</v>
       </c>
       <c r="I75" s="6"/>
-      <c r="J75" s="6">
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6">
         <v>1</v>
       </c>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
-      <c r="Q75" s="6" t="s">
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
-      <c r="X75" s="6" t="s">
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
-      <c r="AC75" s="6" t="s">
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD75" s="7">
+      <c r="AF75" s="7">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AE75" s="6"/>
-      <c r="AF75" s="6"/>
       <c r="AG75" s="6"/>
       <c r="AH75" s="6"/>
-      <c r="AI75" s="6">
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6">
         <v>2</v>
       </c>
-      <c r="AJ75" s="6">
+      <c r="AL75" s="6">
         <v>680</v>
       </c>
-      <c r="AK75" s="8" t="s">
+      <c r="AM75" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="AL75" s="6">
+      <c r="AN75" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>88</v>
       </c>
@@ -7687,53 +7907,55 @@
         <v>286</v>
       </c>
       <c r="I76" s="6"/>
-      <c r="J76" s="6">
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6">
         <v>2</v>
       </c>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
-      <c r="Q76" s="6" t="s">
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
-      <c r="X76" s="6" t="s">
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
-      <c r="AC76" s="6" t="s">
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD76" s="7"/>
-      <c r="AE76" s="6"/>
-      <c r="AF76" s="6"/>
+      <c r="AF76" s="7"/>
       <c r="AG76" s="6"/>
       <c r="AH76" s="6"/>
-      <c r="AI76" s="6">
+      <c r="AI76" s="6"/>
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="6">
         <v>3</v>
       </c>
-      <c r="AJ76" s="6">
+      <c r="AL76" s="6">
         <v>72</v>
       </c>
-      <c r="AK76" s="8" t="s">
+      <c r="AM76" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="AL76" s="6">
+      <c r="AN76" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>89</v>
       </c>
@@ -7759,59 +7981,61 @@
         <v>51</v>
       </c>
       <c r="I77" s="6"/>
-      <c r="J77" s="6">
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6">
         <v>1</v>
       </c>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-      <c r="N77" s="6" t="s">
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="O77" s="6" t="s">
+      <c r="Q77" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="P77" s="6" t="s">
+      <c r="R77" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="Q77" s="6" t="s">
+      <c r="S77" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R77" s="6" t="s">
+      <c r="T77" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
-      <c r="X77" s="6" t="s">
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
-      <c r="AC77" s="6" t="s">
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD77" s="7"/>
-      <c r="AE77" s="6"/>
-      <c r="AF77" s="6"/>
+      <c r="AF77" s="7"/>
       <c r="AG77" s="6"/>
       <c r="AH77" s="6"/>
-      <c r="AI77" s="6">
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6">
         <v>4</v>
       </c>
-      <c r="AJ77" s="6">
+      <c r="AL77" s="6">
         <v>73</v>
       </c>
-      <c r="AK77" s="9"/>
-      <c r="AL77" s="6">
+      <c r="AM77" s="9"/>
+      <c r="AN77" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>90</v>
       </c>
@@ -7837,57 +8061,59 @@
         <v>51</v>
       </c>
       <c r="I78" s="6"/>
-      <c r="J78" s="6">
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6">
         <v>1</v>
       </c>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6" t="s">
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="N78" s="6" t="s">
+      <c r="P78" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6" t="s">
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R78" s="6" t="s">
+      <c r="T78" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
-      <c r="W78" s="6" t="s">
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
-      <c r="AC78" s="6" t="s">
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD78" s="7"/>
-      <c r="AE78" s="6"/>
-      <c r="AF78" s="6"/>
+      <c r="AF78" s="7"/>
       <c r="AG78" s="6"/>
       <c r="AH78" s="6"/>
-      <c r="AI78" s="6">
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6">
         <v>4</v>
       </c>
-      <c r="AJ78" s="6">
+      <c r="AL78" s="6">
         <v>74</v>
       </c>
-      <c r="AK78" s="9"/>
-      <c r="AL78" s="6">
+      <c r="AM78" s="9"/>
+      <c r="AN78" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>91</v>
       </c>
@@ -7913,53 +8139,55 @@
         <v>286</v>
       </c>
       <c r="I79" s="6"/>
-      <c r="J79" s="6">
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6">
         <v>2</v>
       </c>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
-      <c r="Q79" s="6" t="s">
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
-      <c r="X79" s="6" t="s">
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
-      <c r="AC79" s="6" t="s">
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD79" s="7"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="6"/>
+      <c r="AF79" s="7"/>
       <c r="AG79" s="6"/>
       <c r="AH79" s="6"/>
-      <c r="AI79" s="6">
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6">
         <v>3</v>
       </c>
-      <c r="AJ79" s="6">
+      <c r="AL79" s="6">
         <v>769</v>
       </c>
-      <c r="AK79" s="8" t="s">
+      <c r="AM79" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="AL79" s="6">
+      <c r="AN79" s="6">
         <v>680</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>92</v>
       </c>
@@ -7985,61 +8213,63 @@
         <v>51</v>
       </c>
       <c r="I80" s="6"/>
-      <c r="J80" s="6">
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6">
         <v>1</v>
       </c>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6" t="s">
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="N80" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="O80" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>318</v>
       </c>
       <c r="Q80" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="S80" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R80" s="6" t="s">
+      <c r="T80" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
-      <c r="X80" s="6" t="s">
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
-      <c r="AC80" s="6" t="s">
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD80" s="7"/>
-      <c r="AE80" s="6"/>
-      <c r="AF80" s="6"/>
+      <c r="AF80" s="7"/>
       <c r="AG80" s="6"/>
       <c r="AH80" s="6"/>
-      <c r="AI80" s="6">
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6">
         <v>4</v>
       </c>
-      <c r="AJ80" s="6">
+      <c r="AL80" s="6">
         <v>770</v>
       </c>
-      <c r="AK80" s="9"/>
-      <c r="AL80" s="6">
+      <c r="AM80" s="9"/>
+      <c r="AN80" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>93</v>
       </c>
@@ -8065,57 +8295,59 @@
         <v>51</v>
       </c>
       <c r="I81" s="6"/>
-      <c r="J81" s="6">
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6">
         <v>1</v>
       </c>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6" t="s">
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="N81" s="6" t="s">
+      <c r="P81" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6" t="s">
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R81" s="6" t="s">
+      <c r="T81" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
-      <c r="X81" s="6" t="s">
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
-      <c r="AC81" s="6" t="s">
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD81" s="7"/>
-      <c r="AE81" s="6"/>
-      <c r="AF81" s="6"/>
+      <c r="AF81" s="7"/>
       <c r="AG81" s="6"/>
       <c r="AH81" s="6"/>
-      <c r="AI81" s="6">
+      <c r="AI81" s="6"/>
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6">
         <v>4</v>
       </c>
-      <c r="AJ81" s="6">
+      <c r="AL81" s="6">
         <v>771</v>
       </c>
-      <c r="AK81" s="9"/>
-      <c r="AL81" s="6">
+      <c r="AM81" s="9"/>
+      <c r="AN81" s="6">
         <v>769</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>94</v>
       </c>
@@ -8141,63 +8373,65 @@
         <v>51</v>
       </c>
       <c r="I82" s="6"/>
-      <c r="J82" s="6">
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6">
         <v>8</v>
       </c>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6" t="s">
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="N82" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="O82" s="6"/>
       <c r="P82" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="Q82" s="6" t="s">
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="S82" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R82" s="6" t="s">
+      <c r="T82" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="S82" s="6">
+      <c r="U82" s="6">
         <v>0.5</v>
       </c>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
-      <c r="X82" s="6" t="s">
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
-      <c r="AC82" s="6" t="s">
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AD82" s="7">
+      <c r="AF82" s="7">
         <v>0.03</v>
       </c>
-      <c r="AE82" s="6"/>
-      <c r="AF82" s="6"/>
       <c r="AG82" s="6"/>
       <c r="AH82" s="6"/>
-      <c r="AI82" s="6">
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6"/>
+      <c r="AK82" s="6">
         <v>2</v>
       </c>
-      <c r="AJ82" s="6">
+      <c r="AL82" s="6">
         <v>820</v>
       </c>
-      <c r="AK82" s="9"/>
-      <c r="AL82" s="6">
+      <c r="AM82" s="9"/>
+      <c r="AN82" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>95</v>
       </c>
@@ -8241,25 +8475,27 @@
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
       <c r="AC83" s="6"/>
-      <c r="AD83" s="7"/>
+      <c r="AD83" s="6"/>
       <c r="AE83" s="6"/>
-      <c r="AF83" s="6"/>
+      <c r="AF83" s="7"/>
       <c r="AG83" s="6"/>
       <c r="AH83" s="6"/>
-      <c r="AI83" s="6">
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6">
         <v>1</v>
       </c>
-      <c r="AJ83" s="6">
+      <c r="AL83" s="6">
         <v>330</v>
       </c>
-      <c r="AK83" s="8" t="s">
+      <c r="AM83" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="AL83" s="6">
+      <c r="AN83" s="6">
         <v>520</v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>96</v>
       </c>
@@ -8285,69 +8521,71 @@
         <v>211</v>
       </c>
       <c r="I84" s="6"/>
-      <c r="J84" s="6">
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6">
         <v>0.5</v>
       </c>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6" t="s">
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N84" s="6" t="s">
+      <c r="P84" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="O84" s="6" t="s">
+      <c r="Q84" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6" t="s">
+      <c r="R84" s="6"/>
+      <c r="S84" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R84" s="6" t="s">
+      <c r="T84" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
-      <c r="W84" s="6" t="s">
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="6"/>
-      <c r="AC84" s="6" t="s">
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD84" s="7">
+      <c r="AF84" s="7">
         <v>0.02</v>
       </c>
-      <c r="AE84" s="6">
+      <c r="AG84" s="6">
         <v>0</v>
       </c>
-      <c r="AF84" s="6">
+      <c r="AH84" s="6">
         <v>1</v>
       </c>
-      <c r="AG84" s="6" t="s">
+      <c r="AI84" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="AH84" s="6" t="s">
+      <c r="AJ84" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AI84" s="6">
+      <c r="AK84" s="6">
         <v>2</v>
       </c>
-      <c r="AJ84" s="6">
+      <c r="AL84" s="6">
         <v>75</v>
       </c>
-      <c r="AK84" s="9"/>
-      <c r="AL84" s="6">
+      <c r="AM84" s="9"/>
+      <c r="AN84" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>97</v>
       </c>
@@ -8373,69 +8611,71 @@
         <v>211</v>
       </c>
       <c r="I85" s="6"/>
-      <c r="J85" s="6">
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6">
         <v>0.15</v>
       </c>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6" t="s">
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N85" s="6" t="s">
+      <c r="P85" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="O85" s="6" t="s">
+      <c r="Q85" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6" t="s">
+      <c r="R85" s="6"/>
+      <c r="S85" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R85" s="6" t="s">
+      <c r="T85" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
-      <c r="W85" s="6" t="s">
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
-      <c r="AC85" s="6" t="s">
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD85" s="7">
+      <c r="AF85" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE85" s="6">
+      <c r="AG85" s="6">
         <v>0</v>
       </c>
-      <c r="AF85" s="6">
+      <c r="AH85" s="6">
         <v>1</v>
       </c>
-      <c r="AG85" s="6" t="s">
+      <c r="AI85" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="AH85" s="6" t="s">
+      <c r="AJ85" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AI85" s="6">
+      <c r="AK85" s="6">
         <v>2</v>
       </c>
-      <c r="AJ85" s="6">
+      <c r="AL85" s="6">
         <v>76</v>
       </c>
-      <c r="AK85" s="9"/>
-      <c r="AL85" s="6">
+      <c r="AM85" s="9"/>
+      <c r="AN85" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>98</v>
       </c>
@@ -8461,69 +8701,71 @@
         <v>211</v>
       </c>
       <c r="I86" s="6"/>
-      <c r="J86" s="6">
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6">
         <v>0.2</v>
       </c>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6" t="s">
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N86" s="6" t="s">
+      <c r="P86" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="O86" s="6" t="s">
+      <c r="Q86" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6" t="s">
+      <c r="R86" s="6"/>
+      <c r="S86" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R86" s="6" t="s">
+      <c r="T86" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
-      <c r="W86" s="6" t="s">
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
-      <c r="AC86" s="6" t="s">
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD86" s="7">
+      <c r="AF86" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AE86" s="6">
+      <c r="AG86" s="6">
         <v>0</v>
       </c>
-      <c r="AF86" s="6">
+      <c r="AH86" s="6">
         <v>1</v>
       </c>
-      <c r="AG86" s="6" t="s">
+      <c r="AI86" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="AH86" s="6" t="s">
+      <c r="AJ86" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AI86" s="6">
+      <c r="AK86" s="6">
         <v>2</v>
       </c>
-      <c r="AJ86" s="6">
+      <c r="AL86" s="6">
         <v>77</v>
       </c>
-      <c r="AK86" s="9"/>
-      <c r="AL86" s="6">
+      <c r="AM86" s="9"/>
+      <c r="AN86" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>99</v>
       </c>
@@ -8549,69 +8791,71 @@
         <v>211</v>
       </c>
       <c r="I87" s="6"/>
-      <c r="J87" s="6">
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6">
         <v>0.4</v>
       </c>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6" t="s">
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N87" s="6" t="s">
+      <c r="P87" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="O87" s="6" t="s">
+      <c r="Q87" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6" t="s">
+      <c r="R87" s="6"/>
+      <c r="S87" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R87" s="6" t="s">
+      <c r="T87" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
-      <c r="W87" s="6" t="s">
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
-      <c r="AC87" s="6" t="s">
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD87" s="7">
+      <c r="AF87" s="7">
         <v>0.02</v>
       </c>
-      <c r="AE87" s="6">
+      <c r="AG87" s="6">
         <v>0</v>
       </c>
-      <c r="AF87" s="6">
+      <c r="AH87" s="6">
         <v>1</v>
       </c>
-      <c r="AG87" s="6" t="s">
+      <c r="AI87" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="AH87" s="6" t="s">
+      <c r="AJ87" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AI87" s="6">
+      <c r="AK87" s="6">
         <v>2</v>
       </c>
-      <c r="AJ87" s="6">
+      <c r="AL87" s="6">
         <v>777</v>
       </c>
-      <c r="AK87" s="9"/>
-      <c r="AL87" s="6">
+      <c r="AM87" s="9"/>
+      <c r="AN87" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>100</v>
       </c>
@@ -8637,69 +8881,71 @@
         <v>211</v>
       </c>
       <c r="I88" s="6"/>
-      <c r="J88" s="6">
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6">
         <v>0.3</v>
       </c>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6" t="s">
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N88" s="6" t="s">
+      <c r="P88" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="O88" s="6" t="s">
+      <c r="Q88" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6" t="s">
+      <c r="R88" s="6"/>
+      <c r="S88" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R88" s="6" t="s">
+      <c r="T88" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
-      <c r="W88" s="6" t="s">
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
-      <c r="AC88" s="6" t="s">
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AD88" s="7">
+      <c r="AF88" s="7">
         <v>0.03</v>
       </c>
-      <c r="AE88" s="6">
+      <c r="AG88" s="6">
         <v>0</v>
       </c>
-      <c r="AF88" s="6">
+      <c r="AH88" s="6">
         <v>1</v>
       </c>
-      <c r="AG88" s="6" t="s">
+      <c r="AI88" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="AH88" s="6" t="s">
+      <c r="AJ88" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AI88" s="6">
+      <c r="AK88" s="6">
         <v>2</v>
       </c>
-      <c r="AJ88" s="6">
+      <c r="AL88" s="6">
         <v>778</v>
       </c>
-      <c r="AK88" s="9"/>
-      <c r="AL88" s="6">
+      <c r="AM88" s="9"/>
+      <c r="AN88" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>101</v>
       </c>
@@ -8724,22 +8970,22 @@
       <c r="H89" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
-      <c r="R89" s="6" t="s">
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
@@ -8749,21 +8995,23 @@
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
       <c r="AC89" s="6"/>
-      <c r="AD89" s="7"/>
+      <c r="AD89" s="6"/>
       <c r="AE89" s="6"/>
-      <c r="AF89" s="6"/>
+      <c r="AF89" s="7"/>
       <c r="AG89" s="6"/>
       <c r="AH89" s="6"/>
       <c r="AI89" s="6"/>
-      <c r="AJ89" s="6">
+      <c r="AJ89" s="6"/>
+      <c r="AK89" s="6"/>
+      <c r="AL89" s="6">
         <v>78</v>
       </c>
-      <c r="AK89" s="8" t="s">
+      <c r="AM89" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="AL89" s="6"/>
-    </row>
-    <row r="90" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN89" s="6"/>
+    </row>
+    <row r="90" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>102</v>
       </c>
@@ -8788,24 +9036,24 @@
       <c r="H90" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
-      <c r="R90" s="6" t="s">
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
@@ -8815,21 +9063,23 @@
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
       <c r="AC90" s="6"/>
-      <c r="AD90" s="7"/>
+      <c r="AD90" s="6"/>
       <c r="AE90" s="6"/>
-      <c r="AF90" s="6"/>
+      <c r="AF90" s="7"/>
       <c r="AG90" s="6"/>
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
-      <c r="AJ90" s="6">
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6">
         <v>79</v>
       </c>
-      <c r="AK90" s="9">
+      <c r="AM90" s="9">
         <v>68</v>
       </c>
-      <c r="AL90" s="6"/>
-    </row>
-    <row r="91" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN90" s="6"/>
+    </row>
+    <row r="91" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>103</v>
       </c>
@@ -8854,24 +9104,24 @@
       <c r="H91" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
-      <c r="R91" s="6" t="s">
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
@@ -8881,21 +9131,23 @@
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
       <c r="AC91" s="6"/>
-      <c r="AD91" s="7"/>
+      <c r="AD91" s="6"/>
       <c r="AE91" s="6"/>
-      <c r="AF91" s="6"/>
+      <c r="AF91" s="7"/>
       <c r="AG91" s="6"/>
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
-      <c r="AJ91" s="6">
+      <c r="AJ91" s="6"/>
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="6">
         <v>80</v>
       </c>
-      <c r="AK91" s="9">
+      <c r="AM91" s="9">
         <v>130</v>
       </c>
-      <c r="AL91" s="6"/>
-    </row>
-    <row r="92" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN91" s="6"/>
+    </row>
+    <row r="92" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>104</v>
       </c>
@@ -8920,22 +9172,22 @@
       <c r="H92" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
-      <c r="R92" s="6" t="s">
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
@@ -8945,21 +9197,23 @@
       <c r="AA92" s="6"/>
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
-      <c r="AD92" s="7"/>
+      <c r="AD92" s="6"/>
       <c r="AE92" s="6"/>
-      <c r="AF92" s="6"/>
+      <c r="AF92" s="7"/>
       <c r="AG92" s="6"/>
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
-      <c r="AJ92" s="6">
+      <c r="AJ92" s="6"/>
+      <c r="AK92" s="6"/>
+      <c r="AL92" s="6">
         <v>82</v>
       </c>
-      <c r="AK92" s="9">
+      <c r="AM92" s="9">
         <v>76</v>
       </c>
-      <c r="AL92" s="6"/>
-    </row>
-    <row r="93" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN92" s="6"/>
+    </row>
+    <row r="93" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>105</v>
       </c>
@@ -8984,22 +9238,22 @@
       <c r="H93" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
-      <c r="R93" s="6" t="s">
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
@@ -9009,21 +9263,23 @@
       <c r="AA93" s="6"/>
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
-      <c r="AD93" s="7"/>
+      <c r="AD93" s="6"/>
       <c r="AE93" s="6"/>
-      <c r="AF93" s="6"/>
+      <c r="AF93" s="7"/>
       <c r="AG93" s="6"/>
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
-      <c r="AJ93" s="6">
+      <c r="AJ93" s="6"/>
+      <c r="AK93" s="6"/>
+      <c r="AL93" s="6">
         <v>83</v>
       </c>
-      <c r="AK93" s="9">
+      <c r="AM93" s="9">
         <v>77</v>
       </c>
-      <c r="AL93" s="6"/>
-    </row>
-    <row r="94" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN93" s="6"/>
+    </row>
+    <row r="94" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>106</v>
       </c>
@@ -9048,22 +9304,22 @@
       <c r="H94" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
-      <c r="R94" s="6" t="s">
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
@@ -9073,21 +9329,23 @@
       <c r="AA94" s="6"/>
       <c r="AB94" s="6"/>
       <c r="AC94" s="6"/>
-      <c r="AD94" s="7"/>
+      <c r="AD94" s="6"/>
       <c r="AE94" s="6"/>
-      <c r="AF94" s="6"/>
+      <c r="AF94" s="7"/>
       <c r="AG94" s="6"/>
       <c r="AH94" s="6"/>
       <c r="AI94" s="6"/>
-      <c r="AJ94" s="6">
+      <c r="AJ94" s="6"/>
+      <c r="AK94" s="6"/>
+      <c r="AL94" s="6">
         <v>84</v>
       </c>
-      <c r="AK94" s="9">
+      <c r="AM94" s="9">
         <v>75</v>
       </c>
-      <c r="AL94" s="6"/>
-    </row>
-    <row r="95" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN94" s="6"/>
+    </row>
+    <row r="95" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>107</v>
       </c>
@@ -9112,26 +9370,26 @@
       <c r="H95" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="6" t="s">
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="P95" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
-      <c r="R95" s="6" t="s">
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
@@ -9141,21 +9399,23 @@
       <c r="AA95" s="6"/>
       <c r="AB95" s="6"/>
       <c r="AC95" s="6"/>
-      <c r="AD95" s="7"/>
+      <c r="AD95" s="6"/>
       <c r="AE95" s="6"/>
-      <c r="AF95" s="6"/>
+      <c r="AF95" s="7"/>
       <c r="AG95" s="6"/>
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
-      <c r="AJ95" s="6">
+      <c r="AJ95" s="6"/>
+      <c r="AK95" s="6"/>
+      <c r="AL95" s="6">
         <v>85</v>
       </c>
-      <c r="AK95" s="8" t="s">
+      <c r="AM95" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="AL95" s="6"/>
-    </row>
-    <row r="96" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN95" s="6"/>
+    </row>
+    <row r="96" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>108</v>
       </c>
@@ -9180,48 +9440,50 @@
       <c r="H96" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="I96" s="6" t="s">
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
-      <c r="N96" s="6" t="s">
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
-      <c r="R96" s="6" t="s">
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
-      <c r="W96" s="6" t="s">
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="6"/>
       <c r="AC96" s="6"/>
-      <c r="AD96" s="7"/>
+      <c r="AD96" s="6"/>
       <c r="AE96" s="6"/>
-      <c r="AF96" s="6"/>
+      <c r="AF96" s="7"/>
       <c r="AG96" s="6"/>
       <c r="AH96" s="6"/>
       <c r="AI96" s="6"/>
-      <c r="AJ96" s="6">
+      <c r="AJ96" s="6"/>
+      <c r="AK96" s="6"/>
+      <c r="AL96" s="6">
         <v>86</v>
       </c>
-      <c r="AK96" s="9"/>
-      <c r="AL96" s="6"/>
-    </row>
-    <row r="97" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AM96" s="9"/>
+      <c r="AN96" s="6"/>
+    </row>
+    <row r="97" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>109</v>
       </c>
@@ -9244,22 +9506,22 @@
       <c r="H97" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="I97" s="6" t="s">
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
-      <c r="R97" s="6" t="s">
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
@@ -9269,20 +9531,22 @@
       <c r="AA97" s="6"/>
       <c r="AB97" s="6"/>
       <c r="AC97" s="6"/>
-      <c r="AD97" s="7"/>
+      <c r="AD97" s="6"/>
       <c r="AE97" s="6"/>
-      <c r="AF97" s="6"/>
+      <c r="AF97" s="7"/>
       <c r="AG97" s="6"/>
       <c r="AH97" s="6"/>
       <c r="AI97" s="6"/>
-      <c r="AJ97" s="6">
+      <c r="AJ97" s="6"/>
+      <c r="AK97" s="6"/>
+      <c r="AL97" s="6">
         <v>521</v>
       </c>
-      <c r="AK97" s="9"/>
-      <c r="AL97" s="6"/>
+      <c r="AM97" s="9"/>
+      <c r="AN97" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL97" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AN97" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -9294,12 +9558,12 @@
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -9340,7 +9604,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>384</v>
       </c>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - IC Petroleum - REG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40A7FE-E2EF-452A-83FE-A77A7662877B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A86AED-DE75-4633-94EB-E22B90659EB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Petrol!$A$1:$AN$97</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -238,9 +238,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -977,9 +974,6 @@
     <t>AND</t>
   </si>
   <si>
-    <t>Menu Board, Café Activation, Cash Zone, SS_Menu Board - Petrol, SS_Café Activation, SS_Cash Zone - Petrol</t>
-  </si>
-  <si>
     <t>OCCASIONS</t>
   </si>
   <si>
@@ -1108,9 +1102,6 @@
   </si>
   <si>
     <t>Burn</t>
-  </si>
-  <si>
-    <t>Displays, SS_Displays</t>
   </si>
   <si>
     <t>Cold Shelf</t>
@@ -1303,7 +1294,16 @@
     <t>Will be added on the 16th of December</t>
   </si>
   <si>
-    <t>Café Activation, Cash Zone, SS_Café Activation, SS_Cash Zone - Petrol, Promo SSD Display IC</t>
+    <t>Café Activation; Cash Zone; SS_Café Activation; SS_Cash Zone - Petrol; Promo SSD Display IC</t>
+  </si>
+  <si>
+    <t>Menu Board; Café Activation; Cash Zone; SS_Menu Board - Petrol; SS_Café Activation; SS_Cash Zone - Petrol</t>
+  </si>
+  <si>
+    <t>Displays; SS_Displays</t>
+  </si>
+  <si>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
   </si>
 </sst>
 </file>
@@ -1760,9 +1760,9 @@
   <dimension ref="A1:AMK97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="Z70" sqref="Z70"/>
+      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2121,13 +2121,13 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF4" s="8">
         <v>1.4194E-2</v>
@@ -2164,10 +2164,10 @@
         <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>54</v>
@@ -2181,10 +2181,10 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -2203,13 +2203,13 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="8">
         <v>1.4194E-2</v>
@@ -2246,10 +2246,10 @@
         <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>54</v>
@@ -2263,10 +2263,10 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -2285,13 +2285,13 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF6" s="8">
         <v>1.4194E-2</v>
@@ -2328,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>54</v>
@@ -2345,10 +2345,10 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -2367,13 +2367,13 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF7" s="8">
         <v>1.4194E-2</v>
@@ -2410,10 +2410,10 @@
         <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>54</v>
@@ -2427,10 +2427,10 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -2449,13 +2449,13 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF8" s="8">
         <v>8.8999999999999999E-3</v>
@@ -2492,10 +2492,10 @@
         <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>54</v>
@@ -2509,10 +2509,10 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -2531,13 +2531,13 @@
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF9" s="8">
         <v>8.8999999999999999E-3</v>
@@ -2574,10 +2574,10 @@
         <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>54</v>
@@ -2591,7 +2591,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7">
         <v>42099697</v>
@@ -2613,13 +2613,13 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF10" s="8">
         <v>8.8999999999999999E-3</v>
@@ -2656,10 +2656,10 @@
         <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>54</v>
@@ -2673,10 +2673,10 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -2695,13 +2695,13 @@
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF11" s="8">
         <v>8.8999999999999999E-3</v>
@@ -2738,10 +2738,10 @@
         <v>46</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>54</v>
@@ -2755,10 +2755,10 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -2777,13 +2777,13 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF12" s="8">
         <v>8.8999999999999999E-3</v>
@@ -2820,10 +2820,10 @@
         <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>54</v>
@@ -2837,10 +2837,10 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -2859,13 +2859,13 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF13" s="8">
         <v>8.8999999999999999E-3</v>
@@ -2902,10 +2902,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>54</v>
@@ -2919,10 +2919,10 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -2941,13 +2941,13 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF14" s="8">
         <v>8.8999999999999999E-3</v>
@@ -2984,10 +2984,10 @@
         <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>54</v>
@@ -3001,10 +3001,10 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -3023,13 +3023,13 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF15" s="8">
         <v>5.6049999999999997E-3</v>
@@ -3066,10 +3066,10 @@
         <v>46</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>54</v>
@@ -3083,10 +3083,10 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -3105,13 +3105,13 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF16" s="8">
         <v>5.6049999999999997E-3</v>
@@ -3148,10 +3148,10 @@
         <v>46</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>54</v>
@@ -3165,10 +3165,10 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -3187,13 +3187,13 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF17" s="8">
         <v>5.6049999999999997E-3</v>
@@ -3230,10 +3230,10 @@
         <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>54</v>
@@ -3247,10 +3247,10 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -3269,13 +3269,13 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF18" s="8">
         <v>5.6049999999999997E-3</v>
@@ -3312,10 +3312,10 @@
         <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>54</v>
@@ -3329,10 +3329,10 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -3351,13 +3351,13 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF19" s="8">
         <v>5.6049999999999997E-3</v>
@@ -3394,10 +3394,10 @@
         <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>54</v>
@@ -3411,10 +3411,10 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -3433,13 +3433,13 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF20" s="8">
         <v>5.6049999999999997E-3</v>
@@ -3476,10 +3476,10 @@
         <v>46</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>54</v>
@@ -3493,7 +3493,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7">
         <v>5449000253101</v>
@@ -3515,13 +3515,13 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF21" s="8">
         <v>5.6049999999999997E-3</v>
@@ -3558,10 +3558,10 @@
         <v>46</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>54</v>
@@ -3575,7 +3575,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7">
         <v>5449000046390</v>
@@ -3597,13 +3597,13 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF22" s="8">
         <v>5.5890000000000002E-3</v>
@@ -3637,13 +3637,13 @@
         <v>42</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>49</v>
@@ -3652,7 +3652,7 @@
         <v>43</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -3689,7 +3689,7 @@
         <v>23</v>
       </c>
       <c r="AM23" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AN23" s="7">
         <v>300</v>
@@ -3709,13 +3709,13 @@
         <v>42</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>54</v>
@@ -3729,10 +3729,10 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -3751,13 +3751,13 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF24" s="8">
         <v>1.3072E-2</v>
@@ -3791,13 +3791,13 @@
         <v>42</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>54</v>
@@ -3811,10 +3811,10 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3833,13 +3833,13 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF25" s="8">
         <v>8.3070000000000001E-3</v>
@@ -3873,13 +3873,13 @@
         <v>42</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>54</v>
@@ -3893,10 +3893,10 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3915,13 +3915,13 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF26" s="8">
         <v>8.3070000000000001E-3</v>
@@ -3955,13 +3955,13 @@
         <v>42</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>54</v>
@@ -3975,10 +3975,10 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -3997,13 +3997,13 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF27" s="8">
         <v>8.3070000000000001E-3</v>
@@ -4037,13 +4037,13 @@
         <v>42</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>54</v>
@@ -4057,7 +4057,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P28" s="7">
         <v>5449000152190</v>
@@ -4079,13 +4079,13 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF28" s="8">
         <v>3.5850000000000001E-3</v>
@@ -4119,13 +4119,13 @@
         <v>42</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>49</v>
@@ -4134,7 +4134,7 @@
         <v>43</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -4171,7 +4171,7 @@
         <v>28</v>
       </c>
       <c r="AM29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AN29" s="7">
         <v>300</v>
@@ -4191,13 +4191,13 @@
         <v>42</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>54</v>
@@ -4211,10 +4211,10 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -4233,13 +4233,13 @@
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF30" s="8">
         <v>1.3072E-2</v>
@@ -4273,13 +4273,13 @@
         <v>42</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>54</v>
@@ -4293,10 +4293,10 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -4315,13 +4315,13 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF31" s="8">
         <v>1.3050000000000001E-2</v>
@@ -4355,13 +4355,13 @@
         <v>42</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>54</v>
@@ -4375,10 +4375,10 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -4397,13 +4397,13 @@
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF32" s="8">
         <v>1.3050000000000001E-2</v>
@@ -4437,13 +4437,13 @@
         <v>42</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>54</v>
@@ -4457,7 +4457,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P33" s="7">
         <v>5060517888794</v>
@@ -4479,13 +4479,13 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF33" s="8">
         <v>8.3070000000000001E-3</v>
@@ -4519,13 +4519,13 @@
         <v>42</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>54</v>
@@ -4539,10 +4539,10 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -4561,13 +4561,13 @@
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF34" s="8">
         <v>8.3070000000000001E-3</v>
@@ -4601,13 +4601,13 @@
         <v>42</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>54</v>
@@ -4621,10 +4621,10 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4643,13 +4643,13 @@
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF35" s="8">
         <v>3.5850000000000001E-3</v>
@@ -4683,13 +4683,13 @@
         <v>42</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>54</v>
@@ -4703,10 +4703,10 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4725,13 +4725,13 @@
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF36" s="8">
         <v>3.5850000000000001E-3</v>
@@ -4765,13 +4765,13 @@
         <v>42</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>49</v>
@@ -4780,7 +4780,7 @@
         <v>43</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -4817,7 +4817,7 @@
         <v>36</v>
       </c>
       <c r="AM37" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AN37" s="7">
         <v>300</v>
@@ -4837,13 +4837,13 @@
         <v>42</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>54</v>
@@ -4857,10 +4857,10 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -4879,13 +4879,13 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF38" s="8">
         <v>1.3050000000000001E-2</v>
@@ -4919,13 +4919,13 @@
         <v>42</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>54</v>
@@ -4939,10 +4939,10 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -4961,13 +4961,13 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF39" s="8">
         <v>8.3070000000000001E-3</v>
@@ -5001,13 +5001,13 @@
         <v>42</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>54</v>
@@ -5021,10 +5021,10 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -5043,13 +5043,13 @@
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF40" s="8">
         <v>8.3070000000000001E-3</v>
@@ -5083,13 +5083,13 @@
         <v>42</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>54</v>
@@ -5103,10 +5103,10 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
@@ -5125,13 +5125,13 @@
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF41" s="8">
         <v>8.3070000000000001E-3</v>
@@ -5165,13 +5165,13 @@
         <v>42</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>54</v>
@@ -5185,10 +5185,10 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
@@ -5207,13 +5207,13 @@
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF42" s="8">
         <v>8.3070000000000001E-3</v>
@@ -5247,13 +5247,13 @@
         <v>42</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>49</v>
@@ -5262,7 +5262,7 @@
         <v>43</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -5299,7 +5299,7 @@
         <v>43</v>
       </c>
       <c r="AM43" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AN43" s="7">
         <v>300</v>
@@ -5319,13 +5319,13 @@
         <v>42</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>54</v>
@@ -5339,10 +5339,10 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
@@ -5361,13 +5361,13 @@
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF44" s="8">
         <v>1.3050000000000001E-2</v>
@@ -5401,13 +5401,13 @@
         <v>42</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>54</v>
@@ -5421,10 +5421,10 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
@@ -5443,13 +5443,13 @@
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF45" s="8">
         <v>8.3070000000000001E-3</v>
@@ -5483,13 +5483,13 @@
         <v>42</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>54</v>
@@ -5503,10 +5503,10 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
@@ -5525,13 +5525,13 @@
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF46" s="8">
         <v>8.3070000000000001E-3</v>
@@ -5565,13 +5565,13 @@
         <v>42</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>54</v>
@@ -5585,10 +5585,10 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
@@ -5607,13 +5607,13 @@
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF47" s="8">
         <v>8.3070000000000001E-3</v>
@@ -5647,13 +5647,13 @@
         <v>42</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>54</v>
@@ -5667,10 +5667,10 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
@@ -5689,13 +5689,13 @@
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF48" s="8">
         <v>8.3070000000000001E-3</v>
@@ -5729,13 +5729,13 @@
         <v>42</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>54</v>
@@ -5749,10 +5749,10 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
@@ -5771,13 +5771,13 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF49" s="8">
         <v>3.5850000000000001E-3</v>
@@ -5811,13 +5811,13 @@
         <v>42</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>54</v>
@@ -5831,10 +5831,10 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
@@ -5853,13 +5853,13 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
       <c r="AA50" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB50" s="7"/>
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF50" s="8">
         <v>3.5850000000000001E-3</v>
@@ -5893,13 +5893,13 @@
         <v>42</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>54</v>
@@ -5913,7 +5913,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P51" s="7">
         <v>4650075423257</v>
@@ -5935,13 +5935,13 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
       <c r="AA51" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB51" s="7"/>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF51" s="8">
         <v>3.5850000000000001E-3</v>
@@ -5975,13 +5975,13 @@
         <v>42</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>54</v>
@@ -5995,10 +5995,10 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
@@ -6017,13 +6017,13 @@
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
       <c r="AA52" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF52" s="8">
         <v>3.5850000000000001E-3</v>
@@ -6057,13 +6057,13 @@
         <v>42</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>54</v>
@@ -6077,10 +6077,10 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
@@ -6099,13 +6099,13 @@
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
       <c r="AA53" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB53" s="7"/>
       <c r="AC53" s="7"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF53" s="8">
         <v>3.5850000000000001E-3</v>
@@ -6139,13 +6139,13 @@
         <v>42</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>54</v>
@@ -6159,7 +6159,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P54" s="7">
         <v>4650075423233</v>
@@ -6181,13 +6181,13 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
       <c r="AA54" s="7" t="s">
-        <v>59</v>
+        <v>394</v>
       </c>
       <c r="AB54" s="7"/>
       <c r="AC54" s="7"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF54" s="8">
         <v>3.5850000000000001E-3</v>
@@ -6222,10 +6222,10 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>42</v>
@@ -6265,7 +6265,7 @@
         <v>520</v>
       </c>
       <c r="AM55" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AN55" s="7"/>
     </row>
@@ -6283,19 +6283,19 @@
         <v>42</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="I56" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>50</v>
@@ -6307,7 +6307,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>50</v>
@@ -6320,14 +6320,14 @@
         <v>56</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z56" s="7"/>
       <c r="AA56" s="7"/>
@@ -6335,7 +6335,7 @@
       <c r="AC56" s="7"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF56" s="8">
         <v>4.2500000000000003E-2</v>
@@ -6347,10 +6347,10 @@
         <v>1</v>
       </c>
       <c r="AI56" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ56" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="AJ56" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="AK56" s="7">
         <v>2</v>
@@ -6377,22 +6377,22 @@
         <v>42</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="H57" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="7">
@@ -6401,27 +6401,27 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T57" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
@@ -6429,7 +6429,7 @@
       <c r="AC57" s="7"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF57" s="8">
         <v>4.2500000000000003E-2</v>
@@ -6441,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="AI57" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ57" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="AJ57" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="AK57" s="7">
         <v>2</v>
@@ -6471,22 +6471,22 @@
         <v>42</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="H58" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="12">
@@ -6495,27 +6495,27 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U58" s="7"/>
       <c r="V58" s="7"/>
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
@@ -6523,7 +6523,7 @@
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF58" s="8">
         <v>4.2500000000000003E-2</v>
@@ -6535,10 +6535,10 @@
         <v>1</v>
       </c>
       <c r="AI58" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ58" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="AJ58" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="AK58" s="7">
         <v>2</v>
@@ -6566,10 +6566,10 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>42</v>
@@ -6609,7 +6609,7 @@
         <v>310</v>
       </c>
       <c r="AM59" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AN59" s="7"/>
     </row>
@@ -6628,10 +6628,10 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>42</v>
@@ -6691,16 +6691,16 @@
         <v>42</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -6713,7 +6713,7 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
@@ -6727,7 +6727,7 @@
       <c r="AC61" s="7"/>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF61" s="8">
         <v>0.1275</v>
@@ -6735,7 +6735,7 @@
       <c r="AG61" s="7"/>
       <c r="AH61" s="7"/>
       <c r="AI61" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ61" s="7"/>
       <c r="AK61" s="7">
@@ -6745,7 +6745,7 @@
         <v>62</v>
       </c>
       <c r="AM61" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AN61" s="7">
         <v>311</v>
@@ -6765,16 +6765,16 @@
         <v>42</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -6785,23 +6785,23 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
       <c r="T62" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z62" s="7"/>
       <c r="AA62" s="7"/>
@@ -6809,13 +6809,13 @@
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF62" s="8"/>
       <c r="AG62" s="7"/>
       <c r="AH62" s="7"/>
       <c r="AI62" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7">
@@ -6843,16 +6843,16 @@
         <v>42</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -6863,23 +6863,23 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
       <c r="T63" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z63" s="7"/>
       <c r="AA63" s="7"/>
@@ -6887,7 +6887,7 @@
       <c r="AC63" s="7"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF63" s="8"/>
       <c r="AG63" s="7"/>
@@ -6920,10 +6920,10 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>42</v>
@@ -6963,7 +6963,7 @@
         <v>312</v>
       </c>
       <c r="AM64" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN64" s="7">
         <v>310</v>
@@ -6983,16 +6983,16 @@
         <v>42</v>
       </c>
       <c r="E65" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -7004,13 +7004,13 @@
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
       <c r="T65" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -7018,14 +7018,14 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF65" s="8">
         <v>4.2500000000000003E-2</v>
@@ -7033,10 +7033,10 @@
       <c r="AG65" s="7"/>
       <c r="AH65" s="7"/>
       <c r="AI65" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ65" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK65" s="7">
         <v>2</v>
@@ -7063,16 +7063,16 @@
         <v>42</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F66" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -7083,23 +7083,23 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U66" s="7"/>
       <c r="V66" s="7"/>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
       <c r="Y66" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -7107,7 +7107,7 @@
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
       <c r="AE66" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF66" s="8">
         <v>4.2500000000000003E-2</v>
@@ -7115,10 +7115,10 @@
       <c r="AG66" s="7"/>
       <c r="AH66" s="7"/>
       <c r="AI66" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ66" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK66" s="7">
         <v>2</v>
@@ -7145,16 +7145,16 @@
         <v>42</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -7167,23 +7167,23 @@
         <v>15</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z67" s="7"/>
       <c r="AA67" s="7"/>
@@ -7191,7 +7191,7 @@
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
       <c r="AE67" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF67" s="8">
         <v>4.2500000000000003E-2</v>
@@ -7199,10 +7199,10 @@
       <c r="AG67" s="7"/>
       <c r="AH67" s="7"/>
       <c r="AI67" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ67" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK67" s="7">
         <v>2</v>
@@ -7230,10 +7230,10 @@
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>42</v>
@@ -7273,7 +7273,7 @@
         <v>400</v>
       </c>
       <c r="AM68" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AN68" s="7"/>
     </row>
@@ -7292,13 +7292,13 @@
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -7327,7 +7327,7 @@
       <c r="AC69" s="7"/>
       <c r="AD69" s="7"/>
       <c r="AE69" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF69" s="8">
         <v>4.2500000000000003E-2</v>
@@ -7364,10 +7364,10 @@
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>54</v>
@@ -7381,20 +7381,20 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q70" s="7"/>
       <c r="R70" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S70" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T70" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U70" s="7"/>
       <c r="V70" s="7"/>
@@ -7402,14 +7402,14 @@
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
       <c r="AE70" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF70" s="8"/>
       <c r="AG70" s="7"/>
@@ -7441,16 +7441,16 @@
         <v>42</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -7465,7 +7465,7 @@
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
@@ -7474,14 +7474,14 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
       <c r="AE71" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF71" s="8">
         <v>2.5000000000000001E-2</v>
@@ -7517,16 +7517,16 @@
         <v>42</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -7541,7 +7541,7 @@
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
@@ -7550,14 +7550,14 @@
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
       <c r="AC72" s="7"/>
       <c r="AD72" s="7"/>
       <c r="AE72" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF72" s="8"/>
       <c r="AG72" s="7"/>
@@ -7571,7 +7571,7 @@
         <v>69</v>
       </c>
       <c r="AM72" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AN72" s="7">
         <v>68</v>
@@ -7591,13 +7591,13 @@
         <v>42</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>54</v>
@@ -7611,13 +7611,13 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q73" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="R73" s="7"/>
       <c r="S73" s="7" t="s">
@@ -7632,14 +7632,14 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
       <c r="AC73" s="7"/>
       <c r="AD73" s="7"/>
       <c r="AE73" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF73" s="8"/>
       <c r="AG73" s="7"/>
@@ -7671,13 +7671,13 @@
         <v>42</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>54</v>
@@ -7691,10 +7691,10 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
@@ -7710,14 +7710,14 @@
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
       <c r="AC74" s="7"/>
       <c r="AD74" s="7"/>
       <c r="AE74" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF74" s="8"/>
       <c r="AG74" s="7"/>
@@ -7749,16 +7749,16 @@
         <v>42</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -7773,7 +7773,7 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
@@ -7782,14 +7782,14 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
       <c r="AC75" s="7"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF75" s="8">
         <v>1.7500000000000002E-2</v>
@@ -7805,7 +7805,7 @@
         <v>680</v>
       </c>
       <c r="AM75" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AN75" s="7">
         <v>400</v>
@@ -7825,16 +7825,16 @@
         <v>42</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -7849,7 +7849,7 @@
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
@@ -7858,14 +7858,14 @@
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
       <c r="AC76" s="7"/>
       <c r="AD76" s="7"/>
       <c r="AE76" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF76" s="8"/>
       <c r="AG76" s="7"/>
@@ -7879,7 +7879,7 @@
         <v>72</v>
       </c>
       <c r="AM76" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN76" s="7">
         <v>680</v>
@@ -7899,13 +7899,13 @@
         <v>42</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>54</v>
@@ -7920,19 +7920,19 @@
       <c r="N77" s="7"/>
       <c r="O77" s="7"/>
       <c r="P77" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S77" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T77" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
@@ -7940,14 +7940,14 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA77" s="7"/>
       <c r="AB77" s="7"/>
       <c r="AC77" s="7"/>
       <c r="AD77" s="7"/>
       <c r="AE77" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF77" s="8"/>
       <c r="AG77" s="7"/>
@@ -7979,13 +7979,13 @@
         <v>42</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>54</v>
@@ -7999,10 +7999,10 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
@@ -8017,7 +8017,7 @@
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Z78" s="7"/>
       <c r="AA78" s="7"/>
@@ -8025,7 +8025,7 @@
       <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
       <c r="AE78" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF78" s="8"/>
       <c r="AG78" s="7"/>
@@ -8057,16 +8057,16 @@
         <v>42</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -8081,7 +8081,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
@@ -8090,14 +8090,14 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
       <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
       <c r="AE79" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF79" s="8"/>
       <c r="AG79" s="7"/>
@@ -8111,7 +8111,7 @@
         <v>769</v>
       </c>
       <c r="AM79" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AN79" s="7">
         <v>680</v>
@@ -8131,13 +8131,13 @@
         <v>42</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>54</v>
@@ -8151,22 +8151,22 @@
       <c r="M80" s="7"/>
       <c r="N80" s="7"/>
       <c r="O80" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S80" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T80" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
@@ -8174,14 +8174,14 @@
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
       <c r="AC80" s="7"/>
       <c r="AD80" s="7"/>
       <c r="AE80" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF80" s="8"/>
       <c r="AG80" s="7"/>
@@ -8213,13 +8213,13 @@
         <v>42</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>54</v>
@@ -8233,10 +8233,10 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
       <c r="O81" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
@@ -8252,14 +8252,14 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
       <c r="AC81" s="7"/>
       <c r="AD81" s="7"/>
       <c r="AE81" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF81" s="8"/>
       <c r="AG81" s="7"/>
@@ -8291,13 +8291,13 @@
         <v>42</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>54</v>
@@ -8311,20 +8311,20 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
       <c r="O82" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q82" s="7"/>
       <c r="R82" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S82" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T82" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U82" s="7">
         <v>0.5</v>
@@ -8334,14 +8334,14 @@
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="7" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="AA82" s="7"/>
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
       <c r="AE82" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF82" s="8">
         <v>0.03</v>
@@ -8376,10 +8376,10 @@
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>42</v>
@@ -8419,7 +8419,7 @@
         <v>330</v>
       </c>
       <c r="AM83" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AN83" s="7">
         <v>520</v>
@@ -8436,19 +8436,19 @@
         <v>41</v>
       </c>
       <c r="D84" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="H84" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -8459,7 +8459,7 @@
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
       <c r="O84" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>50</v>
@@ -8472,14 +8472,14 @@
         <v>56</v>
       </c>
       <c r="T84" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
       <c r="X84" s="7"/>
       <c r="Y84" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z84" s="7"/>
       <c r="AA84" s="7"/>
@@ -8487,7 +8487,7 @@
       <c r="AC84" s="7"/>
       <c r="AD84" s="7"/>
       <c r="AE84" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF84" s="8">
         <v>0.02</v>
@@ -8499,10 +8499,10 @@
         <v>1</v>
       </c>
       <c r="AI84" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ84" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AK84" s="7">
         <v>2</v>
@@ -8526,19 +8526,19 @@
         <v>41</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -8549,27 +8549,27 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R85" s="7"/>
       <c r="S85" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z85" s="7"/>
       <c r="AA85" s="7"/>
@@ -8577,7 +8577,7 @@
       <c r="AC85" s="7"/>
       <c r="AD85" s="7"/>
       <c r="AE85" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF85" s="8">
         <v>2.5000000000000001E-2</v>
@@ -8589,10 +8589,10 @@
         <v>1</v>
       </c>
       <c r="AI85" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ85" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AK85" s="7">
         <v>2</v>
@@ -8616,19 +8616,19 @@
         <v>41</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -8639,27 +8639,27 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
       <c r="O86" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R86" s="7"/>
       <c r="S86" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T86" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z86" s="7"/>
       <c r="AA86" s="7"/>
@@ -8667,7 +8667,7 @@
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
       <c r="AE86" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF86" s="8">
         <v>2.5000000000000001E-2</v>
@@ -8679,10 +8679,10 @@
         <v>1</v>
       </c>
       <c r="AI86" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ86" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AK86" s="7">
         <v>2</v>
@@ -8706,19 +8706,19 @@
         <v>41</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="G87" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -8729,27 +8729,27 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="O87" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R87" s="7"/>
       <c r="S87" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
       <c r="Y87" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z87" s="7"/>
       <c r="AA87" s="7"/>
@@ -8757,7 +8757,7 @@
       <c r="AC87" s="7"/>
       <c r="AD87" s="7"/>
       <c r="AE87" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF87" s="8">
         <v>0.02</v>
@@ -8769,10 +8769,10 @@
         <v>1</v>
       </c>
       <c r="AI87" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ87" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AK87" s="7">
         <v>2</v>
@@ -8796,19 +8796,19 @@
         <v>41</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -8819,27 +8819,27 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="O88" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R88" s="7"/>
       <c r="S88" s="7" t="s">
         <v>56</v>
       </c>
       <c r="T88" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
       <c r="Y88" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Z88" s="7"/>
       <c r="AA88" s="7"/>
@@ -8847,7 +8847,7 @@
       <c r="AC88" s="7"/>
       <c r="AD88" s="7"/>
       <c r="AE88" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF88" s="8">
         <v>0.03</v>
@@ -8859,10 +8859,10 @@
         <v>1</v>
       </c>
       <c r="AI88" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AJ88" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AK88" s="7">
         <v>2</v>
@@ -8886,24 +8886,24 @@
         <v>41</v>
       </c>
       <c r="D89" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H89" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -8914,7 +8914,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
       <c r="T89" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
@@ -8937,7 +8937,7 @@
         <v>78</v>
       </c>
       <c r="AM89" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AN89" s="7"/>
     </row>
@@ -8952,37 +8952,37 @@
         <v>41</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H90" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
       <c r="P90" s="13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
       <c r="T90" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
@@ -9020,37 +9020,37 @@
         <v>41</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E91" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
       <c r="P91" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
       <c r="T91" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
@@ -9088,24 +9088,24 @@
         <v>41</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -9116,7 +9116,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
       <c r="T92" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U92" s="7"/>
       <c r="V92" s="7"/>
@@ -9154,24 +9154,24 @@
         <v>41</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -9182,7 +9182,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
       <c r="T93" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
@@ -9220,24 +9220,24 @@
         <v>41</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -9248,7 +9248,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
       <c r="T94" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
@@ -9286,39 +9286,39 @@
         <v>41</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
       <c r="O95" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="P95" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
       <c r="T95" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
@@ -9341,7 +9341,7 @@
         <v>85</v>
       </c>
       <c r="AM95" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AN95" s="7"/>
     </row>
@@ -9356,44 +9356,44 @@
         <v>41</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E96" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
       <c r="P96" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
       <c r="T96" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
       <c r="W96" s="7"/>
       <c r="X96" s="7"/>
       <c r="Y96" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z96" s="7"/>
       <c r="AA96" s="7"/>
@@ -9424,22 +9424,22 @@
         <v>41</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -9450,7 +9450,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
       <c r="T97" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
@@ -9513,10 +9513,10 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I1" t="s">
         <v>34</v>
@@ -9525,18 +9525,18 @@
         <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
